--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/examples/spreadsheets/current/filled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A6DD067-5C01-7142-8849-B3E05DA6B6A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{403EA2DA-3D41-334A-90F6-46B6AD26538F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="580" windowWidth="26540" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="580" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,13 @@
     <sheet name="Enrichment protocol" sheetId="12" r:id="rId8"/>
     <sheet name="Library preparation protocol" sheetId="13" r:id="rId9"/>
     <sheet name="Sequencing protocol" sheetId="14" r:id="rId10"/>
-    <sheet name="Schemas" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="519">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -980,27 +979,6 @@
     <t>Well name</t>
   </si>
   <si>
-    <t>sequence_file.smartseq2.well_name</t>
-  </si>
-  <si>
-    <t>Well row in plate.</t>
-  </si>
-  <si>
-    <t>Well row</t>
-  </si>
-  <si>
-    <t>sequence_file.smartseq2.well_row</t>
-  </si>
-  <si>
-    <t>Well column in plate.</t>
-  </si>
-  <si>
-    <t>Well column</t>
-  </si>
-  <si>
-    <t>sequence_file.smartseq2.well_column</t>
-  </si>
-  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
@@ -1457,87 +1435,6 @@
     <t>sequencing_protocol.sequencing_approach.ontology</t>
   </si>
   <si>
-    <t>Schemas</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/7.0.0/collection_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/sequencing/7.0.0/sequencing_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/6.1.1/cell_suspension</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/6.1.1/sequence_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/6.1.1/protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/analysis/6.1.1/analysis_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/imaging/6.1.1/imaging_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.2/specimen_from_organism</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.1/cell_line</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.1/donor_organism</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.1/organoid</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/5.2.1/analysis_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/project/5.2.1/project</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/analysis/5.1.0/analysis_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/collection_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/dissociation_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/enrichment_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/imaging/5.1.0/imaging_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/library_preparation_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/sequencing_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial/5.1.0/biomaterial_collection_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/sequencing/3.0.0/library_preparation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/2.1.1/process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.0.0/dissociation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.0.0/enrichment_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/1.1.1/reference_file</t>
-  </si>
-  <si>
     <t>Q4_DEMO-project_PRJNA248302</t>
   </si>
   <si>
@@ -1571,9 +1468,6 @@
     <t>Q4_DEMO-Single cell mRNA-seq_MGH30_A01</t>
   </si>
   <si>
-    <t>Q4_DEMO-protocol</t>
-  </si>
-  <si>
     <t>brain</t>
   </si>
   <si>
@@ -1604,9 +1498,6 @@
     <t>Smart-seq2</t>
   </si>
   <si>
-    <t>5 prime end bias</t>
-  </si>
-  <si>
     <t>assay_1</t>
   </si>
   <si>
@@ -1628,9 +1519,6 @@
     <t>read2</t>
   </si>
   <si>
-    <t>sequence_process_file_1</t>
-  </si>
-  <si>
     <t>dissociation_1</t>
   </si>
   <si>
@@ -1650,13 +1538,61 @@
   </si>
   <si>
     <t>EFO:0008441</t>
+  </si>
+  <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>an enrichment method to enrich for cells</t>
+  </si>
+  <si>
+    <t>a library preparation protocol to make the sequencing library</t>
+  </si>
+  <si>
+    <t>OBI:0000869</t>
+  </si>
+  <si>
+    <t>full length</t>
+  </si>
+  <si>
+    <t>poly-dT</t>
+  </si>
+  <si>
+    <t>a sequencing protocol</t>
+  </si>
+  <si>
+    <t>EFO:0008565</t>
+  </si>
+  <si>
+    <t>NCBITaxon:9606</t>
+  </si>
+  <si>
+    <t>UBERON:0000955</t>
+  </si>
+  <si>
+    <t>CL:0000127</t>
+  </si>
+  <si>
+    <t>amygdala</t>
+  </si>
+  <si>
+    <t>UBERON:0001876</t>
+  </si>
+  <si>
+    <t>project.project_core.project_short_name</t>
+  </si>
+  <si>
+    <t>EMBL-EBI</t>
+  </si>
+  <si>
+    <t>sequence_file.smartseq2.well_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,13 +1616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1699,11 +1628,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1711,18 +1635,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1740,32 +1658,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2105,7 +2016,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2146,29 +2057,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2213,19 +2124,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2237,24 +2148,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="54.6640625" customWidth="1"/>
-    <col min="8" max="8" width="58.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" customWidth="1"/>
-    <col min="12" max="12" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
@@ -2262,325 +2173,155 @@
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>465</v>
+        <v>326</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>468</v>
+        <v>329</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>338</v>
+      <c r="I3" t="s">
+        <v>328</v>
       </c>
       <c r="J3" t="s">
-        <v>470</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" t="s">
         <v>457</v>
       </c>
-      <c r="C4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K4" t="s">
+        <v>454</v>
+      </c>
+      <c r="L4" t="s">
         <v>460</v>
       </c>
-      <c r="F4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I4" t="s">
-        <v>467</v>
-      </c>
-      <c r="J4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K4" t="s">
-        <v>473</v>
-      </c>
-      <c r="L4" t="s">
-        <v>474</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
-      </c>
-      <c r="G6" t="s">
-        <v>526</v>
-      </c>
-      <c r="J6" t="s">
-        <v>470</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>539</v>
+        <v>489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F6" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2590,7 +2331,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2601,7 +2342,7 @@
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="240" x14ac:dyDescent="0.2">
@@ -2630,26 +2371,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2687,23 +2428,26 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>472</v>
+      </c>
+      <c r="D6" t="s">
+        <v>517</v>
       </c>
       <c r="H6" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -2715,55 +2459,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" customWidth="1"/>
-    <col min="12" max="13" width="48.6640625" customWidth="1"/>
-    <col min="14" max="14" width="52.6640625" customWidth="1"/>
-    <col min="15" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" customWidth="1"/>
-    <col min="27" max="27" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="44.6640625" customWidth="1"/>
+    <col min="16" max="17" width="48.6640625" customWidth="1"/>
+    <col min="18" max="18" width="52.6640625" customWidth="1"/>
+    <col min="19" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="37.6640625" customWidth="1"/>
-    <col min="30" max="30" width="41.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" customWidth="1"/>
     <col min="31" max="31" width="37.6640625" customWidth="1"/>
     <col min="32" max="32" width="41.6640625" customWidth="1"/>
-    <col min="33" max="33" width="27.6640625" customWidth="1"/>
-    <col min="34" max="34" width="31.6640625" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" customWidth="1"/>
-    <col min="39" max="39" width="40.6640625" customWidth="1"/>
-    <col min="40" max="40" width="44.6640625" customWidth="1"/>
-    <col min="41" max="41" width="6.6640625" customWidth="1"/>
-    <col min="42" max="42" width="31.6640625" customWidth="1"/>
-    <col min="43" max="43" width="35.6640625" customWidth="1"/>
-    <col min="44" max="44" width="10.6640625" customWidth="1"/>
-    <col min="45" max="45" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="37.6640625" customWidth="1"/>
+    <col min="34" max="34" width="41.6640625" customWidth="1"/>
+    <col min="35" max="35" width="27.6640625" customWidth="1"/>
+    <col min="36" max="36" width="31.6640625" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.6640625" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" customWidth="1"/>
+    <col min="41" max="41" width="40.6640625" customWidth="1"/>
+    <col min="42" max="42" width="44.6640625" customWidth="1"/>
+    <col min="43" max="43" width="6.6640625" customWidth="1"/>
+    <col min="44" max="44" width="31.6640625" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" customWidth="1"/>
     <col min="46" max="46" width="6.6640625" customWidth="1"/>
     <col min="47" max="47" width="31.6640625" customWidth="1"/>
     <col min="48" max="48" width="35.6640625" customWidth="1"/>
@@ -2783,127 +2526,127 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>162</v>
@@ -2915,149 +2658,149 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>163</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3075,127 +2818,127 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>79</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>81</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>83</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>85</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>95</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>98</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>101</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>104</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>107</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
         <v>110</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
         <v>113</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
         <v>116</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AC4" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>125</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>127</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>128</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>130</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>131</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>133</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>135</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>138</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>141</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>144</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>147</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>148</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>149</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>152</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>154</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>155</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>161</v>
       </c>
       <c r="AT4" t="s">
         <v>164</v>
@@ -3208,36 +2951,38 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="A6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="3">
         <v>9606</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="X6" s="5"/>
-      <c r="Z6" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>527</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>509</v>
-      </c>
+      <c r="E6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3246,7 +2991,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3261,12 +3006,13 @@
     <col min="9" max="9" width="37.6640625" customWidth="1"/>
     <col min="10" max="10" width="38.6640625" customWidth="1"/>
     <col min="11" max="11" width="42.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="66.6640625" customWidth="1"/>
-    <col min="15" max="15" width="70.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
-    <col min="17" max="19" width="18.6640625" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="70.6640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" customWidth="1"/>
     <col min="21" max="21" width="9.6640625" customWidth="1"/>
     <col min="22" max="22" width="19.6640625" customWidth="1"/>
@@ -3319,28 +3065,28 @@
         <v>178</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>63</v>
@@ -3391,17 +3137,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3410,82 +3156,82 @@
       <c r="F2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>176</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>222</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -3499,7 +3245,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3538,28 +3284,28 @@
         <v>179</v>
       </c>
       <c r="L4" t="s">
+        <v>482</v>
+      </c>
+      <c r="M4" t="s">
+        <v>483</v>
+      </c>
+      <c r="N4" t="s">
         <v>182</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>186</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>187</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>188</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>194</v>
-      </c>
-      <c r="R4" t="s">
-        <v>517</v>
-      </c>
-      <c r="S4" t="s">
-        <v>518</v>
       </c>
       <c r="T4" t="s">
         <v>195</v>
@@ -3611,38 +3357,45 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9606</v>
+      </c>
+      <c r="F6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" t="s">
         <v>511</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="H6" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="I6" t="s">
         <v>512</v>
       </c>
-      <c r="E6" s="5">
-        <v>9606</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" t="s">
         <v>515</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>513</v>
-      </c>
+      <c r="L6" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="V6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,37 +3407,38 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" customWidth="1"/>
+    <col min="9" max="9" width="43.6640625" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="51.6640625" customWidth="1"/>
-    <col min="14" max="14" width="55.6640625" customWidth="1"/>
-    <col min="15" max="15" width="68.6640625" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="67.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="25.6640625" customWidth="1"/>
-    <col min="22" max="22" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="51.6640625" customWidth="1"/>
+    <col min="18" max="18" width="55.6640625" customWidth="1"/>
+    <col min="19" max="19" width="68.6640625" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" customWidth="1"/>
+    <col min="21" max="21" width="67.6640625" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" customWidth="1"/>
     <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="24" max="24" width="34.6640625" customWidth="1"/>
-    <col min="25" max="25" width="38.6640625" customWidth="1"/>
-    <col min="26" max="26" width="39.6640625" customWidth="1"/>
-    <col min="27" max="27" width="43.6640625" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" customWidth="1"/>
+    <col min="26" max="26" width="26.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
     <col min="28" max="28" width="26.6640625" customWidth="1"/>
     <col min="29" max="29" width="10.6640625" customWidth="1"/>
     <col min="30" max="31" width="11.6640625" customWidth="1"/>
@@ -3707,66 +3461,66 @@
         <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>282</v>
@@ -3781,89 +3535,89 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>283</v>
       </c>
       <c r="AC2" s="2" t="s">
@@ -3877,16 +3631,16 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>263</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>267</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>271</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>275</v>
       </c>
       <c r="AB3" t="s">
@@ -3910,70 +3664,70 @@
         <v>234</v>
       </c>
       <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" t="s">
         <v>235</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>236</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>237</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>238</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>245</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>246</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>247</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>252</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>254</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>257</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>260</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>264</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>268</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
         <v>272</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
         <v>276</v>
-      </c>
-      <c r="X4" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>281</v>
       </c>
       <c r="AB4" t="s">
         <v>285</v>
@@ -3989,25 +3743,37 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>511</v>
+        <v>481</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
+      <c r="F6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="I6" t="s">
+        <v>513</v>
+      </c>
       <c r="AD6" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="AE6" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4017,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4034,14 +3800,12 @@
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
@@ -4073,25 +3837,19 @@
         <v>314</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>288</v>
       </c>
@@ -4101,47 +3859,41 @@
       <c r="C2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>324</v>
+      <c r="K2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="P2" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>298</v>
       </c>
@@ -4152,7 +3904,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -4181,82 +3933,76 @@
         <v>313</v>
       </c>
       <c r="J4" t="s">
-        <v>316</v>
+        <v>518</v>
       </c>
       <c r="K4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" t="s">
         <v>319</v>
       </c>
-      <c r="L4" t="s">
-        <v>322</v>
-      </c>
       <c r="M4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N4" t="s">
-        <v>326</v>
-      </c>
-      <c r="O4" t="s">
-        <v>327</v>
-      </c>
-      <c r="P4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>528</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>530</v>
+        <v>481</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="E6" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>521</v>
-      </c>
-      <c r="O6" t="s">
-        <v>525</v>
-      </c>
-      <c r="P6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>529</v>
+      <c r="I6">
+        <v>1001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>486</v>
+      </c>
+      <c r="M6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>530</v>
+        <v>481</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>531</v>
-      </c>
-      <c r="F7" s="8">
+        <v>495</v>
+      </c>
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>521</v>
-      </c>
-      <c r="O7" t="s">
-        <v>525</v>
-      </c>
-      <c r="P7" t="s">
-        <v>532</v>
+      <c r="I7">
+        <v>1001</v>
+      </c>
+      <c r="L7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M7" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4015,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,12 +4023,12 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
@@ -4291,119 +4037,119 @@
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J3" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="K3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O3" t="s">
         <v>348</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K3" t="s">
-        <v>346</v>
-      </c>
-      <c r="L3" t="s">
-        <v>349</v>
-      </c>
-      <c r="N3" t="s">
-        <v>352</v>
-      </c>
-      <c r="O3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4411,65 +4157,68 @@
         <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" t="s">
         <v>358</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>360</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>361</v>
       </c>
-      <c r="H4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N4" t="s">
+        <v>364</v>
+      </c>
+      <c r="O4" t="s">
         <v>365</v>
       </c>
-      <c r="J4" t="s">
-        <v>366</v>
-      </c>
-      <c r="K4" t="s">
-        <v>367</v>
-      </c>
-      <c r="L4" t="s">
-        <v>368</v>
-      </c>
-      <c r="M4" t="s">
-        <v>370</v>
-      </c>
-      <c r="N4" t="s">
-        <v>371</v>
-      </c>
-      <c r="O4" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
-      </c>
-      <c r="G6" t="s">
-        <v>535</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>536</v>
+        <v>497</v>
+      </c>
+      <c r="D6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4483,19 +4232,19 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
     <col min="10" max="11" width="21.6640625" customWidth="1"/>
   </cols>
@@ -4505,80 +4254,80 @@
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>338</v>
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" t="s">
+        <v>331</v>
       </c>
       <c r="I3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4586,50 +4335,53 @@
         <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" t="s">
         <v>376</v>
       </c>
-      <c r="F4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>379</v>
       </c>
-      <c r="I4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J4" t="s">
-        <v>386</v>
-      </c>
       <c r="K4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>520</v>
-      </c>
-      <c r="G6" t="s">
-        <v>535</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>536</v>
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4641,39 +4393,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" customWidth="1"/>
-    <col min="12" max="12" width="65.6640625" customWidth="1"/>
-    <col min="13" max="13" width="63.6640625" customWidth="1"/>
-    <col min="14" max="14" width="67.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="78.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="81.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" customWidth="1"/>
-    <col min="28" max="29" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="78.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="81.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
     <col min="30" max="30" width="11.6640625" customWidth="1"/>
     <col min="31" max="31" width="14.6640625" customWidth="1"/>
     <col min="32" max="32" width="12.6640625" customWidth="1"/>
@@ -4690,484 +4442,493 @@
     <col min="44" max="44" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>410</v>
+        <v>332</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="R1" s="1"/>
+        <v>397</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="S1" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>342</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="X1" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="Y1" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>427</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" t="s">
+        <v>331</v>
+      </c>
+      <c r="R3" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S3" t="s">
+        <v>339</v>
+      </c>
+      <c r="T3" t="s">
+        <v>342</v>
+      </c>
+      <c r="V3" t="s">
+        <v>345</v>
+      </c>
+      <c r="W3" t="s">
         <v>348</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="X3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC3" t="s">
         <v>348</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AD3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI3" t="s">
         <v>348</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>338</v>
-      </c>
-      <c r="O3" t="s">
-        <v>344</v>
-      </c>
-      <c r="P3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>349</v>
-      </c>
-      <c r="S3" t="s">
-        <v>352</v>
-      </c>
-      <c r="T3" t="s">
-        <v>355</v>
-      </c>
-      <c r="U3" t="s">
-        <v>344</v>
-      </c>
-      <c r="V3" t="s">
-        <v>346</v>
-      </c>
-      <c r="W3" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" t="s">
+        <v>426</v>
+      </c>
+      <c r="J4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M4" t="s">
+        <v>387</v>
+      </c>
+      <c r="N4" t="s">
         <v>390</v>
       </c>
-      <c r="C4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="O4" t="s">
         <v>393</v>
       </c>
-      <c r="F4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" t="s">
-        <v>400</v>
-      </c>
-      <c r="I4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>399</v>
+      </c>
+      <c r="R4" t="s">
         <v>406</v>
       </c>
-      <c r="K4" t="s">
+      <c r="S4" t="s">
+        <v>407</v>
+      </c>
+      <c r="T4" t="s">
         <v>408</v>
       </c>
-      <c r="L4" t="s">
-        <v>409</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="U4" t="s">
+        <v>410</v>
+      </c>
+      <c r="V4" t="s">
         <v>411</v>
       </c>
-      <c r="N4" t="s">
+      <c r="W4" t="s">
         <v>412</v>
       </c>
-      <c r="O4" t="s">
+      <c r="X4" t="s">
         <v>413</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Y4" t="s">
         <v>414</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Z4" t="s">
         <v>415</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AA4" t="s">
         <v>417</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
         <v>418</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AC4" t="s">
         <v>419</v>
       </c>
-      <c r="U4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V4" t="s">
-        <v>421</v>
-      </c>
-      <c r="W4" t="s">
-        <v>422</v>
-      </c>
-      <c r="X4" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>430</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF4" t="s">
         <v>433</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AI4" t="s">
         <v>437</v>
       </c>
-      <c r="AD4" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>440</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL4" t="s">
         <v>442</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AM4" t="s">
         <v>443</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AN4" t="s">
         <v>444</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AO4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AP4" t="s">
         <v>447</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AQ4" t="s">
         <v>448</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AR4" t="s">
         <v>449</v>
       </c>
-      <c r="AM4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>455</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>456</v>
-      </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>521</v>
-      </c>
-      <c r="K6" t="s">
-        <v>522</v>
-      </c>
-      <c r="M6" t="s">
-        <v>523</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>436</v>
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I6" t="s">
+        <v>508</v>
+      </c>
+      <c r="J6" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{403EA2DA-3D41-334A-90F6-46B6AD26538F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40FF5333-52FF-D645-9923-2905F0C75B8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="580" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="508">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Tissue Stability</t>
   </si>
   <si>
-    <t>project.project_core.project_shortname</t>
-  </si>
-  <si>
     <t>Add your data below this line</t>
   </si>
   <si>
@@ -220,24 +217,6 @@
     <t>donor_organism.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
-    <t>Genotype of biomaterial including strain, cross, and genetic modification information.</t>
-  </si>
-  <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>The karyotype of the biomaterial.</t>
-  </si>
-  <si>
-    <t>Karyotype</t>
-  </si>
-  <si>
-    <t>donor_organism.biomaterial_core.karyotype</t>
-  </si>
-  <si>
     <t>A list of filenames of biomaterial-level supplementary files.</t>
   </si>
   <si>
@@ -616,12 +595,6 @@
     <t>specimen_from_organism.collection_time</t>
   </si>
   <si>
-    <t>specimen_from_organism.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.karyotype</t>
-  </si>
-  <si>
     <t>specimen_from_organism.biomaterial_core.supplementary_files</t>
   </si>
   <si>
@@ -736,12 +709,6 @@
     <t>cell_suspension.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
-    <t>cell_suspension.biomaterial_core.genotype</t>
-  </si>
-  <si>
-    <t>cell_suspension.biomaterial_core.karyotype</t>
-  </si>
-  <si>
     <t>cell_suspension.biomaterial_core.supplementary_files</t>
   </si>
   <si>
@@ -970,9 +937,6 @@
     <t>Well plate ID</t>
   </si>
   <si>
-    <t>sequence_file.smartseq2.plate_id</t>
-  </si>
-  <si>
     <t>A name for the well. Should be unique for the plate</t>
   </si>
   <si>
@@ -985,9 +949,6 @@
     <t>Cell quality</t>
   </si>
   <si>
-    <t>sequence_file.smartseq2.cell_quality</t>
-  </si>
-  <si>
     <t>library_preparation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1585,7 +1546,13 @@
     <t>EMBL-EBI</t>
   </si>
   <si>
-    <t>sequence_file.smartseq2.well_id</t>
+    <t>cell_suspension.plate_based_sequencing.plate_id</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.well_id</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.cell_quality</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +1983,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2036,25 +2003,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2062,25 +2029,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2088,55 +2055,55 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2148,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2170,155 +2137,155 @@
   <sheetData>
     <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" t="s">
         <v>451</v>
       </c>
-      <c r="D4" t="s">
-        <v>456</v>
-      </c>
-      <c r="E4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F4" t="s">
-        <v>464</v>
-      </c>
       <c r="G4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="H4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="J4" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="K4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="L4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" t="s">
+        <v>450</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="B6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="F6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2298,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2347,25 +2314,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2373,25 +2340,25 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
@@ -2399,7 +2366,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -2407,47 +2374,47 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2457,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2472,513 +2439,493 @@
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="44.6640625" customWidth="1"/>
-    <col min="16" max="17" width="48.6640625" customWidth="1"/>
-    <col min="18" max="18" width="52.6640625" customWidth="1"/>
-    <col min="19" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" customWidth="1"/>
+    <col min="14" max="15" width="48.6640625" customWidth="1"/>
+    <col min="16" max="16" width="52.6640625" customWidth="1"/>
+    <col min="17" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="28.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="37.6640625" customWidth="1"/>
+    <col min="30" max="30" width="41.6640625" customWidth="1"/>
     <col min="31" max="31" width="37.6640625" customWidth="1"/>
     <col min="32" max="32" width="41.6640625" customWidth="1"/>
-    <col min="33" max="33" width="37.6640625" customWidth="1"/>
-    <col min="34" max="34" width="41.6640625" customWidth="1"/>
-    <col min="35" max="35" width="27.6640625" customWidth="1"/>
-    <col min="36" max="36" width="31.6640625" customWidth="1"/>
-    <col min="37" max="37" width="8.6640625" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" customWidth="1"/>
-    <col min="39" max="39" width="10.6640625" customWidth="1"/>
-    <col min="40" max="40" width="15.6640625" customWidth="1"/>
-    <col min="41" max="41" width="40.6640625" customWidth="1"/>
-    <col min="42" max="42" width="44.6640625" customWidth="1"/>
-    <col min="43" max="43" width="6.6640625" customWidth="1"/>
-    <col min="44" max="44" width="31.6640625" customWidth="1"/>
-    <col min="45" max="45" width="35.6640625" customWidth="1"/>
-    <col min="46" max="46" width="6.6640625" customWidth="1"/>
-    <col min="47" max="47" width="31.6640625" customWidth="1"/>
-    <col min="48" max="48" width="35.6640625" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" customWidth="1"/>
+    <col min="34" max="34" width="31.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" customWidth="1"/>
+    <col min="39" max="39" width="40.6640625" customWidth="1"/>
+    <col min="40" max="40" width="44.6640625" customWidth="1"/>
+    <col min="41" max="41" width="6.6640625" customWidth="1"/>
+    <col min="42" max="42" width="31.6640625" customWidth="1"/>
+    <col min="43" max="43" width="35.6640625" customWidth="1"/>
+    <col min="44" max="44" width="6.6640625" customWidth="1"/>
+    <col min="45" max="45" width="31.6640625" customWidth="1"/>
+    <col min="46" max="46" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="R4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS4" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="AT4" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U4" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D6" s="3">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G6" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+        <v>462</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2988,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3013,389 +2960,369 @@
     <col min="17" max="17" width="70.6640625" customWidth="1"/>
     <col min="18" max="18" width="19.6640625" customWidth="1"/>
     <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.6640625" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" customWidth="1"/>
-    <col min="34" max="35" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" customWidth="1"/>
+    <col min="28" max="28" width="23.6640625" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" customWidth="1"/>
+    <col min="32" max="33" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" t="s">
+        <v>469</v>
+      </c>
+      <c r="M4" t="s">
+        <v>470</v>
+      </c>
+      <c r="N4" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" t="s">
         <v>189</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="V4" t="s">
+        <v>190</v>
+      </c>
+      <c r="W4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG4" t="s">
         <v>221</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="O3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" t="s">
-        <v>482</v>
-      </c>
-      <c r="M4" t="s">
-        <v>483</v>
-      </c>
-      <c r="N4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O4" t="s">
-        <v>186</v>
-      </c>
-      <c r="P4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" t="s">
-        <v>191</v>
-      </c>
-      <c r="S4" t="s">
-        <v>194</v>
-      </c>
-      <c r="T4" t="s">
-        <v>195</v>
-      </c>
-      <c r="U4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" t="s">
-        <v>197</v>
-      </c>
-      <c r="W4" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E6" s="3">
         <v>9606</v>
       </c>
       <c r="F6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G6" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="I6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K6" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="V6" s="3"/>
+        <v>471</v>
+      </c>
+      <c r="T6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3421,359 +3348,372 @@
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
     <col min="8" max="8" width="39.6640625" customWidth="1"/>
     <col min="9" max="9" width="43.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="51.6640625" customWidth="1"/>
-    <col min="18" max="18" width="55.6640625" customWidth="1"/>
-    <col min="19" max="19" width="68.6640625" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" customWidth="1"/>
-    <col min="21" max="21" width="67.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" customWidth="1"/>
-    <col min="25" max="25" width="25.6640625" customWidth="1"/>
-    <col min="26" max="26" width="26.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="28" width="26.6640625" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" customWidth="1"/>
-    <col min="30" max="31" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="51.6640625" customWidth="1"/>
+    <col min="19" max="19" width="55.6640625" customWidth="1"/>
+    <col min="20" max="20" width="68.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="22" max="22" width="67.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" customWidth="1"/>
+    <col min="27" max="27" width="26.6640625" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" customWidth="1"/>
+    <col min="29" max="29" width="26.6640625" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" customWidth="1"/>
+    <col min="31" max="32" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Y3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K4" t="s">
+        <v>506</v>
+      </c>
+      <c r="L4" t="s">
+        <v>507</v>
+      </c>
+      <c r="M4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" t="s">
+        <v>235</v>
+      </c>
+      <c r="S4" t="s">
+        <v>236</v>
+      </c>
+      <c r="T4" t="s">
+        <v>238</v>
+      </c>
+      <c r="U4" t="s">
+        <v>241</v>
+      </c>
+      <c r="V4" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="W4" t="s">
+        <v>246</v>
+      </c>
+      <c r="X4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA4" t="s">
         <v>261</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB4" t="s">
         <v>265</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC4" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="X3" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AD4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE4" t="s">
         <v>275</v>
       </c>
-      <c r="AB3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4" t="s">
-        <v>239</v>
-      </c>
-      <c r="O4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P4" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>246</v>
-      </c>
-      <c r="R4" t="s">
-        <v>247</v>
-      </c>
-      <c r="S4" t="s">
-        <v>249</v>
-      </c>
-      <c r="T4" t="s">
-        <v>252</v>
-      </c>
-      <c r="U4" t="s">
-        <v>254</v>
-      </c>
-      <c r="V4" t="s">
-        <v>257</v>
-      </c>
-      <c r="W4" t="s">
-        <v>260</v>
-      </c>
-      <c r="X4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="F6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G6" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="I6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>496</v>
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>1001</v>
       </c>
       <c r="AE6" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3726,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3798,211 +3738,175 @@
     <col min="5" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="13" width="11.6640625" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
         <v>292</v>
       </c>
-      <c r="D4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" t="s">
         <v>299</v>
       </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" t="s">
         <v>307</v>
       </c>
-      <c r="H4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" t="s">
-        <v>518</v>
-      </c>
-      <c r="K4" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" t="s">
-        <v>319</v>
-      </c>
-      <c r="M4" t="s">
-        <v>320</v>
-      </c>
       <c r="N4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1001</v>
-      </c>
       <c r="L6" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="M6" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1001</v>
-      </c>
       <c r="L7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="M7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +3919,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4037,188 +3941,188 @@
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="L3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="N3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="O3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" t="s">
+        <v>348</v>
+      </c>
+      <c r="M4" t="s">
         <v>350</v>
       </c>
-      <c r="D4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
         <v>351</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
         <v>352</v>
-      </c>
-      <c r="I4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J4" t="s">
-        <v>359</v>
-      </c>
-      <c r="K4" t="s">
-        <v>360</v>
-      </c>
-      <c r="L4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M4" t="s">
-        <v>363</v>
-      </c>
-      <c r="N4" t="s">
-        <v>364</v>
-      </c>
-      <c r="O4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4251,137 +4155,137 @@
   <sheetData>
     <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" t="s">
         <v>366</v>
       </c>
-      <c r="C4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>369</v>
-      </c>
-      <c r="H4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" t="s">
         <v>485</v>
       </c>
-      <c r="B6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>498</v>
-      </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4393,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4444,491 +4348,491 @@
   <sheetData>
     <row r="1" spans="1:44" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="AQ2" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="J3" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="K3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="R3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="S3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="T3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="V3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="W3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="X3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="Y3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="Z3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AB3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AC3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AD3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AE3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AF3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="AH3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AI3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N4" t="s">
+        <v>377</v>
+      </c>
+      <c r="O4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P4" t="s">
         <v>383</v>
       </c>
-      <c r="C4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="Q4" t="s">
+        <v>386</v>
+      </c>
+      <c r="R4" t="s">
+        <v>393</v>
+      </c>
+      <c r="S4" t="s">
+        <v>394</v>
+      </c>
+      <c r="T4" t="s">
+        <v>395</v>
+      </c>
+      <c r="U4" t="s">
+        <v>397</v>
+      </c>
+      <c r="V4" t="s">
+        <v>398</v>
+      </c>
+      <c r="W4" t="s">
+        <v>399</v>
+      </c>
+      <c r="X4" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="s">
         <v>401</v>
       </c>
-      <c r="E4" t="s">
+      <c r="Z4" t="s">
         <v>402</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AA4" t="s">
         <v>404</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AB4" t="s">
         <v>405</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AC4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH4" t="s">
         <v>423</v>
       </c>
-      <c r="I4" t="s">
-        <v>426</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="AI4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM4" t="s">
         <v>430</v>
       </c>
-      <c r="K4" t="s">
-        <v>385</v>
-      </c>
-      <c r="L4" t="s">
-        <v>386</v>
-      </c>
-      <c r="M4" t="s">
-        <v>387</v>
-      </c>
-      <c r="N4" t="s">
-        <v>390</v>
-      </c>
-      <c r="O4" t="s">
-        <v>393</v>
-      </c>
-      <c r="P4" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>399</v>
-      </c>
-      <c r="R4" t="s">
-        <v>406</v>
-      </c>
-      <c r="S4" t="s">
-        <v>407</v>
-      </c>
-      <c r="T4" t="s">
-        <v>408</v>
-      </c>
-      <c r="U4" t="s">
-        <v>410</v>
-      </c>
-      <c r="V4" t="s">
-        <v>411</v>
-      </c>
-      <c r="W4" t="s">
-        <v>412</v>
-      </c>
-      <c r="X4" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>414</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>418</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AN4" t="s">
         <v>431</v>
       </c>
-      <c r="AE4" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AO4" t="s">
         <v>433</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AP4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>435</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AR4" t="s">
         <v>436</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>437</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>440</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>441</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>443</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>444</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="F6" t="s">
-        <v>488</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>500</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="I6" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="J6" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40FF5333-52FF-D645-9923-2905F0C75B8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{019426B7-9FB9-F248-8B03-F0271568274D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="580" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="509">
   <si>
     <t>A unique label for the project.</t>
   </si>
   <si>
-    <t>Project shortname</t>
-  </si>
-  <si>
     <t>Tissue Stability</t>
   </si>
   <si>
@@ -217,6 +214,21 @@
     <t>donor_organism.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
+    <t>Genotype of biomaterial including strain, cross, and genetic modification information.</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.genotype</t>
+  </si>
+  <si>
+    <t>The karyotype of the biomaterial.</t>
+  </si>
+  <si>
+    <t>Karyotype</t>
+  </si>
+  <si>
     <t>A list of filenames of biomaterial-level supplementary files.</t>
   </si>
   <si>
@@ -595,6 +607,12 @@
     <t>specimen_from_organism.collection_time</t>
   </si>
   <si>
+    <t>specimen_from_organism.biomaterial_core.genotype</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.karyotype</t>
+  </si>
+  <si>
     <t>specimen_from_organism.biomaterial_core.supplementary_files</t>
   </si>
   <si>
@@ -709,7 +727,7 @@
     <t>cell_suspension.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
-    <t>cell_suspension.biomaterial_core.supplementary_files</t>
+    <t>cell_suspension.biomaterial_core.genotype</t>
   </si>
   <si>
     <t>cell_suspension.biomaterial_core.biosd_biomaterial</t>
@@ -934,15 +952,9 @@
     <t>An ID for the plate that the well is located on.</t>
   </si>
   <si>
-    <t>Well plate ID</t>
-  </si>
-  <si>
     <t>A name for the well. Should be unique for the plate</t>
   </si>
   <si>
-    <t>Well name</t>
-  </si>
-  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
@@ -1066,9 +1078,6 @@
     <t>Nucleic acid source</t>
   </si>
   <si>
-    <t>dissociation_protocol.nucleic_acid_source</t>
-  </si>
-  <si>
     <t>dissociation_protocol.protocol_reagents.retail_name</t>
   </si>
   <si>
@@ -1429,12 +1438,12 @@
     <t>Q4_DEMO-Single cell mRNA-seq_MGH30_A01</t>
   </si>
   <si>
+    <t>Q4_DEMO-protocol</t>
+  </si>
+  <si>
     <t>brain</t>
   </si>
   <si>
-    <t>astrocyte</t>
-  </si>
-  <si>
     <t>Q4_DEMO-cellsus_SAMN02797092</t>
   </si>
   <si>
@@ -1459,6 +1468,9 @@
     <t>Smart-seq2</t>
   </si>
   <si>
+    <t>5 prime end bias</t>
+  </si>
+  <si>
     <t>assay_1</t>
   </si>
   <si>
@@ -1480,6 +1492,9 @@
     <t>read2</t>
   </si>
   <si>
+    <t>sequence_process_file_1</t>
+  </si>
+  <si>
     <t>dissociation_1</t>
   </si>
   <si>
@@ -1501,49 +1516,37 @@
     <t>EFO:0008441</t>
   </si>
   <si>
+    <t>project.project_core.project_short_name</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.nucleic_acid_source</t>
+  </si>
+  <si>
     <t>single cell</t>
   </si>
   <si>
-    <t>an enrichment method to enrich for cells</t>
-  </si>
-  <si>
-    <t>a library preparation protocol to make the sequencing library</t>
-  </si>
-  <si>
-    <t>OBI:0000869</t>
-  </si>
-  <si>
-    <t>full length</t>
-  </si>
-  <si>
     <t>poly-dT</t>
   </si>
   <si>
-    <t>a sequencing protocol</t>
-  </si>
-  <si>
-    <t>EFO:0008565</t>
-  </si>
-  <si>
-    <t>NCBITaxon:9606</t>
+    <t>Fake Institution</t>
+  </si>
+  <si>
+    <t>Project short name</t>
   </si>
   <si>
     <t>UBERON:0000955</t>
   </si>
   <si>
-    <t>CL:0000127</t>
-  </si>
-  <si>
-    <t>amygdala</t>
-  </si>
-  <si>
-    <t>UBERON:0001876</t>
-  </si>
-  <si>
-    <t>project.project_core.project_short_name</t>
-  </si>
-  <si>
-    <t>EMBL-EBI</t>
+    <t>temporal lobe</t>
+  </si>
+  <si>
+    <t>UBERON:0001871</t>
+  </si>
+  <si>
+    <t>Plate ID</t>
+  </si>
+  <si>
+    <t>Well ID</t>
   </si>
   <si>
     <t>cell_suspension.plate_based_sequencing.plate_id</t>
@@ -1589,9 +1592,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="13"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -1628,20 +1630,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,7 +1984,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2003,107 +2004,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2115,177 +2116,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" customWidth="1"/>
+    <col min="12" max="12" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>316</v>
+        <v>451</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>445</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>443</v>
+        <v>318</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" t="s">
         <v>453</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>450</v>
-      </c>
-      <c r="I3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" t="s">
         <v>443</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>444</v>
       </c>
-      <c r="F4" t="s">
-        <v>451</v>
-      </c>
       <c r="G4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" t="s">
         <v>454</v>
       </c>
-      <c r="I4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J4" t="s">
-        <v>440</v>
-      </c>
       <c r="K4" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="L4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D6" t="s">
-        <v>477</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="F6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
+      </c>
+      <c r="G6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J6" t="s">
+        <v>453</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2293,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,33 +2301,34 @@
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2340,81 +2336,81 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" t="s">
         <v>458</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" t="s">
-        <v>504</v>
-      </c>
-      <c r="H6" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2424,521 +2420,529 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AT6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="3" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="44.6640625" customWidth="1"/>
-    <col min="14" max="15" width="48.6640625" customWidth="1"/>
-    <col min="16" max="16" width="52.6640625" customWidth="1"/>
-    <col min="17" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="28.6640625" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" customWidth="1"/>
+    <col min="11" max="12" width="48.6640625" customWidth="1"/>
+    <col min="13" max="13" width="52.6640625" customWidth="1"/>
+    <col min="14" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
     <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="37.6640625" customWidth="1"/>
-    <col min="30" max="30" width="41.6640625" customWidth="1"/>
-    <col min="31" max="31" width="37.6640625" customWidth="1"/>
-    <col min="32" max="32" width="41.6640625" customWidth="1"/>
-    <col min="33" max="33" width="27.6640625" customWidth="1"/>
-    <col min="34" max="34" width="31.6640625" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" customWidth="1"/>
-    <col min="39" max="39" width="40.6640625" customWidth="1"/>
-    <col min="40" max="40" width="44.6640625" customWidth="1"/>
-    <col min="41" max="41" width="6.6640625" customWidth="1"/>
-    <col min="42" max="42" width="31.6640625" customWidth="1"/>
-    <col min="43" max="43" width="35.6640625" customWidth="1"/>
-    <col min="44" max="44" width="6.6640625" customWidth="1"/>
-    <col min="45" max="45" width="31.6640625" customWidth="1"/>
-    <col min="46" max="46" width="35.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="33.6640625" customWidth="1"/>
+    <col min="26" max="26" width="37.6640625" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="37.6640625" customWidth="1"/>
+    <col min="29" max="29" width="41.6640625" customWidth="1"/>
+    <col min="30" max="30" width="37.6640625" customWidth="1"/>
+    <col min="31" max="31" width="41.6640625" customWidth="1"/>
+    <col min="32" max="32" width="27.6640625" customWidth="1"/>
+    <col min="33" max="33" width="31.6640625" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" customWidth="1"/>
+    <col min="38" max="38" width="40.6640625" customWidth="1"/>
+    <col min="39" max="39" width="44.6640625" customWidth="1"/>
+    <col min="40" max="40" width="6.6640625" customWidth="1"/>
+    <col min="41" max="41" width="31.6640625" customWidth="1"/>
+    <col min="42" max="42" width="35.6640625" customWidth="1"/>
+    <col min="43" max="43" width="10.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.6640625" customWidth="1"/>
+    <col min="45" max="45" width="6.6640625" customWidth="1"/>
+    <col min="46" max="46" width="31.6640625" customWidth="1"/>
+    <col min="47" max="47" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="180" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN4" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AO4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP4" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AQ4" t="s">
         <v>155</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AR4" t="s">
         <v>158</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>157</v>
-      </c>
       <c r="AS4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AT4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6">
         <v>9606</v>
       </c>
-      <c r="E6" t="s">
-        <v>463</v>
-      </c>
-      <c r="F6" t="s">
-        <v>498</v>
-      </c>
-      <c r="G6" t="s">
-        <v>478</v>
-      </c>
-      <c r="H6" t="s">
-        <v>462</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="V6" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2953,100 +2957,101 @@
     <col min="9" max="9" width="37.6640625" customWidth="1"/>
     <col min="10" max="10" width="38.6640625" customWidth="1"/>
     <col min="11" max="11" width="42.6640625" customWidth="1"/>
-    <col min="12" max="13" width="18.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="66.6640625" customWidth="1"/>
-    <col min="17" max="17" width="70.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" customWidth="1"/>
-    <col min="28" max="28" width="23.6640625" customWidth="1"/>
-    <col min="29" max="29" width="17.6640625" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" customWidth="1"/>
-    <col min="32" max="33" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="66.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.6640625" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" customWidth="1"/>
+    <col min="34" max="35" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>197</v>
@@ -3073,81 +3078,87 @@
         <v>218</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>469</v>
+        <v>178</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>183</v>
+        <v>472</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>198</v>
@@ -3174,83 +3185,89 @@
         <v>219</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="O3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>469</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>470</v>
+        <v>183</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="R4" t="s">
-        <v>184</v>
+        <v>472</v>
       </c>
       <c r="S4" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
       <c r="T4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="V4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="W4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X4" t="s">
         <v>196</v>
@@ -3280,52 +3297,58 @@
         <v>220</v>
       </c>
       <c r="AG4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6">
         <v>9606</v>
       </c>
       <c r="F6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G6" t="s">
-        <v>498</v>
-      </c>
-      <c r="H6" s="4" t="s">
         <v>466</v>
       </c>
+      <c r="H6" t="s">
+        <v>470</v>
+      </c>
       <c r="I6" t="s">
-        <v>499</v>
-      </c>
-      <c r="J6" s="4" t="s">
         <v>501</v>
       </c>
+      <c r="J6" t="s">
+        <v>502</v>
+      </c>
       <c r="K6" t="s">
-        <v>502</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="T6" s="3"/>
+        <v>503</v>
+      </c>
+      <c r="R6" t="s">
+        <v>474</v>
+      </c>
+      <c r="V6" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3334,39 +3357,35 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1"/>
-    <col min="9" max="9" width="43.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="51.6640625" customWidth="1"/>
-    <col min="19" max="19" width="55.6640625" customWidth="1"/>
-    <col min="20" max="20" width="68.6640625" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
-    <col min="22" max="22" width="67.6640625" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" customWidth="1"/>
+    <col min="6" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" customWidth="1"/>
+    <col min="15" max="15" width="55.6640625" customWidth="1"/>
+    <col min="16" max="16" width="68.6640625" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" customWidth="1"/>
+    <col min="18" max="18" width="67.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" customWidth="1"/>
     <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1"/>
-    <col min="26" max="26" width="25.6640625" customWidth="1"/>
-    <col min="27" max="27" width="26.6640625" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="38.6640625" customWidth="1"/>
+    <col min="27" max="27" width="39.6640625" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" customWidth="1"/>
     <col min="29" max="29" width="26.6640625" customWidth="1"/>
     <col min="30" max="30" width="10.6640625" customWidth="1"/>
     <col min="31" max="32" width="11.6640625" customWidth="1"/>
@@ -3374,346 +3393,331 @@
   <sheetData>
     <row r="1" spans="1:32" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>258</v>
+      </c>
+      <c r="V3" t="s">
+        <v>262</v>
+      </c>
+      <c r="W3" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="X3" t="s">
         <v>270</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Y3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>264</v>
-      </c>
       <c r="AC3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H4" t="s">
+        <v>507</v>
+      </c>
+      <c r="I4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>247</v>
+      </c>
+      <c r="R4" t="s">
+        <v>249</v>
+      </c>
+      <c r="S4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" t="s">
+        <v>255</v>
+      </c>
+      <c r="U4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V4" t="s">
+        <v>263</v>
+      </c>
+      <c r="W4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD4" t="s">
         <v>223</v>
       </c>
-      <c r="D4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" t="s">
-        <v>505</v>
-      </c>
-      <c r="K4" t="s">
-        <v>506</v>
-      </c>
-      <c r="L4" t="s">
-        <v>507</v>
-      </c>
-      <c r="M4" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="AE4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
-      <c r="O4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P4" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>234</v>
-      </c>
-      <c r="R4" t="s">
-        <v>235</v>
-      </c>
-      <c r="S4" t="s">
-        <v>236</v>
-      </c>
-      <c r="T4" t="s">
-        <v>238</v>
-      </c>
-      <c r="U4" t="s">
-        <v>241</v>
-      </c>
-      <c r="V4" t="s">
-        <v>243</v>
-      </c>
-      <c r="W4" t="s">
-        <v>246</v>
-      </c>
-      <c r="X4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
-      <c r="F6" t="s">
-        <v>463</v>
-      </c>
-      <c r="G6" t="s">
-        <v>498</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="I6" t="s">
-        <v>500</v>
-      </c>
-      <c r="J6">
-        <v>1001</v>
-      </c>
       <c r="AE6" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AF6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -3723,10 +3727,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3738,175 +3742,181 @@
     <col min="5" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
         <v>290</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E4" t="s">
         <v>294</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F4" t="s">
         <v>298</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" t="s">
-        <v>292</v>
-      </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" t="s">
-        <v>306</v>
-      </c>
-      <c r="M4" t="s">
-        <v>307</v>
-      </c>
-      <c r="N4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>479</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="6">
+        <v>293</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>473</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="I6" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="J6" t="s">
         <v>480</v>
       </c>
+      <c r="K6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="B7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="E7" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="6">
+        <v>486</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>473</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="I7" t="s">
         <v>476</v>
+      </c>
+      <c r="J7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K7" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -3916,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3927,202 +3937,189 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="64.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="64.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" t="s">
         <v>344</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="G4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" t="s">
         <v>349</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L3" t="s">
-        <v>329</v>
-      </c>
-      <c r="N3" t="s">
-        <v>332</v>
-      </c>
-      <c r="O3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I4" t="s">
-        <v>340</v>
-      </c>
       <c r="J4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N4" t="s">
-        <v>351</v>
-      </c>
-      <c r="O4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" t="s">
         <v>490</v>
+      </c>
+      <c r="H6" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4136,113 +4133,113 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
     <col min="10" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" t="s">
         <v>365</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
         <v>358</v>
@@ -4251,41 +4248,38 @@
         <v>359</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="D6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4295,162 +4289,163 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="15" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="78.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="81.6640625" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" customWidth="1"/>
-    <col min="33" max="33" width="66.6640625" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" customWidth="1"/>
-    <col min="35" max="35" width="9.6640625" customWidth="1"/>
-    <col min="36" max="36" width="17.6640625" customWidth="1"/>
-    <col min="37" max="37" width="23.6640625" customWidth="1"/>
-    <col min="38" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="40" width="23.6640625" customWidth="1"/>
-    <col min="41" max="41" width="65.6640625" customWidth="1"/>
-    <col min="42" max="42" width="69.6640625" customWidth="1"/>
-    <col min="43" max="43" width="67.6640625" customWidth="1"/>
-    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="61.6640625" customWidth="1"/>
+    <col min="12" max="12" width="65.6640625" customWidth="1"/>
+    <col min="13" max="13" width="63.6640625" customWidth="1"/>
+    <col min="14" max="14" width="67.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="78.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="81.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="30" width="6.6640625" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="34" max="34" width="66.6640625" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="17.6640625" customWidth="1"/>
+    <col min="38" max="38" width="23.6640625" customWidth="1"/>
+    <col min="39" max="40" width="14.6640625" customWidth="1"/>
+    <col min="41" max="41" width="23.6640625" customWidth="1"/>
+    <col min="42" max="42" width="65.6640625" customWidth="1"/>
+    <col min="43" max="43" width="69.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH1" s="1"/>
       <c r="AI1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>378</v>
@@ -4462,129 +4457,132 @@
         <v>384</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>421</v>
+        <v>332</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>379</v>
@@ -4596,243 +4594,246 @@
         <v>385</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="O3" t="s">
+        <v>328</v>
+      </c>
+      <c r="P3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>333</v>
+      </c>
+      <c r="S3" t="s">
+        <v>336</v>
+      </c>
+      <c r="T3" t="s">
+        <v>339</v>
+      </c>
+      <c r="U3" t="s">
+        <v>328</v>
+      </c>
+      <c r="V3" t="s">
+        <v>330</v>
+      </c>
+      <c r="W3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN4" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>409</v>
-      </c>
-      <c r="J3" t="s">
-        <v>416</v>
-      </c>
-      <c r="K3" t="s">
-        <v>315</v>
-      </c>
-      <c r="L3" t="s">
-        <v>318</v>
-      </c>
-      <c r="R3" t="s">
-        <v>324</v>
-      </c>
-      <c r="S3" t="s">
-        <v>326</v>
-      </c>
-      <c r="T3" t="s">
-        <v>329</v>
-      </c>
-      <c r="V3" t="s">
-        <v>332</v>
-      </c>
-      <c r="W3" t="s">
-        <v>335</v>
-      </c>
-      <c r="X3" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" t="s">
-        <v>410</v>
-      </c>
-      <c r="I4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K4" t="s">
-        <v>372</v>
-      </c>
-      <c r="L4" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" t="s">
-        <v>374</v>
-      </c>
-      <c r="N4" t="s">
-        <v>377</v>
-      </c>
-      <c r="O4" t="s">
-        <v>380</v>
-      </c>
-      <c r="P4" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>386</v>
-      </c>
-      <c r="R4" t="s">
-        <v>393</v>
-      </c>
-      <c r="S4" t="s">
-        <v>394</v>
-      </c>
-      <c r="T4" t="s">
-        <v>395</v>
-      </c>
-      <c r="U4" t="s">
-        <v>397</v>
-      </c>
-      <c r="V4" t="s">
-        <v>398</v>
-      </c>
-      <c r="W4" t="s">
-        <v>399</v>
-      </c>
-      <c r="X4" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>405</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AQ4" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>476</v>
+      </c>
+      <c r="K6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M6" t="s">
+        <v>478</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD6" t="s">
         <v>419</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>424</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>427</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>428</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>433</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D6" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F6" t="s">
-        <v>475</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="I6" t="s">
-        <v>495</v>
-      </c>
-      <c r="J6" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{019426B7-9FB9-F248-8B03-F0271568274D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF75DDE0-5393-9D48-BD69-1CB4B985B19E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="510">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -1556,6 +1556,9 @@
   </si>
   <si>
     <t>cell_suspension.plate_based_sequencing.cell_quality</t>
+  </si>
+  <si>
+    <t>Project shortname</t>
   </si>
 </sst>
 </file>
@@ -1983,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2116,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF75DDE0-5393-9D48-BD69-1CB4B985B19E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AD11063-8BF9-4E44-84F3-D31022F6A1B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="6740" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1393,9 +1393,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>sequencing_protocol.paired_ends</t>
-  </si>
-  <si>
     <t>The name of a sequencing approach being used.</t>
   </si>
   <si>
@@ -1559,6 +1556,9 @@
   </si>
   <si>
     <t>Project shortname</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.paired_end</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
         <v>458</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>459</v>
-      </c>
-      <c r="C6" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2171,7 +2171,7 @@
         <v>451</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>79</v>
@@ -2209,10 +2209,10 @@
         <v>452</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2255,13 +2255,13 @@
         <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="K4" t="s">
+        <v>455</v>
+      </c>
+      <c r="L4" t="s">
         <v>456</v>
-      </c>
-      <c r="L4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2271,19 +2271,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" t="s">
         <v>480</v>
-      </c>
-      <c r="G6" t="s">
-        <v>481</v>
       </c>
       <c r="J6" t="s">
         <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2360,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2404,16 +2404,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
         <v>461</v>
       </c>
-      <c r="B6" t="s">
-        <v>462</v>
-      </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" t="s">
         <v>463</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
       </c>
       <c r="D6">
         <v>9606</v>
@@ -2926,13 +2926,13 @@
         <v>453</v>
       </c>
       <c r="Y6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AQ6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AR6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -3143,10 +3143,10 @@
         <v>190</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>62</v>
@@ -3255,10 +3255,10 @@
         <v>191</v>
       </c>
       <c r="R4" t="s">
+        <v>471</v>
+      </c>
+      <c r="S4" t="s">
         <v>472</v>
-      </c>
-      <c r="S4" t="s">
-        <v>473</v>
       </c>
       <c r="T4" t="s">
         <v>192</v>
@@ -3316,37 +3316,37 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" t="s">
         <v>467</v>
-      </c>
-      <c r="B6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" t="s">
-        <v>468</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="F6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
         <v>501</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>502</v>
       </c>
-      <c r="K6" t="s">
-        <v>503</v>
-      </c>
       <c r="R6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3508,10 +3508,10 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>309</v>
@@ -3623,13 +3623,13 @@
         <v>232</v>
       </c>
       <c r="G4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H4" t="s">
         <v>506</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>508</v>
       </c>
       <c r="J4" t="s">
         <v>233</v>
@@ -3708,19 +3708,19 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="AE6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3872,13 +3872,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E6" t="s">
         <v>293</v>
@@ -3887,39 +3887,39 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" t="s">
         <v>485</v>
-      </c>
-      <c r="E7" t="s">
-        <v>486</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4113,16 +4113,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
         <v>488</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>489</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>490</v>
-      </c>
-      <c r="H6" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G6" t="s">
+        <v>489</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4751,7 @@
         <v>409</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>413</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="6" spans="1:45" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="K6" t="s">
         <v>476</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>477</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>497</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>498</v>
       </c>
       <c r="AD6" t="s">
         <v>419</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF75DDE0-5393-9D48-BD69-1CB4B985B19E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F151456-0E4D-D54D-ACEC-C799938F7877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,6 @@
     <t>Biological sex</t>
   </si>
   <si>
-    <t>donor_organism.biological_sex</t>
-  </si>
-  <si>
     <t>Weight of organism in kilograms.</t>
   </si>
   <si>
@@ -1393,9 +1390,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>sequencing_protocol.paired_ends</t>
-  </si>
-  <si>
     <t>The name of a sequencing approach being used.</t>
   </si>
   <si>
@@ -1559,6 +1553,12 @@
   </si>
   <si>
     <t>Project shortname</t>
+  </si>
+  <si>
+    <t>donor_organism.sex</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.paired_end</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" t="s">
         <v>458</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C6" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2141,37 +2141,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>79</v>
@@ -2179,89 +2179,89 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
         <v>440</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>441</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>442</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>443</v>
       </c>
-      <c r="F4" t="s">
-        <v>444</v>
-      </c>
       <c r="G4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" t="s">
         <v>446</v>
       </c>
-      <c r="H4" t="s">
-        <v>447</v>
-      </c>
       <c r="I4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K4" t="s">
         <v>454</v>
       </c>
-      <c r="K4" t="s">
-        <v>456</v>
-      </c>
       <c r="L4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2271,19 +2271,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2360,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2404,16 +2404,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2612,10 +2612,10 @@
         <v>156</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>79</v>
@@ -2755,13 +2755,13 @@
         <v>157</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
@@ -2895,16 +2895,16 @@
         <v>155</v>
       </c>
       <c r="AR4" t="s">
-        <v>158</v>
+        <v>508</v>
       </c>
       <c r="AS4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AT4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU4" t="s">
         <v>163</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2914,25 +2914,25 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="V6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AQ6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AR6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3009,19 +3009,19 @@
         <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>123</v>
@@ -3030,10 +3030,10 @@
         <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>129</v>
@@ -3057,37 +3057,37 @@
         <v>71</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3107,46 +3107,46 @@
         <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>62</v>
@@ -3164,149 +3164,149 @@
         <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="M3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>167</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>168</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>169</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>170</v>
       </c>
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
       <c r="I4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" t="s">
         <v>173</v>
       </c>
-      <c r="J4" t="s">
-        <v>174</v>
-      </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
         <v>183</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>184</v>
       </c>
-      <c r="O4" t="s">
-        <v>185</v>
-      </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" t="s">
+        <v>470</v>
+      </c>
+      <c r="S4" t="s">
+        <v>471</v>
+      </c>
+      <c r="T4" t="s">
         <v>191</v>
       </c>
-      <c r="R4" t="s">
-        <v>472</v>
-      </c>
-      <c r="S4" t="s">
-        <v>473</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>192</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>193</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>194</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>195</v>
       </c>
-      <c r="X4" t="s">
-        <v>196</v>
-      </c>
       <c r="Y4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI4" t="s">
         <v>226</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3316,37 +3316,37 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="F6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I6" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" t="s">
+        <v>500</v>
+      </c>
+      <c r="K6" t="s">
         <v>501</v>
       </c>
-      <c r="J6" t="s">
-        <v>502</v>
-      </c>
-      <c r="K6" t="s">
-        <v>503</v>
-      </c>
       <c r="R6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -3414,13 +3414,13 @@
         <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>68</v>
@@ -3429,10 +3429,10 @@
         <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>150</v>
@@ -3442,26 +3442,26 @@
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>117</v>
@@ -3470,22 +3470,22 @@
         <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3508,13 +3508,13 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>69</v>
@@ -3523,182 +3523,182 @@
         <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="AA2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="AC2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="U3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>229</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>230</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>231</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" t="s">
+        <v>505</v>
+      </c>
+      <c r="I4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J4" t="s">
         <v>232</v>
       </c>
-      <c r="G4" t="s">
-        <v>506</v>
-      </c>
-      <c r="H4" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>508</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>233</v>
       </c>
-      <c r="K4" t="s">
-        <v>234</v>
-      </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" t="s">
         <v>240</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>241</v>
       </c>
-      <c r="O4" t="s">
-        <v>242</v>
-      </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y4" t="s">
         <v>271</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>272</v>
       </c>
-      <c r="Z4" t="s">
-        <v>273</v>
-      </c>
       <c r="AA4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB4" t="s">
         <v>275</v>
       </c>
-      <c r="AB4" t="s">
-        <v>276</v>
-      </c>
       <c r="AC4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE4" t="s">
         <v>280</v>
       </c>
-      <c r="AD4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>281</v>
-      </c>
       <c r="AF4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3708,19 +3708,19 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="AE6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3751,118 +3751,118 @@
   <sheetData>
     <row r="1" spans="1:11" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
         <v>310</v>
       </c>
-      <c r="J4" t="s">
-        <v>311</v>
-      </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3872,54 +3872,54 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" t="s">
         <v>484</v>
-      </c>
-      <c r="B7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" t="s">
-        <v>486</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3955,155 +3955,155 @@
   <sheetData>
     <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
         <v>340</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>341</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>342</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>343</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>344</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>345</v>
       </c>
-      <c r="H4" t="s">
-        <v>346</v>
-      </c>
       <c r="I4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>350</v>
       </c>
-      <c r="K4" t="s">
-        <v>351</v>
-      </c>
       <c r="L4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" t="s">
         <v>353</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>354</v>
-      </c>
-      <c r="N4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4113,16 +4113,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" t="s">
         <v>488</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>489</v>
-      </c>
-      <c r="G6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H6" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4155,118 +4155,118 @@
   <sheetData>
     <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
         <v>356</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>357</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>358</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>360</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>361</v>
       </c>
-      <c r="H4" t="s">
-        <v>362</v>
-      </c>
       <c r="I4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4276,13 +4276,13 @@
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4346,130 +4346,130 @@
   <sheetData>
     <row r="1" spans="1:45" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>79</v>
@@ -4477,335 +4477,335 @@
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AD3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AJ3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="R4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="X4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AD4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AG4" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="AH4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="AK4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AO4" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="AP4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -4815,28 +4815,28 @@
     </row>
     <row r="6" spans="1:45" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="K6" t="s">
+        <v>475</v>
+      </c>
+      <c r="M6" t="s">
         <v>476</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="M6" t="s">
-        <v>478</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>497</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="AC6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AD6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AD11063-8BF9-4E44-84F3-D31022F6A1B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F151456-0E4D-D54D-ACEC-C799938F7877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="6740" windowWidth="26540" windowHeight="16580" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,6 @@
     <t>Biological sex</t>
   </si>
   <si>
-    <t>donor_organism.biological_sex</t>
-  </si>
-  <si>
     <t>Weight of organism in kilograms.</t>
   </si>
   <si>
@@ -1556,6 +1553,9 @@
   </si>
   <si>
     <t>Project shortname</t>
+  </si>
+  <si>
+    <t>donor_organism.sex</t>
   </si>
   <si>
     <t>sequencing_protocol.paired_end</t>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
         <v>457</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2141,37 +2141,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>79</v>
@@ -2179,89 +2179,89 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
         <v>440</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>441</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>442</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>443</v>
       </c>
-      <c r="F4" t="s">
-        <v>444</v>
-      </c>
       <c r="G4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" t="s">
         <v>446</v>
       </c>
-      <c r="H4" t="s">
-        <v>447</v>
-      </c>
       <c r="I4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J4" t="s">
         <v>509</v>
       </c>
       <c r="K4" t="s">
+        <v>454</v>
+      </c>
+      <c r="L4" t="s">
         <v>455</v>
-      </c>
-      <c r="L4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2271,19 +2271,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" t="s">
         <v>479</v>
       </c>
-      <c r="G6" t="s">
-        <v>480</v>
-      </c>
       <c r="J6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2360,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2404,16 +2404,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" t="s">
         <v>460</v>
       </c>
-      <c r="B6" t="s">
-        <v>461</v>
-      </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2612,10 +2612,10 @@
         <v>156</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>79</v>
@@ -2755,13 +2755,13 @@
         <v>157</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
@@ -2895,16 +2895,16 @@
         <v>155</v>
       </c>
       <c r="AR4" t="s">
-        <v>158</v>
+        <v>508</v>
       </c>
       <c r="AS4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AT4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU4" t="s">
         <v>163</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2914,25 +2914,25 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" t="s">
         <v>462</v>
-      </c>
-      <c r="B6" t="s">
-        <v>463</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="V6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AR6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3009,19 +3009,19 @@
         <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>123</v>
@@ -3030,10 +3030,10 @@
         <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>129</v>
@@ -3057,37 +3057,37 @@
         <v>71</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3107,46 +3107,46 @@
         <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>62</v>
@@ -3164,149 +3164,149 @@
         <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="M3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>167</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>168</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>169</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>170</v>
       </c>
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
       <c r="I4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" t="s">
         <v>173</v>
       </c>
-      <c r="J4" t="s">
-        <v>174</v>
-      </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
         <v>183</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>184</v>
       </c>
-      <c r="O4" t="s">
-        <v>185</v>
-      </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" t="s">
+        <v>470</v>
+      </c>
+      <c r="S4" t="s">
+        <v>471</v>
+      </c>
+      <c r="T4" t="s">
         <v>191</v>
       </c>
-      <c r="R4" t="s">
-        <v>471</v>
-      </c>
-      <c r="S4" t="s">
-        <v>472</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>192</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>193</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>194</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>195</v>
       </c>
-      <c r="X4" t="s">
-        <v>196</v>
-      </c>
       <c r="Y4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI4" t="s">
         <v>226</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3316,37 +3316,37 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" t="s">
         <v>466</v>
-      </c>
-      <c r="B6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" t="s">
-        <v>467</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="F6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I6" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" t="s">
         <v>500</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>501</v>
       </c>
-      <c r="K6" t="s">
-        <v>502</v>
-      </c>
       <c r="R6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -3414,13 +3414,13 @@
         <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>68</v>
@@ -3429,10 +3429,10 @@
         <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>150</v>
@@ -3442,26 +3442,26 @@
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>117</v>
@@ -3470,22 +3470,22 @@
         <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3508,13 +3508,13 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>69</v>
@@ -3523,182 +3523,182 @@
         <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="AA2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="AC2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="U3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>229</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>230</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>231</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" t="s">
+        <v>505</v>
+      </c>
+      <c r="I4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J4" t="s">
         <v>232</v>
       </c>
-      <c r="G4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H4" t="s">
-        <v>506</v>
-      </c>
-      <c r="I4" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>233</v>
       </c>
-      <c r="K4" t="s">
-        <v>234</v>
-      </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" t="s">
         <v>240</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>241</v>
       </c>
-      <c r="O4" t="s">
-        <v>242</v>
-      </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y4" t="s">
         <v>271</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>272</v>
       </c>
-      <c r="Z4" t="s">
-        <v>273</v>
-      </c>
       <c r="AA4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB4" t="s">
         <v>275</v>
       </c>
-      <c r="AB4" t="s">
-        <v>276</v>
-      </c>
       <c r="AC4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE4" t="s">
         <v>280</v>
       </c>
-      <c r="AD4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>281</v>
-      </c>
       <c r="AF4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3708,19 +3708,19 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
       <c r="AE6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3751,118 +3751,118 @@
   <sheetData>
     <row r="1" spans="1:11" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
         <v>310</v>
       </c>
-      <c r="J4" t="s">
-        <v>311</v>
-      </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3872,54 +3872,54 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" t="s">
         <v>484</v>
-      </c>
-      <c r="E7" t="s">
-        <v>485</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3955,155 +3955,155 @@
   <sheetData>
     <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
         <v>340</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>341</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>342</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>343</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>344</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>345</v>
       </c>
-      <c r="H4" t="s">
-        <v>346</v>
-      </c>
       <c r="I4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>350</v>
       </c>
-      <c r="K4" t="s">
-        <v>351</v>
-      </c>
       <c r="L4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" t="s">
         <v>353</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>354</v>
-      </c>
-      <c r="N4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4113,16 +4113,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
         <v>487</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>488</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>489</v>
-      </c>
-      <c r="H6" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4155,118 +4155,118 @@
   <sheetData>
     <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
         <v>356</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>357</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>358</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>359</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>360</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>361</v>
       </c>
-      <c r="H4" t="s">
-        <v>362</v>
-      </c>
       <c r="I4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4276,13 +4276,13 @@
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4346,130 +4346,130 @@
   <sheetData>
     <row r="1" spans="1:45" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>79</v>
@@ -4477,335 +4477,335 @@
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AD3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AJ3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="R4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="X4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AD4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AG4" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="AH4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="AK4" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AO4" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="AP4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -4815,28 +4815,28 @@
     </row>
     <row r="6" spans="1:45" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="K6" t="s">
         <v>475</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>476</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>496</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>497</v>
-      </c>
       <c r="AD6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/examples/spreadsheets/current/filled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F151456-0E4D-D54D-ACEC-C799938F7877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A6DD067-5C01-7142-8849-B3E05DA6B6A1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="580" windowWidth="26540" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,27 @@
     <sheet name="Enrichment protocol" sheetId="12" r:id="rId8"/>
     <sheet name="Library preparation protocol" sheetId="13" r:id="rId9"/>
     <sheet name="Sequencing protocol" sheetId="14" r:id="rId10"/>
+    <sheet name="Schemas" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="540">
   <si>
     <t>A unique label for the project.</t>
   </si>
   <si>
+    <t>Project shortname</t>
+  </si>
+  <si>
     <t>Tissue Stability</t>
   </si>
   <si>
+    <t>project.project_core.project_shortname</t>
+  </si>
+  <si>
     <t>Add your data below this line</t>
   </si>
   <si>
@@ -229,6 +236,9 @@
     <t>Karyotype</t>
   </si>
   <si>
+    <t>donor_organism.biomaterial_core.karyotype</t>
+  </si>
+  <si>
     <t>A list of filenames of biomaterial-level supplementary files.</t>
   </si>
   <si>
@@ -505,6 +515,9 @@
     <t>Biological sex</t>
   </si>
   <si>
+    <t>donor_organism.biological_sex</t>
+  </si>
+  <si>
     <t>Weight of organism in kilograms.</t>
   </si>
   <si>
@@ -727,6 +740,12 @@
     <t>cell_suspension.biomaterial_core.genotype</t>
   </si>
   <si>
+    <t>cell_suspension.biomaterial_core.karyotype</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.supplementary_files</t>
+  </si>
+  <si>
     <t>cell_suspension.biomaterial_core.biosd_biomaterial</t>
   </si>
   <si>
@@ -949,15 +968,48 @@
     <t>An ID for the plate that the well is located on.</t>
   </si>
   <si>
+    <t>Well plate ID</t>
+  </si>
+  <si>
+    <t>sequence_file.smartseq2.plate_id</t>
+  </si>
+  <si>
     <t>A name for the well. Should be unique for the plate</t>
   </si>
   <si>
+    <t>Well name</t>
+  </si>
+  <si>
+    <t>sequence_file.smartseq2.well_name</t>
+  </si>
+  <si>
+    <t>Well row in plate.</t>
+  </si>
+  <si>
+    <t>Well row</t>
+  </si>
+  <si>
+    <t>sequence_file.smartseq2.well_row</t>
+  </si>
+  <si>
+    <t>Well column in plate.</t>
+  </si>
+  <si>
+    <t>Well column</t>
+  </si>
+  <si>
+    <t>sequence_file.smartseq2.well_column</t>
+  </si>
+  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
     <t>Cell quality</t>
   </si>
   <si>
+    <t>sequence_file.smartseq2.cell_quality</t>
+  </si>
+  <si>
     <t>library_preparation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1075,6 +1127,9 @@
     <t>Nucleic acid source</t>
   </si>
   <si>
+    <t>dissociation_protocol.nucleic_acid_source</t>
+  </si>
+  <si>
     <t>dissociation_protocol.protocol_reagents.retail_name</t>
   </si>
   <si>
@@ -1390,6 +1445,9 @@
     <t>yes</t>
   </si>
   <si>
+    <t>sequencing_protocol.paired_ends</t>
+  </si>
+  <si>
     <t>The name of a sequencing approach being used.</t>
   </si>
   <si>
@@ -1399,6 +1457,87 @@
     <t>sequencing_protocol.sequencing_approach.ontology</t>
   </si>
   <si>
+    <t>Schemas</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/7.0.0/collection_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/sequencing/7.0.0/sequencing_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/6.1.1/cell_suspension</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/6.1.1/sequence_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/6.1.1/protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/analysis/6.1.1/analysis_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/imaging/6.1.1/imaging_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.2/specimen_from_organism</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.1/cell_line</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.1/donor_organism</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/5.2.1/organoid</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/5.2.1/analysis_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/project/5.2.1/project</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/analysis/5.1.0/analysis_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/collection_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/dissociation_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/enrichment_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/imaging/5.1.0/imaging_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/library_preparation_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/sequencing_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial/5.1.0/biomaterial_collection_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/sequencing/3.0.0/library_preparation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/2.1.1/process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.0.0/dissociation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.0.0/enrichment_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/1.1.1/reference_file</t>
+  </si>
+  <si>
     <t>Q4_DEMO-project_PRJNA248302</t>
   </si>
   <si>
@@ -1438,6 +1577,9 @@
     <t>brain</t>
   </si>
   <si>
+    <t>astrocyte</t>
+  </si>
+  <si>
     <t>Q4_DEMO-cellsus_SAMN02797092</t>
   </si>
   <si>
@@ -1508,64 +1650,13 @@
   </si>
   <si>
     <t>EFO:0008441</t>
-  </si>
-  <si>
-    <t>project.project_core.project_short_name</t>
-  </si>
-  <si>
-    <t>library_preparation_protocol.nucleic_acid_source</t>
-  </si>
-  <si>
-    <t>single cell</t>
-  </si>
-  <si>
-    <t>poly-dT</t>
-  </si>
-  <si>
-    <t>Fake Institution</t>
-  </si>
-  <si>
-    <t>Project short name</t>
-  </si>
-  <si>
-    <t>UBERON:0000955</t>
-  </si>
-  <si>
-    <t>temporal lobe</t>
-  </si>
-  <si>
-    <t>UBERON:0001871</t>
-  </si>
-  <si>
-    <t>Plate ID</t>
-  </si>
-  <si>
-    <t>Well ID</t>
-  </si>
-  <si>
-    <t>cell_suspension.plate_based_sequencing.plate_id</t>
-  </si>
-  <si>
-    <t>cell_suspension.plate_based_sequencing.well_id</t>
-  </si>
-  <si>
-    <t>cell_suspension.plate_based_sequencing.cell_quality</t>
-  </si>
-  <si>
-    <t>Project shortname</t>
-  </si>
-  <si>
-    <t>donor_organism.sex</t>
-  </si>
-  <si>
-    <t>sequencing_protocol.paired_end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1589,8 +1680,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1607,12 +1711,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1630,24 +1740,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1987,7 +2105,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2007,107 +2125,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -2119,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2141,152 +2259,328 @@
   <sheetData>
     <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>323</v>
+        <v>228</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>448</v>
+        <v>463</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>455</v>
+        <v>473</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="J3" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="G4" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="H4" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="K4" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="L4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="J6" t="s">
-        <v>452</v>
-      </c>
-      <c r="K6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="L6" s="7" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>492</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2296,7 +2590,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2304,116 +2598,112 @@
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H6" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2423,82 +2713,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="44.6640625" customWidth="1"/>
-    <col min="11" max="12" width="48.6640625" customWidth="1"/>
-    <col min="13" max="13" width="52.6640625" customWidth="1"/>
-    <col min="14" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" customWidth="1"/>
-    <col min="25" max="25" width="33.6640625" customWidth="1"/>
-    <col min="26" max="26" width="37.6640625" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="37.6640625" customWidth="1"/>
-    <col min="29" max="29" width="41.6640625" customWidth="1"/>
-    <col min="30" max="30" width="37.6640625" customWidth="1"/>
-    <col min="31" max="31" width="41.6640625" customWidth="1"/>
-    <col min="32" max="32" width="27.6640625" customWidth="1"/>
-    <col min="33" max="33" width="31.6640625" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" customWidth="1"/>
-    <col min="35" max="35" width="9.6640625" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" customWidth="1"/>
-    <col min="38" max="38" width="40.6640625" customWidth="1"/>
-    <col min="39" max="39" width="44.6640625" customWidth="1"/>
-    <col min="40" max="40" width="6.6640625" customWidth="1"/>
-    <col min="41" max="41" width="31.6640625" customWidth="1"/>
-    <col min="42" max="42" width="35.6640625" customWidth="1"/>
-    <col min="43" max="43" width="10.6640625" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" customWidth="1"/>
-    <col min="45" max="45" width="6.6640625" customWidth="1"/>
-    <col min="46" max="46" width="31.6640625" customWidth="1"/>
-    <col min="47" max="47" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" customWidth="1"/>
+    <col min="12" max="13" width="48.6640625" customWidth="1"/>
+    <col min="14" max="14" width="52.6640625" customWidth="1"/>
+    <col min="15" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
+    <col min="26" max="26" width="33.6640625" customWidth="1"/>
+    <col min="27" max="27" width="37.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="37.6640625" customWidth="1"/>
+    <col min="30" max="30" width="41.6640625" customWidth="1"/>
+    <col min="31" max="31" width="37.6640625" customWidth="1"/>
+    <col min="32" max="32" width="41.6640625" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" customWidth="1"/>
+    <col min="34" max="34" width="31.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" customWidth="1"/>
+    <col min="39" max="39" width="40.6640625" customWidth="1"/>
+    <col min="40" max="40" width="44.6640625" customWidth="1"/>
+    <col min="41" max="41" width="6.6640625" customWidth="1"/>
+    <col min="42" max="42" width="31.6640625" customWidth="1"/>
+    <col min="43" max="43" width="35.6640625" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" customWidth="1"/>
+    <col min="45" max="45" width="14.6640625" customWidth="1"/>
+    <col min="46" max="46" width="6.6640625" customWidth="1"/>
+    <col min="47" max="47" width="31.6640625" customWidth="1"/>
+    <col min="48" max="48" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>71</v>
@@ -2510,16 +2801,16 @@
         <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>87</v>
@@ -2555,31 +2846,31 @@
         <v>117</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>136</v>
@@ -2591,197 +2882,203 @@
         <v>142</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>150</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>85</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>118</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>124</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD2" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="AD2" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="AE2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF2" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="AF2" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="AG2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>145</v>
+      <c r="AL2" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>151</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
         <v>154</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>70</v>
@@ -2793,16 +3090,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
         <v>86</v>
@@ -2838,31 +3135,31 @@
         <v>116</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA4" t="s">
         <v>122</v>
       </c>
       <c r="AB4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH4" t="s">
         <v>135</v>
@@ -2877,62 +3174,66 @@
         <v>144</v>
       </c>
       <c r="AL4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AM4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AN4" t="s">
         <v>149</v>
       </c>
       <c r="AO4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AP4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AQ4" t="s">
         <v>155</v>
       </c>
       <c r="AR4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="AS4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>9606</v>
       </c>
-      <c r="V6" t="s">
-        <v>452</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>480</v>
+      <c r="W6" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Z6" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="AR6" t="s">
-        <v>463</v>
+        <v>527</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +3246,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2985,382 +3286,375 @@
   <sheetData>
     <row r="1" spans="1:35" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="L2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="P2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>218</v>
+      <c r="X2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="M3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="R4" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="S4" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="T4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="U4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="V4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="X4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Y4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Z4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AA4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AB4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AC4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AD4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AE4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AH4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AI4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" s="5">
         <v>9606</v>
       </c>
-      <c r="F6" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I6" t="s">
-        <v>499</v>
-      </c>
-      <c r="J6" t="s">
-        <v>500</v>
-      </c>
-      <c r="K6" t="s">
-        <v>501</v>
-      </c>
-      <c r="R6" t="s">
-        <v>472</v>
-      </c>
-      <c r="V6" t="s">
-        <v>467</v>
+      <c r="F6" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3369,358 +3663,351 @@
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="51.6640625" customWidth="1"/>
-    <col min="15" max="15" width="55.6640625" customWidth="1"/>
-    <col min="16" max="16" width="68.6640625" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" customWidth="1"/>
-    <col min="18" max="18" width="67.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="38.6640625" customWidth="1"/>
-    <col min="27" max="27" width="39.6640625" customWidth="1"/>
-    <col min="28" max="28" width="43.6640625" customWidth="1"/>
-    <col min="29" max="29" width="26.6640625" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" customWidth="1"/>
-    <col min="31" max="32" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" customWidth="1"/>
+    <col min="14" max="14" width="55.6640625" customWidth="1"/>
+    <col min="15" max="15" width="68.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="67.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" customWidth="1"/>
+    <col min="25" max="25" width="38.6640625" customWidth="1"/>
+    <col min="26" max="26" width="39.6640625" customWidth="1"/>
+    <col min="27" max="27" width="43.6640625" customWidth="1"/>
+    <col min="28" max="28" width="26.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" customWidth="1"/>
+    <col min="30" max="31" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="360" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" t="s">
+        <v>267</v>
+      </c>
+      <c r="V3" t="s">
+        <v>271</v>
+      </c>
+      <c r="W3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="I4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" t="s">
         <v>249</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="P4" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="Q4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R4" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U4" t="s">
+        <v>268</v>
+      </c>
+      <c r="V4" t="s">
+        <v>272</v>
+      </c>
+      <c r="W4" t="s">
         <v>276</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="X4" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="U3" t="s">
-        <v>257</v>
-      </c>
-      <c r="V3" t="s">
-        <v>261</v>
-      </c>
-      <c r="W3" t="s">
-        <v>265</v>
-      </c>
-      <c r="X3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="Y4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="Z4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" t="s">
-        <v>504</v>
-      </c>
-      <c r="H4" t="s">
-        <v>505</v>
-      </c>
-      <c r="I4" t="s">
-        <v>506</v>
-      </c>
-      <c r="J4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P4" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>246</v>
-      </c>
-      <c r="R4" t="s">
-        <v>248</v>
-      </c>
-      <c r="S4" t="s">
-        <v>251</v>
-      </c>
-      <c r="T4" t="s">
-        <v>254</v>
-      </c>
-      <c r="U4" t="s">
-        <v>258</v>
-      </c>
-      <c r="V4" t="s">
-        <v>262</v>
-      </c>
-      <c r="W4" t="s">
-        <v>266</v>
-      </c>
-      <c r="X4" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>465</v>
+        <v>516</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="E6">
         <v>9606</v>
       </c>
+      <c r="AD6" t="s">
+        <v>533</v>
+      </c>
       <c r="AE6" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3730,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3745,181 +4032,231 @@
     <col min="5" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E4" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F4" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" t="s">
-        <v>297</v>
-      </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>481</v>
+        <v>319</v>
+      </c>
+      <c r="L4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N4" t="s">
+        <v>326</v>
+      </c>
+      <c r="O4" t="s">
+        <v>327</v>
+      </c>
+      <c r="P4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>528</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>483</v>
+        <v>516</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="5">
+        <v>298</v>
+      </c>
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>474</v>
-      </c>
-      <c r="J6" t="s">
-        <v>478</v>
-      </c>
-      <c r="K6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>482</v>
+      <c r="N6" t="s">
+        <v>521</v>
+      </c>
+      <c r="O6" t="s">
+        <v>525</v>
+      </c>
+      <c r="P6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>529</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>483</v>
+        <v>516</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F7" s="5">
+        <v>531</v>
+      </c>
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>474</v>
-      </c>
-      <c r="J7" t="s">
-        <v>478</v>
-      </c>
-      <c r="K7" t="s">
-        <v>485</v>
+      <c r="N7" t="s">
+        <v>521</v>
+      </c>
+      <c r="O7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P7" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -3929,10 +4266,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3945,184 +4282,194 @@
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" customWidth="1"/>
     <col min="8" max="8" width="50.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="64.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="64.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" t="s">
         <v>344</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I3" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" t="s">
-        <v>329</v>
-      </c>
       <c r="K3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" t="s">
-        <v>335</v>
+        <v>346</v>
+      </c>
+      <c r="L3" t="s">
+        <v>349</v>
       </c>
       <c r="N3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="O3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="J4" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="K4" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="L4" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="M4" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="N4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="O4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" t="s">
-        <v>489</v>
+        <v>535</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4483,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4155,134 +4502,134 @@
   <sheetData>
     <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>323</v>
+        <v>228</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="H4" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="K4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>489</v>
+        <v>535</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4292,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X4" sqref="A4:XFD4"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4325,518 +4672,502 @@
     <col min="24" max="24" width="81.6640625" customWidth="1"/>
     <col min="25" max="25" width="11.6640625" customWidth="1"/>
     <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="30" width="6.6640625" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" customWidth="1"/>
-    <col min="34" max="34" width="66.6640625" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
-    <col min="37" max="37" width="17.6640625" customWidth="1"/>
-    <col min="38" max="38" width="23.6640625" customWidth="1"/>
-    <col min="39" max="40" width="14.6640625" customWidth="1"/>
-    <col min="41" max="41" width="23.6640625" customWidth="1"/>
-    <col min="42" max="42" width="65.6640625" customWidth="1"/>
-    <col min="43" max="43" width="69.6640625" customWidth="1"/>
-    <col min="44" max="44" width="67.6640625" customWidth="1"/>
-    <col min="45" max="45" width="71.6640625" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="29" width="6.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="33" width="66.6640625" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="17.6640625" customWidth="1"/>
+    <col min="37" max="37" width="23.6640625" customWidth="1"/>
+    <col min="38" max="39" width="14.6640625" customWidth="1"/>
+    <col min="40" max="40" width="23.6640625" customWidth="1"/>
+    <col min="41" max="41" width="65.6640625" customWidth="1"/>
+    <col min="42" max="42" width="69.6640625" customWidth="1"/>
+    <col min="43" max="43" width="67.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="270" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
+      <c r="O3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P3" t="s">
         <v>346</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="Q3" t="s">
+        <v>349</v>
+      </c>
+      <c r="S3" t="s">
+        <v>352</v>
+      </c>
+      <c r="T3" t="s">
+        <v>355</v>
+      </c>
+      <c r="U3" t="s">
+        <v>344</v>
+      </c>
+      <c r="V3" t="s">
+        <v>346</v>
+      </c>
+      <c r="W3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" t="s">
         <v>409</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="M4" t="s">
+        <v>411</v>
+      </c>
+      <c r="N4" t="s">
+        <v>412</v>
+      </c>
+      <c r="O4" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="P4" t="s">
         <v>414</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="Q4" t="s">
+        <v>415</v>
+      </c>
+      <c r="R4" t="s">
         <v>417</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="S4" t="s">
+        <v>418</v>
+      </c>
+      <c r="T4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V4" t="s">
+        <v>421</v>
+      </c>
+      <c r="W4" t="s">
+        <v>422</v>
+      </c>
+      <c r="X4" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>455</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>521</v>
+      </c>
+      <c r="K6" t="s">
+        <v>522</v>
+      </c>
+      <c r="M6" t="s">
+        <v>523</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC6" t="s">
         <v>436</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" t="s">
-        <v>321</v>
-      </c>
-      <c r="O3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P3" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S3" t="s">
-        <v>335</v>
-      </c>
-      <c r="T3" t="s">
-        <v>338</v>
-      </c>
-      <c r="U3" t="s">
-        <v>327</v>
-      </c>
-      <c r="V3" t="s">
-        <v>329</v>
-      </c>
-      <c r="W3" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>474</v>
-      </c>
-      <c r="K6" t="s">
-        <v>475</v>
-      </c>
-      <c r="M6" t="s">
-        <v>476</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F151456-0E4D-D54D-ACEC-C799938F7877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00E996-D753-8843-AA06-B49F9C757DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1441,12 +1441,6 @@
     <t>Q4_DEMO-cellsus_SAMN02797092</t>
   </si>
   <si>
-    <t>specimen_from_organism.disease.text</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.disease.ontology</t>
-  </si>
-  <si>
     <t>glioblastoma</t>
   </si>
   <si>
@@ -1559,6 +1553,12 @@
   </si>
   <si>
     <t>sequencing_protocol.paired_end</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.diseases.text</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.diseases.ontology</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2002,7 @@
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2119,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2139,7 +2139,7 @@
     <col min="12" max="12" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>449</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K4" t="s">
         <v>454</v>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J6" t="s">
         <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2311,7 @@
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
         <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H6" t="s">
         <v>456</v>
@@ -2478,7 +2478,7 @@
     <col min="47" max="47" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="192" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>155</v>
       </c>
       <c r="AR4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AS4" t="s">
         <v>160</v>
@@ -2929,7 +2929,7 @@
         <v>464</v>
       </c>
       <c r="AQ6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AR6" t="s">
         <v>463</v>
@@ -2944,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2983,7 +2983,7 @@
     <col min="34" max="35" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="380" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,10 +3143,10 @@
         <v>189</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>62</v>
@@ -3255,10 +3255,10 @@
         <v>190</v>
       </c>
       <c r="R4" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="S4" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="T4" t="s">
         <v>191</v>
@@ -3334,16 +3334,16 @@
         <v>468</v>
       </c>
       <c r="I6" t="s">
+        <v>497</v>
+      </c>
+      <c r="J6" t="s">
+        <v>498</v>
+      </c>
+      <c r="K6" t="s">
         <v>499</v>
       </c>
-      <c r="J6" t="s">
-        <v>500</v>
-      </c>
-      <c r="K6" t="s">
-        <v>501</v>
-      </c>
       <c r="R6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V6" t="s">
         <v>467</v>
@@ -3394,7 +3394,7 @@
     <col min="31" max="32" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="360" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="380" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3508,10 +3508,10 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>308</v>
@@ -3623,13 +3623,13 @@
         <v>231</v>
       </c>
       <c r="G4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H4" t="s">
+        <v>503</v>
+      </c>
+      <c r="I4" t="s">
         <v>504</v>
-      </c>
-      <c r="H4" t="s">
-        <v>505</v>
-      </c>
-      <c r="I4" t="s">
-        <v>506</v>
       </c>
       <c r="J4" t="s">
         <v>232</v>
@@ -3717,10 +3717,10 @@
         <v>9606</v>
       </c>
       <c r="AE6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3749,7 @@
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="288" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
@@ -3872,13 +3872,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>469</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
         <v>292</v>
@@ -3887,39 +3887,39 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>469</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3953,7 @@
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -4113,16 +4113,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" t="s">
         <v>486</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>487</v>
-      </c>
-      <c r="G6" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4153,7 @@
     <col min="10" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4344,7 @@
     <col min="45" max="45" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="288" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>408</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>412</v>
@@ -4813,27 +4813,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="K6" t="s">
+        <v>473</v>
+      </c>
+      <c r="M6" t="s">
         <v>474</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="M6" t="s">
-        <v>476</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="AC6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AD6" t="s">
         <v>418</v>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00E996-D753-8843-AA06-B49F9C757DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BD262-C6E7-454B-BA9B-A7F9A6DB809C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="512">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -1559,6 +1559,12 @@
   </si>
   <si>
     <t>specimen_from_organism.diseases.ontology</t>
+  </si>
+  <si>
+    <t>human adult stage</t>
+  </si>
+  <si>
+    <t>HsapDv:0000087</t>
   </si>
 </sst>
 </file>
@@ -2425,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,6 +2934,12 @@
       <c r="Y6" t="s">
         <v>464</v>
       </c>
+      <c r="AD6" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>511</v>
+      </c>
       <c r="AQ6" t="s">
         <v>478</v>
       </c>
@@ -2944,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00E996-D753-8843-AA06-B49F9C757DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D6F33-CEB5-8D48-9595-167D3B08F2BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="512">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -1559,6 +1559,12 @@
   </si>
   <si>
     <t>specimen_from_organism.diseases.ontology</t>
+  </si>
+  <si>
+    <t>human adult stage</t>
+  </si>
+  <si>
+    <t>HsapDv:0000087</t>
   </si>
 </sst>
 </file>
@@ -2425,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,6 +2934,12 @@
       <c r="Y6" t="s">
         <v>464</v>
       </c>
+      <c r="AD6" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>511</v>
+      </c>
       <c r="AQ6" t="s">
         <v>478</v>
       </c>
@@ -2944,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00E996-D753-8843-AA06-B49F9C757DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6C6CA7-A4D8-FA48-AD75-22C67F73C704}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25240" yWindow="460" windowWidth="26540" windowHeight="16580" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="Library preparation protocol" sheetId="13" r:id="rId9"/>
     <sheet name="Sequencing protocol" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="512">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -1559,6 +1559,12 @@
   </si>
   <si>
     <t>specimen_from_organism.diseases.ontology</t>
+  </si>
+  <si>
+    <t>human adult stage</t>
+  </si>
+  <si>
+    <t>HsapDv:0000087</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1646,6 +1652,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2425,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6:AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,6 +2935,12 @@
       <c r="Y6" t="s">
         <v>464</v>
       </c>
+      <c r="AD6" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>511</v>
+      </c>
       <c r="AQ6" t="s">
         <v>478</v>
       </c>
@@ -2944,7 +2957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/playground/cbeta_bundle_downloads/pancreas6decades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DAC51B-B0FF-D542-98F0-7535869276F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EEDE9-9553-9744-ACA1-4F67B2D3EBA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="460" windowWidth="42320" windowHeight="25580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8120" yWindow="460" windowWidth="31880" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -4356,7 +4356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -5817,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EEDE9-9553-9744-ACA1-4F67B2D3EBA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC687F8-B370-6048-A029-32CA7A39CD7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8120" yWindow="460" windowWidth="31880" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,9 +346,6 @@
     <t xml:space="preserve"> For example: Biotechnology and Biological Sciences Research Council (BBSRC)</t>
   </si>
   <si>
-    <t>project.funders.funder_name</t>
-  </si>
-  <si>
     <t>BIOMATERIAL ID (Required)</t>
   </si>
   <si>
@@ -2219,6 +2216,9 @@
   </si>
   <si>
     <t>process.process_core.process_id</t>
+  </si>
+  <si>
+    <t>project.funders.organization</t>
   </si>
 </sst>
 </file>
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" t="s">
         <v>589</v>
       </c>
-      <c r="B6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G6" t="s">
         <v>591</v>
       </c>
-      <c r="D6" t="s">
-        <v>590</v>
-      </c>
-      <c r="F6" t="s">
-        <v>727</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>592</v>
-      </c>
-      <c r="H6" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -2818,60 +2818,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -2885,13 +2885,13 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>91</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C6" t="s">
         <v>685</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G6" t="s">
+        <v>688</v>
+      </c>
+      <c r="H6" t="s">
         <v>686</v>
       </c>
-      <c r="D6" t="s">
-        <v>680</v>
-      </c>
-      <c r="E6" t="s">
-        <v>681</v>
-      </c>
-      <c r="F6" t="s">
-        <v>682</v>
-      </c>
-      <c r="G6" t="s">
-        <v>689</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>687</v>
-      </c>
-      <c r="I6" t="s">
-        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -2998,78 +2998,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,13 +3083,13 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>91</v>
@@ -3101,51 +3101,51 @@
         <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" t="s">
         <v>691</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>692</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="J6" t="s">
         <v>693</v>
-      </c>
-      <c r="D6" t="s">
-        <v>680</v>
-      </c>
-      <c r="E6" t="s">
-        <v>681</v>
-      </c>
-      <c r="F6" t="s">
-        <v>682</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="J6" t="s">
-        <v>694</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,198 +3232,198 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,25 +3437,25 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
@@ -3467,7 +3467,7 @@
         <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>91</v>
@@ -3479,147 +3479,147 @@
         <v>91</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C6" t="s">
         <v>698</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>681</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C6" t="s">
-        <v>699</v>
-      </c>
-      <c r="D6" t="s">
-        <v>680</v>
-      </c>
-      <c r="E6" t="s">
-        <v>681</v>
-      </c>
-      <c r="F6" t="s">
-        <v>682</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="U6" t="s">
         <v>707</v>
-      </c>
-      <c r="U6" t="s">
-        <v>708</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
+        <v>708</v>
+      </c>
+      <c r="X6" t="s">
         <v>709</v>
-      </c>
-      <c r="X6" t="s">
-        <v>710</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA6" t="s">
         <v>707</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>708</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -3767,90 +3767,90 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3864,13 +3864,13 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>91</v>
@@ -3882,10 +3882,10 @@
         <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>91</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" t="s">
         <v>714</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>681</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D6" t="s">
-        <v>680</v>
-      </c>
-      <c r="E6" t="s">
-        <v>681</v>
-      </c>
-      <c r="F6" t="s">
-        <v>682</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="J6" t="s">
         <v>717</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>606</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="K6" t="s">
-        <v>607</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" t="s">
         <v>601</v>
       </c>
-      <c r="E6" t="s">
-        <v>602</v>
-      </c>
       <c r="F6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G6" t="s">
+        <v>605</v>
+      </c>
+      <c r="H6" t="s">
         <v>606</v>
       </c>
-      <c r="H6" t="s">
-        <v>607</v>
-      </c>
       <c r="I6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" t="s">
         <v>599</v>
       </c>
-      <c r="D7" t="s">
-        <v>600</v>
-      </c>
       <c r="E7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G7" t="s">
         <v>605</v>
       </c>
-      <c r="G7" t="s">
-        <v>606</v>
-      </c>
       <c r="H7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I7" t="s">
+        <v>609</v>
+      </c>
+      <c r="J7" t="s">
         <v>610</v>
-      </c>
-      <c r="J7" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B6" t="s">
         <v>612</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>613</v>
-      </c>
-      <c r="C6" t="s">
-        <v>614</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +4357,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4398,7 +4398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" t="s">
         <v>616</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>617</v>
-      </c>
-      <c r="C6" t="s">
-        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4482,270 +4482,270 @@
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
@@ -4759,22 +4759,22 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>91</v>
@@ -4795,13 +4795,13 @@
         <v>91</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>91</v>
@@ -4831,7 +4831,7 @@
         <v>91</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>91</v>
@@ -4843,7 +4843,7 @@
         <v>91</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>91</v>
@@ -4855,7 +4855,7 @@
         <v>91</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>91</v>
@@ -4867,7 +4867,7 @@
         <v>91</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>91</v>
@@ -4879,141 +4879,141 @@
         <v>91</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" t="s">
         <v>619</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>620</v>
-      </c>
-      <c r="C6" t="s">
-        <v>621</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6" t="s">
         <v>622</v>
       </c>
-      <c r="F6" t="s">
-        <v>625</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>623</v>
-      </c>
-      <c r="H6" t="s">
-        <v>624</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P6" t="s">
         <v>630</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>630</v>
+      </c>
+      <c r="R6" t="s">
         <v>631</v>
       </c>
-      <c r="Q6" t="s">
-        <v>631</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="V6" t="s">
         <v>634</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>635</v>
       </c>
-      <c r="W6" t="s">
-        <v>636</v>
-      </c>
       <c r="X6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Y6" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z6" t="s">
         <v>721</v>
       </c>
-      <c r="Z6" t="s">
-        <v>722</v>
-      </c>
       <c r="AA6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" t="s">
         <v>638</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>639</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH6" t="s">
         <v>640</v>
       </c>
-      <c r="AH6" t="s">
-        <v>641</v>
-      </c>
       <c r="AI6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
+        <v>642</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM6" t="s">
         <v>643</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
@@ -5221,216 +5221,216 @@
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
@@ -5444,19 +5444,19 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>91</v>
@@ -5495,34 +5495,34 @@
         <v>91</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>91</v>
@@ -5534,124 +5534,124 @@
         <v>91</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6" t="s">
         <v>622</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>623</v>
       </c>
-      <c r="H6" t="s">
-        <v>624</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L6" t="s">
+        <v>646</v>
+      </c>
+      <c r="M6" t="s">
         <v>647</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>646</v>
+      </c>
+      <c r="O6" t="s">
+        <v>722</v>
+      </c>
+      <c r="P6" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>722</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="U6" t="s">
         <v>648</v>
       </c>
-      <c r="N6" t="s">
-        <v>647</v>
-      </c>
-      <c r="O6" t="s">
-        <v>723</v>
-      </c>
-      <c r="P6" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>723</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>649</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>650</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>651</v>
-      </c>
-      <c r="X6" t="s">
-        <v>652</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA6" t="s">
         <v>653</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>654</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="AH6" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI6" t="s">
         <v>655</v>
       </c>
-      <c r="AI6" t="s">
-        <v>656</v>
-      </c>
       <c r="AJ6" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -5841,168 +5841,168 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6016,25 +6016,25 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>91</v>
@@ -6046,16 +6046,16 @@
         <v>91</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>91</v>
@@ -6076,108 +6076,108 @@
         <v>91</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6" t="s">
         <v>622</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>623</v>
       </c>
-      <c r="H6" t="s">
-        <v>624</v>
-      </c>
       <c r="I6" t="s">
+        <v>660</v>
+      </c>
+      <c r="J6" t="s">
         <v>661</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>662</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>663</v>
       </c>
-      <c r="L6" t="s">
-        <v>664</v>
-      </c>
       <c r="M6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
+        <v>664</v>
+      </c>
+      <c r="P6" t="s">
         <v>665</v>
-      </c>
-      <c r="P6" t="s">
-        <v>666</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U6" t="s">
+        <v>666</v>
+      </c>
+      <c r="V6" t="s">
         <v>667</v>
       </c>
-      <c r="V6" t="s">
-        <v>668</v>
-      </c>
       <c r="W6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AA6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AC6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6327,54 +6327,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6382,63 +6382,63 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B7" t="s">
         <v>671</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,60 +6557,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6624,13 +6624,13 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>91</v>
@@ -6644,31 +6644,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" t="s">
         <v>677</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>678</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>679</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>680</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>681</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>682</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>683</v>
       </c>
-      <c r="H6" t="s">
-        <v>684</v>
-      </c>
       <c r="I6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC687F8-B370-6048-A029-32CA7A39CD7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EE5D7-E81B-0643-9002-DAE41AC82373}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="460" windowWidth="31880" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Enter accession if project has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with DRP, SRP, or ERP, respectively. For example: SRP000000</t>
   </si>
   <si>
-    <t>project.insdc_project</t>
-  </si>
-  <si>
     <t>GEO SERIES ACCESSION</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Enter accession if project has been archived. Accession must start with GSE. For example: GSE00000</t>
   </si>
   <si>
-    <t>project.geo_series</t>
-  </si>
-  <si>
     <t>ARRAYEXPRESS ACCESSION</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Enter accession if project has been archived. Accession must start with E-. For example: E-AAAA-00</t>
   </si>
   <si>
-    <t>project.array_express_investigation</t>
-  </si>
-  <si>
     <t>INSDC STUDY ACCESSION</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>Enter accession if study has been archived. Accession can be from the DDBJ, NCBI, or EMBL-EBI and must start with PRJD, PRJN, or PRJE, respectively. For example: PRJNA000000</t>
   </si>
   <si>
-    <t>project.insdc_study</t>
-  </si>
-  <si>
     <t>CONTACT NAME</t>
   </si>
   <si>
@@ -2219,6 +2207,18 @@
   </si>
   <si>
     <t>project.funders.organization</t>
+  </si>
+  <si>
+    <t>project.insdc_project_accessions</t>
+  </si>
+  <si>
+    <t>project.geo_series_accessions</t>
+  </si>
+  <si>
+    <t>project.array_express_accessions</t>
+  </si>
+  <si>
+    <t>project.insdc_study_accessions</t>
   </si>
 </sst>
 </file>
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2673,13 +2673,13 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -2699,13 +2699,13 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -2725,16 +2725,16 @@
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>725</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>726</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>727</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" t="s">
         <v>588</v>
-      </c>
-      <c r="B6" t="s">
-        <v>588</v>
-      </c>
-      <c r="C6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D6" t="s">
-        <v>589</v>
-      </c>
-      <c r="F6" t="s">
-        <v>726</v>
-      </c>
-      <c r="G6" t="s">
-        <v>591</v>
-      </c>
-      <c r="H6" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -2818,118 +2818,118 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G6" t="s">
         <v>684</v>
       </c>
-      <c r="C6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" t="s">
-        <v>688</v>
-      </c>
       <c r="H6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="I6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -2998,154 +2998,154 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="J6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,394 +3232,394 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="AD1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="AD2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="X3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="AD3" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="O4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" t="s">
+        <v>677</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" t="s">
-        <v>681</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="U6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="X6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AA6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -3767,178 +3767,178 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="L4" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="J6" t="s">
         <v>713</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>602</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="D6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="J6" t="s">
-        <v>717</v>
-      </c>
-      <c r="K6" t="s">
-        <v>606</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>719</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -4025,130 +4025,130 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" t="s">
         <v>593</v>
       </c>
-      <c r="B6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" t="s">
         <v>597</v>
       </c>
-      <c r="D6" t="s">
-        <v>600</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G6" t="s">
         <v>601</v>
       </c>
-      <c r="F6" t="s">
-        <v>603</v>
-      </c>
-      <c r="G6" t="s">
-        <v>605</v>
-      </c>
       <c r="H6" t="s">
+        <v>602</v>
+      </c>
+      <c r="I6" t="s">
+        <v>604</v>
+      </c>
+      <c r="J6" t="s">
         <v>606</v>
-      </c>
-      <c r="I6" t="s">
-        <v>608</v>
-      </c>
-      <c r="J6" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" t="s">
         <v>594</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>595</v>
+      </c>
+      <c r="E7" t="s">
         <v>598</v>
       </c>
-      <c r="D7" t="s">
-        <v>599</v>
-      </c>
-      <c r="E7" t="s">
-        <v>602</v>
-      </c>
       <c r="F7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I7" t="s">
         <v>605</v>
       </c>
-      <c r="H7" t="s">
-        <v>607</v>
-      </c>
-      <c r="I7" t="s">
-        <v>609</v>
-      </c>
       <c r="J7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4252,70 +4252,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4367,46 +4367,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -4482,538 +4482,538 @@
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="AH2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="AL2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="S4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="V4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="AG4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AJ4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="AK4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AL4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="P6" t="s">
         <v>626</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>626</v>
+      </c>
+      <c r="R6" t="s">
         <v>627</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="P6" t="s">
+      <c r="V6" t="s">
         <v>630</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
+        <v>631</v>
+      </c>
+      <c r="X6" t="s">
         <v>630</v>
       </c>
-      <c r="R6" t="s">
-        <v>631</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="V6" t="s">
-        <v>634</v>
-      </c>
-      <c r="W6" t="s">
-        <v>635</v>
-      </c>
-      <c r="X6" t="s">
-        <v>634</v>
-      </c>
       <c r="Y6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Z6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="AA6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AE6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AH6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AI6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AM6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5221,437 +5221,437 @@
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="W2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="AE3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="M4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="P4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="V4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AI4" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="AJ4" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="G6" t="s">
-        <v>622</v>
-      </c>
-      <c r="H6" t="s">
-        <v>623</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="L6" t="s">
+        <v>642</v>
+      </c>
+      <c r="M6" t="s">
+        <v>643</v>
+      </c>
+      <c r="N6" t="s">
+        <v>642</v>
+      </c>
+      <c r="O6" t="s">
+        <v>718</v>
+      </c>
+      <c r="P6" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>718</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="U6" t="s">
+        <v>644</v>
+      </c>
+      <c r="V6" t="s">
+        <v>645</v>
+      </c>
+      <c r="W6" t="s">
         <v>646</v>
       </c>
-      <c r="M6" t="s">
+      <c r="X6" t="s">
         <v>647</v>
-      </c>
-      <c r="N6" t="s">
-        <v>646</v>
-      </c>
-      <c r="O6" t="s">
-        <v>722</v>
-      </c>
-      <c r="P6" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>722</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="U6" t="s">
-        <v>648</v>
-      </c>
-      <c r="V6" t="s">
-        <v>649</v>
-      </c>
-      <c r="W6" t="s">
-        <v>650</v>
-      </c>
-      <c r="X6" t="s">
-        <v>651</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AA6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AH6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AI6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -5841,343 +5841,343 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="U4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="AB4" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="M6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="P6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="U6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="V6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="W6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="AA6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -6327,118 +6327,118 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,118 +6557,118 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
         <v>676</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>677</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>678</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>679</v>
       </c>
-      <c r="E6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" t="s">
-        <v>682</v>
-      </c>
-      <c r="H6" t="s">
-        <v>683</v>
-      </c>
       <c r="I6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EE5D7-E81B-0643-9002-DAE41AC82373}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25936172-C896-D144-81F8-13A8C0B44BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1141,9 +1141,6 @@
     <t>Enter 1 for well-based assays. For example: 2100</t>
   </si>
   <si>
-    <t>cell_suspension.total_estimated_cells</t>
-  </si>
-  <si>
     <t>WELL PLATE ID (Required)</t>
   </si>
   <si>
@@ -2219,6 +2216,9 @@
   </si>
   <si>
     <t>project.insdc_study_accessions</t>
+  </si>
+  <si>
+    <t>cell_suspension.estimated_cell_count</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" t="s">
         <v>584</v>
       </c>
-      <c r="B6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>721</v>
+      </c>
+      <c r="G6" t="s">
         <v>586</v>
       </c>
-      <c r="D6" t="s">
-        <v>585</v>
-      </c>
-      <c r="F6" t="s">
-        <v>722</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>587</v>
-      </c>
-      <c r="H6" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2818,54 +2818,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2885,13 +2885,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" t="s">
         <v>680</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G6" t="s">
+        <v>683</v>
+      </c>
+      <c r="H6" t="s">
         <v>681</v>
       </c>
-      <c r="D6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" t="s">
-        <v>684</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>682</v>
-      </c>
-      <c r="I6" t="s">
-        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -2998,63 +2998,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,13 +3083,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" t="s">
         <v>686</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>687</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J6" t="s">
         <v>688</v>
-      </c>
-      <c r="D6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="J6" t="s">
-        <v>689</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,135 +3232,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,25 +3437,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" t="s">
         <v>693</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" t="s">
+        <v>676</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F6" t="s">
-        <v>677</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>701</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="U6" t="s">
         <v>702</v>
-      </c>
-      <c r="U6" t="s">
-        <v>703</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
+        <v>703</v>
+      </c>
+      <c r="X6" t="s">
         <v>704</v>
-      </c>
-      <c r="X6" t="s">
-        <v>705</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA6" t="s">
         <v>702</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>703</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -3767,69 +3767,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3864,13 +3864,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C6" t="s">
         <v>709</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="J6" t="s">
         <v>712</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>601</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="K6" t="s">
-        <v>602</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E6" t="s">
         <v>596</v>
       </c>
-      <c r="E6" t="s">
-        <v>597</v>
-      </c>
       <c r="F6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H6" t="s">
         <v>601</v>
       </c>
-      <c r="H6" t="s">
-        <v>602</v>
-      </c>
       <c r="I6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" t="s">
         <v>594</v>
       </c>
-      <c r="D7" t="s">
-        <v>595</v>
-      </c>
       <c r="E7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G7" t="s">
         <v>600</v>
       </c>
-      <c r="G7" t="s">
-        <v>601</v>
-      </c>
       <c r="H7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I7" t="s">
+        <v>604</v>
+      </c>
+      <c r="J7" t="s">
         <v>605</v>
-      </c>
-      <c r="J7" t="s">
-        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" t="s">
         <v>607</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>608</v>
-      </c>
-      <c r="C6" t="s">
-        <v>609</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" t="s">
         <v>611</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>612</v>
-      </c>
-      <c r="C6" t="s">
-        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" t="s">
         <v>614</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>615</v>
-      </c>
-      <c r="C6" t="s">
-        <v>616</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" t="s">
         <v>617</v>
       </c>
-      <c r="F6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>618</v>
-      </c>
-      <c r="H6" t="s">
-        <v>619</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="P6" t="s">
         <v>625</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>625</v>
+      </c>
+      <c r="R6" t="s">
         <v>626</v>
       </c>
-      <c r="Q6" t="s">
-        <v>626</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" t="s">
         <v>629</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>630</v>
       </c>
-      <c r="W6" t="s">
-        <v>631</v>
-      </c>
       <c r="X6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Y6" t="s">
+        <v>715</v>
+      </c>
+      <c r="Z6" t="s">
         <v>716</v>
       </c>
-      <c r="Z6" t="s">
-        <v>717</v>
-      </c>
       <c r="AA6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
+        <v>631</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" t="s">
         <v>633</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>634</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH6" t="s">
         <v>635</v>
       </c>
-      <c r="AH6" t="s">
-        <v>636</v>
-      </c>
       <c r="AI6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
+        <v>637</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AM6" t="s">
         <v>638</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" t="s">
         <v>617</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>618</v>
       </c>
-      <c r="H6" t="s">
-        <v>619</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>625</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L6" t="s">
+        <v>641</v>
+      </c>
+      <c r="M6" t="s">
         <v>642</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>641</v>
+      </c>
+      <c r="O6" t="s">
+        <v>717</v>
+      </c>
+      <c r="P6" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>717</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="U6" t="s">
         <v>643</v>
       </c>
-      <c r="N6" t="s">
-        <v>642</v>
-      </c>
-      <c r="O6" t="s">
-        <v>718</v>
-      </c>
-      <c r="P6" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>718</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>644</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>645</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>646</v>
-      </c>
-      <c r="X6" t="s">
-        <v>647</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA6" t="s">
         <v>648</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>649</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="AH6" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI6" t="s">
         <v>650</v>
       </c>
-      <c r="AI6" t="s">
-        <v>651</v>
-      </c>
       <c r="AJ6" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -5817,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5913,13 +5913,13 @@
         <v>366</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5996,13 +5996,13 @@
         <v>367</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6079,13 +6079,13 @@
         <v>368</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -6159,25 +6159,25 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>654</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" t="s">
         <v>617</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>618</v>
       </c>
-      <c r="H6" t="s">
-        <v>619</v>
-      </c>
       <c r="I6" t="s">
+        <v>655</v>
+      </c>
+      <c r="J6" t="s">
         <v>656</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>657</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>658</v>
       </c>
-      <c r="L6" t="s">
-        <v>659</v>
-      </c>
       <c r="M6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
+        <v>659</v>
+      </c>
+      <c r="P6" t="s">
         <v>660</v>
-      </c>
-      <c r="P6" t="s">
-        <v>661</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>625</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U6" t="s">
+        <v>661</v>
+      </c>
+      <c r="V6" t="s">
         <v>662</v>
       </c>
-      <c r="V6" t="s">
-        <v>663</v>
-      </c>
       <c r="W6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AA6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC6" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -6327,54 +6327,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6382,63 +6382,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B7" t="s">
         <v>666</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,54 +6557,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6624,13 +6624,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6644,31 +6644,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" t="s">
         <v>672</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>673</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>674</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>675</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>676</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>677</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>678</v>
       </c>
-      <c r="H6" t="s">
-        <v>679</v>
-      </c>
       <c r="I6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25936172-C896-D144-81F8-13A8C0B44BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40CF9F3-C195-2047-8C79-7A825D85DA92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1252,9 +1252,6 @@
     <t>Accession must start with DRR, SRR, or ERR. For example: SRR0000000</t>
   </si>
   <si>
-    <t>sequence_file.insdc_run</t>
-  </si>
-  <si>
     <t>LIBRARY PREPARATION ID</t>
   </si>
   <si>
@@ -2219,6 +2216,9 @@
   </si>
   <si>
     <t>cell_suspension.estimated_cell_count</t>
+  </si>
+  <si>
+    <t>sequence_file.insdc_run_accessions</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" t="s">
         <v>583</v>
       </c>
-      <c r="B6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G6" t="s">
         <v>585</v>
       </c>
-      <c r="D6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F6" t="s">
-        <v>721</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>586</v>
-      </c>
-      <c r="H6" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -2818,54 +2818,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2885,13 +2885,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
         <v>679</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" t="s">
+        <v>682</v>
+      </c>
+      <c r="H6" t="s">
         <v>680</v>
       </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" t="s">
-        <v>683</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>681</v>
-      </c>
-      <c r="I6" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -2998,63 +2998,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,13 +3083,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" t="s">
         <v>685</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>686</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="J6" t="s">
         <v>687</v>
-      </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="J6" t="s">
-        <v>688</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,135 +3232,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,25 +3437,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" t="s">
         <v>692</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C6" t="s">
-        <v>693</v>
-      </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="U6" t="s">
         <v>701</v>
-      </c>
-      <c r="U6" t="s">
-        <v>702</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
+        <v>702</v>
+      </c>
+      <c r="X6" t="s">
         <v>703</v>
-      </c>
-      <c r="X6" t="s">
-        <v>704</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA6" t="s">
         <v>701</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>702</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AD6" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -3767,69 +3767,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3864,13 +3864,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" t="s">
         <v>708</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="J6" t="s">
         <v>711</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>600</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K6" t="s">
-        <v>601</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" t="s">
         <v>595</v>
       </c>
-      <c r="E6" t="s">
-        <v>596</v>
-      </c>
       <c r="F6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H6" t="s">
         <v>600</v>
       </c>
-      <c r="H6" t="s">
-        <v>601</v>
-      </c>
       <c r="I6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" t="s">
         <v>593</v>
       </c>
-      <c r="D7" t="s">
-        <v>594</v>
-      </c>
       <c r="E7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G7" t="s">
         <v>599</v>
       </c>
-      <c r="G7" t="s">
-        <v>600</v>
-      </c>
       <c r="H7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I7" t="s">
+        <v>603</v>
+      </c>
+      <c r="J7" t="s">
         <v>604</v>
-      </c>
-      <c r="J7" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6" t="s">
         <v>606</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>607</v>
-      </c>
-      <c r="C6" t="s">
-        <v>608</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B6" t="s">
         <v>610</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>611</v>
-      </c>
-      <c r="C6" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" t="s">
         <v>613</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" t="s">
-        <v>615</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G6" t="s">
         <v>616</v>
       </c>
-      <c r="F6" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>617</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="P6" t="s">
         <v>624</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>624</v>
+      </c>
+      <c r="R6" t="s">
         <v>625</v>
       </c>
-      <c r="Q6" t="s">
-        <v>625</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="V6" t="s">
         <v>628</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>629</v>
       </c>
-      <c r="W6" t="s">
-        <v>630</v>
-      </c>
       <c r="X6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y6" t="s">
+        <v>714</v>
+      </c>
+      <c r="Z6" t="s">
         <v>715</v>
       </c>
-      <c r="Z6" t="s">
-        <v>716</v>
-      </c>
       <c r="AA6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" t="s">
         <v>632</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>633</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AH6" t="s">
         <v>634</v>
       </c>
-      <c r="AH6" t="s">
-        <v>635</v>
-      </c>
       <c r="AI6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
+        <v>636</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AM6" t="s">
         <v>637</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G6" t="s">
         <v>616</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>617</v>
       </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L6" t="s">
+        <v>640</v>
+      </c>
+      <c r="M6" t="s">
         <v>641</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>640</v>
+      </c>
+      <c r="O6" t="s">
+        <v>716</v>
+      </c>
+      <c r="P6" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>716</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="U6" t="s">
         <v>642</v>
       </c>
-      <c r="N6" t="s">
-        <v>641</v>
-      </c>
-      <c r="O6" t="s">
-        <v>717</v>
-      </c>
-      <c r="P6" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>717</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>643</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>644</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>645</v>
-      </c>
-      <c r="X6" t="s">
-        <v>646</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA6" t="s">
         <v>647</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>648</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AG6" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>633</v>
-      </c>
       <c r="AH6" t="s">
+        <v>648</v>
+      </c>
+      <c r="AI6" t="s">
         <v>649</v>
       </c>
-      <c r="AI6" t="s">
-        <v>650</v>
-      </c>
       <c r="AJ6" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -6159,7 +6159,7 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>372</v>
@@ -6174,10 +6174,10 @@
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G6" t="s">
         <v>616</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>617</v>
       </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
       <c r="I6" t="s">
+        <v>654</v>
+      </c>
+      <c r="J6" t="s">
         <v>655</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>656</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>657</v>
       </c>
-      <c r="L6" t="s">
-        <v>658</v>
-      </c>
       <c r="M6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
+        <v>658</v>
+      </c>
+      <c r="P6" t="s">
         <v>659</v>
-      </c>
-      <c r="P6" t="s">
-        <v>660</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U6" t="s">
+        <v>660</v>
+      </c>
+      <c r="V6" t="s">
         <v>661</v>
       </c>
-      <c r="V6" t="s">
-        <v>662</v>
-      </c>
       <c r="W6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC6" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -6315,8 +6315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6348,7 +6348,7 @@
         <v>403</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
         <v>404</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6400,7 +6400,7 @@
         <v>405</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -6423,22 +6423,22 @@
         <v>402</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>406</v>
+        <v>728</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B7" t="s">
         <v>665</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,54 +6557,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6624,13 +6624,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6644,31 +6644,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B6" t="s">
         <v>671</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>672</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>673</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>674</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>675</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>676</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>677</v>
       </c>
-      <c r="H6" t="s">
-        <v>678</v>
-      </c>
       <c r="I6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25936172-C896-D144-81F8-13A8C0B44BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85118BB9-7AF1-A54E-973E-38A6916EA7D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1333,21 +1333,12 @@
     <t>The name of a process type being used.</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.text</t>
-  </si>
-  <si>
     <t>COLLECTION_PROTOCOL.COLLECTION_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.ontology</t>
-  </si>
-  <si>
     <t>COLLECTION_PROTOCOL.COLLECTION_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.ontology_label</t>
-  </si>
-  <si>
     <t>dissociation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1369,21 +1360,12 @@
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.TEXT (Required)</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.text</t>
-  </si>
-  <si>
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.ontology</t>
-  </si>
-  <si>
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.ontology_label</t>
-  </si>
-  <si>
     <t>enrichment_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1558,21 +1540,12 @@
     <t>The name of a library construction approach being used.</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.text</t>
-  </si>
-  <si>
     <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.ONTOLOGY</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.ontology</t>
-  </si>
-  <si>
     <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.ontology_label</t>
-  </si>
-  <si>
     <t>RETAIL NAME</t>
   </si>
   <si>
@@ -1768,21 +1741,12 @@
     <t>The name of a sequencing approach being used.</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.text</t>
-  </si>
-  <si>
     <t>SEQUENCING_PROTOCOL.SEQUENCING_APPROACH.ONTOLOGY</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.ontology</t>
-  </si>
-  <si>
     <t>SEQUENCING_PROTOCOL.SEQUENCING_APPROACH.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.ontology_label</t>
-  </si>
-  <si>
     <t>SS2 1 Cell Integration Test</t>
   </si>
   <si>
@@ -2219,6 +2183,42 @@
   </si>
   <si>
     <t>cell_suspension.estimated_cell_count</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.text</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.text</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.text</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.ontology</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.ontology_label</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.text</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D6" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="F6" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="G6" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="H6" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -2804,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2836,13 +2836,13 @@
         <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>445</v>
+        <v>720</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>447</v>
+        <v>721</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>449</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B6" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C6" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="H6" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="I6" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -3016,22 +3016,22 @@
         <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B6" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C6" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="J6" t="s">
         <v>676</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="J6" t="s">
-        <v>688</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3211,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3250,82 +3250,82 @@
         <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3348,19 +3348,19 @@
         <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3446,16 +3446,16 @@
         <v>429</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>483</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>508</v>
+        <v>723</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>510</v>
+        <v>724</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>512</v>
+        <v>725</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="B6" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C6" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="U6" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="X6" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="AA6" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -3749,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3785,28 +3785,28 @@
         <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3829,7 +3829,7 @@
         <v>428</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>578</v>
+        <v>726</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>580</v>
+        <v>727</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>582</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C6" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="D6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="J6" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="K6" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" t="s">
         <v>588</v>
       </c>
-      <c r="B6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" t="s">
-        <v>595</v>
-      </c>
-      <c r="E6" t="s">
-        <v>596</v>
-      </c>
-      <c r="F6" t="s">
-        <v>598</v>
-      </c>
-      <c r="G6" t="s">
-        <v>600</v>
-      </c>
       <c r="H6" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="I6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="J6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D7" t="s">
+        <v>582</v>
+      </c>
+      <c r="E7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H7" t="s">
+        <v>590</v>
+      </c>
+      <c r="I7" t="s">
+        <v>592</v>
+      </c>
+      <c r="J7" t="s">
         <v>593</v>
-      </c>
-      <c r="D7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E7" t="s">
-        <v>597</v>
-      </c>
-      <c r="F7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H7" t="s">
-        <v>602</v>
-      </c>
-      <c r="I7" t="s">
-        <v>604</v>
-      </c>
-      <c r="J7" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C6" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B6" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C6" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="F6" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="P6" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="Q6" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="R6" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="V6" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="W6" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="X6" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="Y6" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="Z6" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="AA6" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="AE6" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="AH6" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="AI6" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="AM6" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="L6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M6" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="N6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="O6" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="P6" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="Q6" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="U6" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="V6" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="W6" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="X6" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="AA6" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AH6" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="AI6" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -6159,7 +6159,7 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>372</v>
@@ -6174,10 +6174,10 @@
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="I6" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="J6" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="K6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="L6" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="M6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="P6" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="U6" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="V6" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="W6" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="AA6" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -6432,13 +6432,13 @@
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B6" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B7" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6543,8 +6543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6578,10 +6578,10 @@
         <v>431</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6642,7 +6642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>413</v>
       </c>
@@ -6662,13 +6662,13 @@
         <v>430</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>433</v>
+        <v>717</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>435</v>
+        <v>718</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>437</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B6" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="H6" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="I6" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25936172-C896-D144-81F8-13A8C0B44BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F88FA-6A50-3E41-8660-F9D63096468F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1165,18 +1165,12 @@
     <t>cell_suspension.plate_based_sequencing.well_id</t>
   </si>
   <si>
-    <t>CELL QUALITY</t>
-  </si>
-  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: Should be one of: 'OK', 'control, 2-cell well', 'control, empty well', or 'low quality cell'.</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.cell_quality</t>
-  </si>
-  <si>
     <t>FILE NAME (Required)</t>
   </si>
   <si>
@@ -2219,6 +2213,12 @@
   </si>
   <si>
     <t>cell_suspension.estimated_cell_count</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.well_quality</t>
+  </si>
+  <si>
+    <t>WELL QUALITY</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" t="s">
         <v>583</v>
       </c>
-      <c r="B6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" t="s">
         <v>585</v>
-      </c>
-      <c r="D6" t="s">
-        <v>584</v>
-      </c>
-      <c r="F6" t="s">
-        <v>721</v>
-      </c>
-      <c r="G6" t="s">
-        <v>586</v>
-      </c>
-      <c r="H6" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -2818,54 +2818,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2885,13 +2885,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G6" t="s">
+        <v>681</v>
+      </c>
+      <c r="H6" t="s">
         <v>679</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>680</v>
-      </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" t="s">
-        <v>683</v>
-      </c>
-      <c r="H6" t="s">
-        <v>681</v>
-      </c>
-      <c r="I6" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -2998,63 +2998,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,13 +3083,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C6" t="s">
         <v>685</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="J6" t="s">
         <v>686</v>
-      </c>
-      <c r="C6" t="s">
-        <v>687</v>
-      </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="J6" t="s">
-        <v>688</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,135 +3232,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,25 +3437,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" t="s">
         <v>692</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F6" t="s">
+        <v>674</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="U6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="X6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AA6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -3767,69 +3767,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3864,13 +3864,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="J6" t="s">
         <v>710</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" t="s">
+        <v>599</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K6" t="s">
-        <v>601</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B6" t="s">
         <v>588</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>590</v>
       </c>
-      <c r="C6" t="s">
-        <v>592</v>
-      </c>
       <c r="D6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F6" t="s">
         <v>596</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>598</v>
       </c>
-      <c r="G6" t="s">
-        <v>600</v>
-      </c>
       <c r="H6" t="s">
+        <v>599</v>
+      </c>
+      <c r="I6" t="s">
         <v>601</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>603</v>
-      </c>
-      <c r="J6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" t="s">
         <v>591</v>
       </c>
-      <c r="C7" t="s">
-        <v>593</v>
-      </c>
       <c r="D7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F7" t="s">
         <v>597</v>
       </c>
-      <c r="F7" t="s">
-        <v>599</v>
-      </c>
       <c r="G7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H7" t="s">
         <v>600</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>602</v>
       </c>
-      <c r="I7" t="s">
-        <v>604</v>
-      </c>
       <c r="J7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" t="s">
         <v>606</v>
-      </c>
-      <c r="B6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C6" t="s">
-        <v>608</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C6" t="s">
         <v>610</v>
-      </c>
-      <c r="B6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C6" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" t="s">
         <v>613</v>
-      </c>
-      <c r="B6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C6" t="s">
-        <v>615</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H6" t="s">
         <v>616</v>
-      </c>
-      <c r="F6" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" t="s">
-        <v>617</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="P6" t="s">
         <v>623</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>623</v>
+      </c>
+      <c r="R6" t="s">
         <v>624</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="S6" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R6" t="s">
-        <v>626</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="V6" t="s">
         <v>627</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="W6" t="s">
         <v>628</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="X6" t="s">
         <v>627</v>
       </c>
-      <c r="V6" t="s">
-        <v>629</v>
-      </c>
-      <c r="W6" t="s">
-        <v>630</v>
-      </c>
-      <c r="X6" t="s">
-        <v>629</v>
-      </c>
       <c r="Y6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Z6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AA6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE6" t="s">
         <v>631</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>633</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AH6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AI6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AL6" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM6" t="s">
         <v>636</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H6" t="s">
         <v>616</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" t="s">
-        <v>617</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L6" t="s">
+        <v>639</v>
+      </c>
+      <c r="M6" t="s">
+        <v>640</v>
+      </c>
+      <c r="N6" t="s">
+        <v>639</v>
+      </c>
+      <c r="O6" t="s">
+        <v>715</v>
+      </c>
+      <c r="P6" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>715</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="U6" t="s">
         <v>641</v>
       </c>
-      <c r="M6" t="s">
+      <c r="V6" t="s">
         <v>642</v>
       </c>
-      <c r="N6" t="s">
-        <v>641</v>
-      </c>
-      <c r="O6" t="s">
-        <v>717</v>
-      </c>
-      <c r="P6" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>717</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>643</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>644</v>
-      </c>
-      <c r="W6" t="s">
-        <v>645</v>
-      </c>
-      <c r="X6" t="s">
-        <v>646</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AA6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="AF6" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>633</v>
-      </c>
       <c r="AH6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AI6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +5818,7 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5919,7 +5919,7 @@
         <v>373</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>377</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -6002,7 +6002,7 @@
         <v>374</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6085,7 +6085,7 @@
         <v>375</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>372</v>
@@ -6168,16 +6168,16 @@
         <v>376</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>380</v>
+        <v>727</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H6" t="s">
         <v>616</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" t="s">
-        <v>617</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
-      </c>
       <c r="I6" t="s">
+        <v>653</v>
+      </c>
+      <c r="J6" t="s">
+        <v>654</v>
+      </c>
+      <c r="K6" t="s">
         <v>655</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>656</v>
       </c>
-      <c r="K6" t="s">
-        <v>657</v>
-      </c>
-      <c r="L6" t="s">
-        <v>658</v>
-      </c>
       <c r="M6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="U6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="V6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="W6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AA6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -6327,54 +6327,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6382,63 +6382,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B6" t="s">
         <v>664</v>
       </c>
-      <c r="B6" t="s">
-        <v>666</v>
-      </c>
       <c r="D6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="B7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,54 +6557,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6624,13 +6624,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6644,31 +6644,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
         <v>671</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>672</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>673</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>674</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>675</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>676</v>
       </c>
-      <c r="G6" t="s">
-        <v>677</v>
-      </c>
-      <c r="H6" t="s">
-        <v>678</v>
-      </c>
       <c r="I6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40CF9F3-C195-2047-8C79-7A825D85DA92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA390A4-A9EE-F04F-918C-9A5631828550}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1330,21 +1330,12 @@
     <t>The name of a process type being used.</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.text</t>
-  </si>
-  <si>
     <t>COLLECTION_PROTOCOL.COLLECTION_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.ontology</t>
-  </si>
-  <si>
     <t>COLLECTION_PROTOCOL.COLLECTION_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.ontology_label</t>
-  </si>
-  <si>
     <t>dissociation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1366,21 +1357,12 @@
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.TEXT (Required)</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.text</t>
-  </si>
-  <si>
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.ontology</t>
-  </si>
-  <si>
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.ontology_label</t>
-  </si>
-  <si>
     <t>enrichment_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1555,21 +1537,12 @@
     <t>The name of a library construction approach being used.</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.text</t>
-  </si>
-  <si>
     <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.ONTOLOGY</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.ontology</t>
-  </si>
-  <si>
     <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.ontology_label</t>
-  </si>
-  <si>
     <t>RETAIL NAME</t>
   </si>
   <si>
@@ -1765,21 +1738,12 @@
     <t>The name of a sequencing approach being used.</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.text</t>
-  </si>
-  <si>
     <t>SEQUENCING_PROTOCOL.SEQUENCING_APPROACH.ONTOLOGY</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.ontology</t>
-  </si>
-  <si>
     <t>SEQUENCING_PROTOCOL.SEQUENCING_APPROACH.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.ontology_label</t>
-  </si>
-  <si>
     <t>SS2 1 Cell Integration Test</t>
   </si>
   <si>
@@ -2219,6 +2183,42 @@
   </si>
   <si>
     <t>sequence_file.insdc_run_accessions</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.text</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.text</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.text</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.ontology</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.ontology_label</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.text</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C6" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H6" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2805,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2836,13 +2836,13 @@
         <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>446</v>
+        <v>721</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>448</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C6" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="G6" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="H6" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="I6" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
@@ -3016,22 +3016,22 @@
         <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B6" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C6" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F6" t="s">
+        <v>663</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="J6" t="s">
         <v>675</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="J6" t="s">
-        <v>687</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3211,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3250,82 +3250,82 @@
         <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3348,19 +3348,19 @@
         <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3446,16 +3446,16 @@
         <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>482</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>507</v>
+        <v>723</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>509</v>
+        <v>724</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>511</v>
+        <v>725</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B6" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C6" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="U6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="X6" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="AA6" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -3749,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3785,28 +3785,28 @@
         <v>426</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3829,7 +3829,7 @@
         <v>427</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>577</v>
+        <v>726</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>579</v>
+        <v>727</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>581</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C6" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="J6" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="K6" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G6" t="s">
         <v>587</v>
       </c>
-      <c r="B6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C6" t="s">
-        <v>591</v>
-      </c>
-      <c r="D6" t="s">
-        <v>594</v>
-      </c>
-      <c r="E6" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6" t="s">
-        <v>597</v>
-      </c>
-      <c r="G6" t="s">
-        <v>599</v>
-      </c>
       <c r="H6" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="I6" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="J6" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H7" t="s">
+        <v>589</v>
+      </c>
+      <c r="I7" t="s">
+        <v>591</v>
+      </c>
+      <c r="J7" t="s">
         <v>592</v>
-      </c>
-      <c r="D7" t="s">
-        <v>593</v>
-      </c>
-      <c r="E7" t="s">
-        <v>596</v>
-      </c>
-      <c r="F7" t="s">
-        <v>598</v>
-      </c>
-      <c r="G7" t="s">
-        <v>599</v>
-      </c>
-      <c r="H7" t="s">
-        <v>601</v>
-      </c>
-      <c r="I7" t="s">
-        <v>603</v>
-      </c>
-      <c r="J7" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B6" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F6" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="P6" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="Q6" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="R6" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="V6" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="W6" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="X6" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="Y6" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="Z6" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="AA6" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AE6" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AH6" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="AI6" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="AM6" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="L6" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M6" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="N6" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="O6" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="P6" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="Q6" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="U6" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="V6" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="W6" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="X6" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="AA6" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="AH6" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="AI6" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -6159,7 +6159,7 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>372</v>
@@ -6174,10 +6174,10 @@
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G6" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H6" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="I6" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="J6" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="K6" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="L6" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="M6" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="P6" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="U6" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="V6" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="W6" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="AA6" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -6315,7 +6315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6423,7 +6423,7 @@
         <v>402</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>409</v>
@@ -6432,13 +6432,13 @@
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B6" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6544,7 +6544,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6578,10 +6578,10 @@
         <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6642,7 +6642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>412</v>
       </c>
@@ -6662,13 +6662,13 @@
         <v>429</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>432</v>
+        <v>717</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>434</v>
+        <v>718</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>436</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C6" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F6" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="G6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="H6" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="I6" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA390A4-A9EE-F04F-918C-9A5631828550}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2978F1-FF0A-1643-B10B-2296E97A8927}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1141,30 +1141,18 @@
     <t>Enter 1 for well-based assays. For example: 2100</t>
   </si>
   <si>
-    <t>WELL PLATE ID (Required)</t>
-  </si>
-  <si>
     <t>An ID for the plate that the well is located on.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: 2217</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.plate_id</t>
-  </si>
-  <si>
-    <t>WELL ID</t>
-  </si>
-  <si>
     <t>An ID or name for the well. Should be unique for the plate.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: A1</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.well_id</t>
-  </si>
-  <si>
     <t>CELL QUALITY</t>
   </si>
   <si>
@@ -2219,6 +2207,18 @@
   </si>
   <si>
     <t>sequencing_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.plate_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.well_label</t>
+  </si>
+  <si>
+    <t>PLATE LABEL (Required)</t>
+  </si>
+  <si>
+    <t>WELL LABEL</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" t="s">
         <v>570</v>
-      </c>
-      <c r="B6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C6" t="s">
-        <v>572</v>
-      </c>
-      <c r="D6" t="s">
-        <v>571</v>
-      </c>
-      <c r="F6" t="s">
-        <v>708</v>
-      </c>
-      <c r="G6" t="s">
-        <v>573</v>
-      </c>
-      <c r="H6" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -2818,54 +2818,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2885,13 +2885,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" t="s">
         <v>666</v>
       </c>
-      <c r="C6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E6" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" t="s">
-        <v>663</v>
-      </c>
-      <c r="G6" t="s">
-        <v>670</v>
-      </c>
       <c r="H6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -2998,63 +2998,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,14 +3083,14 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E6" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" t="s">
-        <v>663</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="J6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,135 +3232,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="AD1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="AD2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,26 +3437,26 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="X3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="AD3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F6" t="s">
+        <v>659</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E6" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" t="s">
-        <v>663</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="U6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="X6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AA6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3767,69 +3767,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3864,14 +3864,14 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J6" t="s">
         <v>695</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>584</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E6" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" t="s">
-        <v>663</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="J6" t="s">
-        <v>699</v>
-      </c>
-      <c r="K6" t="s">
-        <v>588</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>701</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
         <v>575</v>
       </c>
-      <c r="B6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" t="s">
         <v>579</v>
       </c>
-      <c r="D6" t="s">
-        <v>582</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G6" t="s">
         <v>583</v>
       </c>
-      <c r="F6" t="s">
-        <v>585</v>
-      </c>
-      <c r="G6" t="s">
-        <v>587</v>
-      </c>
       <c r="H6" t="s">
+        <v>584</v>
+      </c>
+      <c r="I6" t="s">
+        <v>586</v>
+      </c>
+      <c r="J6" t="s">
         <v>588</v>
-      </c>
-      <c r="I6" t="s">
-        <v>590</v>
-      </c>
-      <c r="J6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" t="s">
         <v>580</v>
       </c>
-      <c r="D7" t="s">
-        <v>581</v>
-      </c>
-      <c r="E7" t="s">
-        <v>584</v>
-      </c>
       <c r="F7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H7" t="s">
+        <v>585</v>
+      </c>
+      <c r="I7" t="s">
         <v>587</v>
       </c>
-      <c r="H7" t="s">
-        <v>589</v>
-      </c>
-      <c r="I7" t="s">
-        <v>591</v>
-      </c>
       <c r="J7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="P6" t="s">
         <v>608</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>608</v>
+      </c>
+      <c r="R6" t="s">
         <v>609</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="P6" t="s">
+      <c r="V6" t="s">
         <v>612</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
+        <v>613</v>
+      </c>
+      <c r="X6" t="s">
         <v>612</v>
       </c>
-      <c r="R6" t="s">
-        <v>613</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="V6" t="s">
-        <v>616</v>
-      </c>
-      <c r="W6" t="s">
-        <v>617</v>
-      </c>
-      <c r="X6" t="s">
-        <v>616</v>
-      </c>
       <c r="Y6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="Z6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="AA6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AE6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AH6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AI6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AM6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H6" t="s">
+        <v>601</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="G6" t="s">
-        <v>604</v>
-      </c>
-      <c r="H6" t="s">
-        <v>605</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L6" t="s">
+        <v>624</v>
+      </c>
+      <c r="M6" t="s">
+        <v>625</v>
+      </c>
+      <c r="N6" t="s">
+        <v>624</v>
+      </c>
+      <c r="O6" t="s">
+        <v>700</v>
+      </c>
+      <c r="P6" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>700</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="U6" t="s">
+        <v>626</v>
+      </c>
+      <c r="V6" t="s">
+        <v>627</v>
+      </c>
+      <c r="W6" t="s">
         <v>628</v>
       </c>
-      <c r="M6" t="s">
+      <c r="X6" t="s">
         <v>629</v>
-      </c>
-      <c r="N6" t="s">
-        <v>628</v>
-      </c>
-      <c r="O6" t="s">
-        <v>704</v>
-      </c>
-      <c r="P6" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>704</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="U6" t="s">
-        <v>630</v>
-      </c>
-      <c r="V6" t="s">
-        <v>631</v>
-      </c>
-      <c r="W6" t="s">
-        <v>632</v>
-      </c>
-      <c r="X6" t="s">
-        <v>633</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AA6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AH6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AI6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5817,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5913,13 +5913,13 @@
         <v>366</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>369</v>
+        <v>727</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5996,13 +5996,13 @@
         <v>367</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6079,13 +6079,13 @@
         <v>368</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -6159,25 +6159,25 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>372</v>
+        <v>725</v>
       </c>
       <c r="Z4" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="K6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="M6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="P6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="U6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="V6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="W6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AA6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -6327,54 +6327,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6382,63 +6382,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,54 +6557,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6624,13 +6624,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6644,31 +6644,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" t="s">
         <v>658</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>659</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>660</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>661</v>
       </c>
-      <c r="E6" t="s">
-        <v>662</v>
-      </c>
-      <c r="F6" t="s">
-        <v>663</v>
-      </c>
-      <c r="G6" t="s">
-        <v>664</v>
-      </c>
-      <c r="H6" t="s">
-        <v>665</v>
-      </c>
       <c r="I6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25936172-C896-D144-81F8-13A8C0B44BD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF59B7-32AF-2949-A851-91C78942BE9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="Publications" sheetId="3" r:id="rId3"/>
-    <sheet name="Funder" sheetId="4" r:id="rId4"/>
+    <sheet name="Project - Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Project - Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Project - Funder" sheetId="4" r:id="rId4"/>
     <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
     <sheet name="Specimen from organism" sheetId="6" r:id="rId6"/>
     <sheet name="Cell suspension" sheetId="7" r:id="rId7"/>
@@ -2645,7 +2645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
@@ -5817,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF59B7-32AF-2949-A851-91C78942BE9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6741126A-E399-6240-959F-A52D8A0DF03F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Project - Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="Project - Publications" sheetId="3" r:id="rId3"/>
-    <sheet name="Project - Funder" sheetId="4" r:id="rId4"/>
+    <sheet name="Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Funder" sheetId="4" r:id="rId4"/>
     <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
     <sheet name="Specimen from organism" sheetId="6" r:id="rId6"/>
     <sheet name="Cell suspension" sheetId="7" r:id="rId7"/>
@@ -2645,7 +2645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
@@ -4356,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA390A4-A9EE-F04F-918C-9A5631828550}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA16004-8CEE-2B44-87A2-D55DC417A59F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="7900" windowWidth="28800" windowHeight="16580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="Publications" sheetId="3" r:id="rId3"/>
-    <sheet name="Funder" sheetId="4" r:id="rId4"/>
+    <sheet name="Project - Contributors" sheetId="2" r:id="rId2"/>
+    <sheet name="Project - Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Project - Funders" sheetId="4" r:id="rId4"/>
     <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
     <sheet name="Specimen from organism" sheetId="6" r:id="rId6"/>
     <sheet name="Cell suspension" sheetId="7" r:id="rId7"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="715">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -676,48 +676,6 @@
     <t>donor_organism.weight_unit.ontology_label</t>
   </si>
   <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.TIMECOURSE_VALUE (Required)</t>
-  </si>
-  <si>
-    <t>The numerical value in Timecourse unit associated with a time interval used in the experiment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: 2</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.timecourse_value</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.TIMECOURSE_UNIT.TEXT (Required)</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.timecourse_unit.text</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.TIMECOURSE_UNIT.ONTOLOGY</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.timecourse_unit.ontology</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.TIMECOURSE_UNIT.ONTOLOGY_LABEL</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.timecourse_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>DONOR_ORGANISM.TIMECOURSE.TIMECOURSE_RELEVANCE</t>
-  </si>
-  <si>
-    <t>Relevance of the Timecourse value/unit to the experiment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For example: Collection after tumor cells injected into the mammary gland.</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.timecourse_relevance</t>
-  </si>
-  <si>
     <t>specimen_from_organism.biomaterial_core.biomaterial_id</t>
   </si>
   <si>
@@ -850,9 +808,6 @@
     <t xml:space="preserve"> For example: my_gross_image_file.jpg</t>
   </si>
   <si>
-    <t>specimen_from_organism.state_of_specimen.gross_image</t>
-  </si>
-  <si>
     <t>ISCHEMIC TEMPERATURE</t>
   </si>
   <si>
@@ -898,9 +853,6 @@
     <t xml:space="preserve"> For example: my_microscopic_image_file.jpg</t>
   </si>
   <si>
-    <t>specimen_from_organism.state_of_specimen.microscopic_image</t>
-  </si>
-  <si>
     <t>POST-MORTEM INTERVAL</t>
   </si>
   <si>
@@ -2219,6 +2171,12 @@
   </si>
   <si>
     <t>sequencing_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.gross_images</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.microscopic_images</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2706,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2732,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D6" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="F6" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G6" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="H6" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -2818,54 +2776,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2885,13 +2843,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2905,31 +2863,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2905,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G6" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="H6" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="I6" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -2998,63 +2956,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3063,13 +3021,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,13 +3041,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3101,51 +3059,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3124,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="C6" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F6" t="s">
-        <v>663</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="J6" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,135 +3190,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3327,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3339,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="AD2" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,25 +3395,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,159 +3425,159 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="X3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="AD3" s="2" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3618,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B6" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C6" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="U6" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="X6" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="AA6" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3767,69 +3725,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3796,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3864,13 +3822,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3882,10 +3840,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3857,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3919,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C6" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="J6" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="K6" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4125,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="F6" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="G6" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="H6" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="I6" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="J6" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" t="s">
+        <v>573</v>
+      </c>
+      <c r="I7" t="s">
+        <v>575</v>
+      </c>
+      <c r="J7" t="s">
         <v>576</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" t="s">
-        <v>580</v>
-      </c>
-      <c r="D7" t="s">
-        <v>581</v>
-      </c>
-      <c r="E7" t="s">
-        <v>584</v>
-      </c>
-      <c r="F7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G7" t="s">
-        <v>587</v>
-      </c>
-      <c r="H7" t="s">
-        <v>589</v>
-      </c>
-      <c r="I7" t="s">
-        <v>591</v>
-      </c>
-      <c r="J7" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4287,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4364,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4376,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4436,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AA6"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4473,11 +4431,11 @@
     <col min="37" max="37" width="42.6640625" customWidth="1"/>
     <col min="38" max="38" width="35.6640625" customWidth="1"/>
     <col min="39" max="39" width="41.6640625" customWidth="1"/>
-    <col min="40" max="40" width="53.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="57.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="50.6640625" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="56.6640625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="46.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="57.6640625" customWidth="1"/>
+    <col min="42" max="42" width="50.6640625" customWidth="1"/>
+    <col min="43" max="43" width="56.6640625" customWidth="1"/>
+    <col min="44" max="44" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4598,21 +4556,11 @@
       <c r="AM1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4732,21 +4680,11 @@
       <c r="AM2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -4866,21 +4804,11 @@
       <c r="AM3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -5000,21 +4928,11 @@
       <c r="AM4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AN4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
     </row>
     <row r="5" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -5066,121 +4984,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F6" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="P6" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="Q6" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="R6" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="V6" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="W6" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="X6" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="Z6" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="AA6" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AE6" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AH6" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AI6" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AM6" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -5192,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5245,85 +5163,85 @@
         <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
@@ -5364,7 +5282,7 @@
         <v>175</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>139</v>
@@ -5373,7 +5291,7 @@
         <v>175</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>139</v>
@@ -5388,34 +5306,34 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>161</v>
@@ -5427,10 +5345,10 @@
         <v>139</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
@@ -5495,35 +5413,35 @@
         <v>87</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="AE3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5534,124 +5452,124 @@
         <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="S4" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="AG4" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5615,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="L6" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="M6" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="N6" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="O6" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="P6" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="Q6" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="U6" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="V6" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="W6" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="X6" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="AA6" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AG6" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AH6" t="s">
         <v>620</v>
       </c>
-      <c r="AH6" t="s">
-        <v>636</v>
-      </c>
       <c r="AI6" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5865,61 +5783,61 @@
         <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5948,10 +5866,10 @@
         <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>197</v>
@@ -5963,16 +5881,16 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>142</v>
@@ -5984,7 +5902,7 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>136</v>
@@ -5993,16 +5911,16 @@
         <v>139</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6031,10 +5949,10 @@
         <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -6046,16 +5964,16 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>87</v>
@@ -6076,108 +5994,108 @@
         <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="Z4" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6134,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="J6" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="K6" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="L6" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="M6" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="P6" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="U6" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="V6" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="W6" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6209,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="AA6" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6327,54 +6245,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6382,63 +6300,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6376,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="D6" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6391,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6408,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6423,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,54 +6475,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6624,13 +6542,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6644,31 +6562,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6604,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C6" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G6" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="H6" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="I6" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F88FA-6A50-3E41-8660-F9D63096468F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11579405-43F3-3345-8164-DA04F64B6F3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -784,24 +784,15 @@
     <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.TEXT (Required)</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_part.text</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY</t>
   </si>
   <si>
     <t>A term for a specific part of an organ from the ontology [UBERON](https://www.ebi.ac.uk/ols/ontologies/uberon).</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_part.ontology</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_part.ontology_label</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.DISEASES.TEXT (Required)</t>
   </si>
   <si>
@@ -2219,6 +2210,15 @@
   </si>
   <si>
     <t>WELL QUALITY</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.text</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.ontology</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -2748,16 +2748,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2774,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G6" t="s">
         <v>581</v>
       </c>
-      <c r="B6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" t="s">
-        <v>583</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>582</v>
-      </c>
-      <c r="F6" t="s">
-        <v>719</v>
-      </c>
-      <c r="G6" t="s">
-        <v>584</v>
-      </c>
-      <c r="H6" t="s">
-        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -2818,54 +2818,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2885,13 +2885,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,31 +2947,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" t="s">
+        <v>678</v>
+      </c>
+      <c r="H6" t="s">
+        <v>676</v>
+      </c>
+      <c r="I6" t="s">
         <v>677</v>
-      </c>
-      <c r="C6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" t="s">
-        <v>681</v>
-      </c>
-      <c r="H6" t="s">
-        <v>679</v>
-      </c>
-      <c r="I6" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -2998,63 +2998,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3063,13 +3063,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3083,13 +3083,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3101,51 +3101,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,34 +3166,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="J6" t="s">
         <v>683</v>
-      </c>
-      <c r="B6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="J6" t="s">
-        <v>686</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3232,135 +3232,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3369,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,49 +3381,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3437,25 +3437,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3479,147 +3479,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>540</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3660,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" t="s">
+        <v>671</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B6" t="s">
+      <c r="L6" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C6" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>698</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="U6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="X6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AA6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>698</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="AD6" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="AF6" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -3767,69 +3767,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3864,13 +3864,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3882,10 +3882,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3899,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>576</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3961,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J6" t="s">
         <v>707</v>
       </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="K6" t="s">
+        <v>596</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="J6" t="s">
-        <v>710</v>
-      </c>
-      <c r="K6" t="s">
-        <v>599</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -4167,66 +4167,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" t="s">
         <v>590</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F6" t="s">
         <v>593</v>
       </c>
-      <c r="E6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>595</v>
+      </c>
+      <c r="H6" t="s">
         <v>596</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>598</v>
       </c>
-      <c r="H6" t="s">
-        <v>599</v>
-      </c>
-      <c r="I6" t="s">
-        <v>601</v>
-      </c>
       <c r="J6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" t="s">
         <v>589</v>
       </c>
-      <c r="C7" t="s">
-        <v>591</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>592</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G7" t="s">
         <v>595</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>597</v>
       </c>
-      <c r="G7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>599</v>
+      </c>
+      <c r="J7" t="s">
         <v>600</v>
-      </c>
-      <c r="I7" t="s">
-        <v>602</v>
-      </c>
-      <c r="J7" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -5066,121 +5066,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F6" t="s">
         <v>614</v>
       </c>
-      <c r="F6" t="s">
-        <v>617</v>
-      </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="P6" t="s">
         <v>620</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>620</v>
+      </c>
+      <c r="R6" t="s">
         <v>621</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="T6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="Q6" t="s">
-        <v>623</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="U6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="V6" t="s">
         <v>624</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="W6" t="s">
         <v>625</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="V6" t="s">
-        <v>627</v>
-      </c>
-      <c r="W6" t="s">
-        <v>628</v>
-      </c>
       <c r="X6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Y6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Z6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AA6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AE6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AH6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AI6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AM6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -5192,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5266,64 +5266,64 @@
         <v>249</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
@@ -5373,7 +5373,7 @@
         <v>175</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>139</v>
@@ -5388,34 +5388,34 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>161</v>
@@ -5427,10 +5427,10 @@
         <v>139</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
@@ -5495,34 +5495,34 @@
         <v>87</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>87</v>
@@ -5534,10 +5534,10 @@
         <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
@@ -5585,73 +5585,73 @@
         <v>248</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>250</v>
+        <v>726</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>253</v>
+        <v>727</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>255</v>
+        <v>728</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,115 +5697,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L6" t="s">
+        <v>636</v>
+      </c>
+      <c r="M6" t="s">
+        <v>637</v>
+      </c>
+      <c r="N6" t="s">
+        <v>636</v>
+      </c>
+      <c r="O6" t="s">
+        <v>712</v>
+      </c>
+      <c r="P6" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>712</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="U6" t="s">
+        <v>638</v>
+      </c>
+      <c r="V6" t="s">
         <v>639</v>
       </c>
-      <c r="M6" t="s">
+      <c r="W6" t="s">
         <v>640</v>
       </c>
-      <c r="N6" t="s">
-        <v>639</v>
-      </c>
-      <c r="O6" t="s">
-        <v>715</v>
-      </c>
-      <c r="P6" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>715</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>641</v>
-      </c>
-      <c r="V6" t="s">
-        <v>642</v>
-      </c>
-      <c r="W6" t="s">
-        <v>643</v>
-      </c>
-      <c r="X6" t="s">
-        <v>644</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AH6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AI6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -5865,61 +5865,61 @@
         <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5948,10 +5948,10 @@
         <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>197</v>
@@ -5963,16 +5963,16 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>142</v>
@@ -5984,7 +5984,7 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>136</v>
@@ -5993,16 +5993,16 @@
         <v>139</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="Z2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6031,10 +6031,10 @@
         <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -6046,16 +6046,16 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>87</v>
@@ -6076,108 +6076,108 @@
         <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="Z3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6216,73 +6216,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I6" t="s">
+        <v>650</v>
+      </c>
+      <c r="J6" t="s">
+        <v>651</v>
+      </c>
+      <c r="K6" t="s">
+        <v>652</v>
+      </c>
+      <c r="L6" t="s">
         <v>653</v>
       </c>
-      <c r="J6" t="s">
-        <v>654</v>
-      </c>
-      <c r="K6" t="s">
-        <v>655</v>
-      </c>
-      <c r="L6" t="s">
-        <v>656</v>
-      </c>
       <c r="M6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="P6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="U6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="W6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6291,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AA6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -6327,54 +6327,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6382,63 +6382,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D6" t="s">
         <v>664</v>
-      </c>
-      <c r="D6" t="s">
-        <v>667</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6473,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6490,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6505,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6557,54 +6557,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6624,13 +6624,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6644,31 +6644,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6686,31 +6686,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" t="s">
         <v>669</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>670</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>671</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>672</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>673</v>
       </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" t="s">
-        <v>676</v>
-      </c>
       <c r="I6" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sehsan/Devel/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F88FA-6A50-3E41-8660-F9D63096468F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34640" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,15 @@
     <sheet name="Library preparation protocol" sheetId="13" r:id="rId12"/>
     <sheet name="Sequencing protocol" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1546,27 +1553,9 @@
     <t>library_preparation_protocol.nucleic_acid_source</t>
   </si>
   <si>
-    <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.TEXT (Required)</t>
-  </si>
-  <si>
     <t>The name of a library construction approach being used.</t>
   </si>
   <si>
-    <t>library_preparation_protocol.library_construction_approach.text</t>
-  </si>
-  <si>
-    <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.ONTOLOGY</t>
-  </si>
-  <si>
-    <t>library_preparation_protocol.library_construction_approach.ontology</t>
-  </si>
-  <si>
-    <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_APPROACH.ONTOLOGY_LABEL</t>
-  </si>
-  <si>
-    <t>library_preparation_protocol.library_construction_approach.ontology_label</t>
-  </si>
-  <si>
     <t>RETAIL NAME</t>
   </si>
   <si>
@@ -2219,12 +2208,30 @@
   </si>
   <si>
     <t>WELL QUALITY</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.ontology_label</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.ontology</t>
+  </si>
+  <si>
+    <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_METHOD.ONTOLOGY</t>
+  </si>
+  <si>
+    <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_METHOD.ONTOLOGY_LABEL</t>
+  </si>
+  <si>
+    <t>library_preparation_protocol.library_construction_method.text</t>
+  </si>
+  <si>
+    <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_METHOD.TEXT (Required)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2368,9 +2375,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2398,31 +2405,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2450,23 +2440,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2642,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,7 +2655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2748,16 +2721,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,25 +2747,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F6" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2845,7 +2818,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>410</v>
       </c>
@@ -2874,7 +2847,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2947,31 +2920,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B6" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H6" t="s">
         <v>673</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>674</v>
-      </c>
-      <c r="G6" t="s">
-        <v>681</v>
-      </c>
-      <c r="H6" t="s">
-        <v>679</v>
-      </c>
-      <c r="I6" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3034,7 +3007,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>410</v>
       </c>
@@ -3072,7 +3045,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3166,34 +3139,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>689</v>
-      </c>
       <c r="J6" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3208,11 +3181,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3220,7 +3193,7 @@
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
     <col min="8" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="72.6640625" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" customWidth="1"/>
     <col min="12" max="12" width="65.6640625" customWidth="1"/>
     <col min="13" max="13" width="71.6640625" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" customWidth="1"/>
@@ -3274,61 +3247,61 @@
         <v>500</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>504</v>
+        <v>728</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>507</v>
+        <v>725</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>410</v>
       </c>
@@ -3372,7 +3345,7 @@
         <v>501</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3381,52 +3354,52 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3479,49 +3452,49 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -3568,58 +3541,58 @@
         <v>503</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>506</v>
+        <v>727</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="S4" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="AE4" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3660,84 +3633,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>668</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B6" t="s">
+      <c r="P6" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="C6" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>698</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="U6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="X6" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AA6" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3785,31 +3758,31 @@
         <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>410</v>
       </c>
@@ -3829,7 +3802,7 @@
         <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3811,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3853,7 +3826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3882,10 +3855,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3899,46 +3872,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,46 +3934,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" t="s">
         <v>666</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="J6" t="s">
+        <v>704</v>
+      </c>
+      <c r="K6" t="s">
+        <v>593</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C6" t="s">
-        <v>707</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="J6" t="s">
-        <v>710</v>
-      </c>
-      <c r="K6" t="s">
-        <v>599</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>712</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +3982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4055,7 +4028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -4087,7 +4060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -4167,78 +4140,78 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" t="s">
         <v>588</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>590</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H6" t="s">
         <v>593</v>
       </c>
-      <c r="E6" t="s">
-        <v>594</v>
-      </c>
-      <c r="F6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G6" t="s">
-        <v>598</v>
-      </c>
-      <c r="H6" t="s">
-        <v>599</v>
-      </c>
       <c r="I6" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="J6" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" t="s">
         <v>589</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>591</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>592</v>
       </c>
-      <c r="E7" t="s">
-        <v>595</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>594</v>
+      </c>
+      <c r="I7" t="s">
+        <v>596</v>
+      </c>
+      <c r="J7" t="s">
         <v>597</v>
-      </c>
-      <c r="G7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H7" t="s">
-        <v>600</v>
-      </c>
-      <c r="I7" t="s">
-        <v>602</v>
-      </c>
-      <c r="J7" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{03ABD64D-58D5-284D-ADA4-2E56DABE6455}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4267,7 +4240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4284,7 +4257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -4329,31 +4302,31 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{36C8010D-CC82-8C40-9313-DCA3D76D1E83}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,7 +4349,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -4387,7 +4360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +4379,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4418,13 +4391,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4433,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -4614,7 +4587,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -4748,7 +4721,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5066,121 +5039,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="P6" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>617</v>
+      </c>
+      <c r="R6" t="s">
         <v>618</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="V6" t="s">
         <v>621</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="W6" t="s">
         <v>622</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="X6" t="s">
         <v>621</v>
       </c>
-      <c r="P6" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>623</v>
-      </c>
-      <c r="R6" t="s">
-        <v>624</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="V6" t="s">
-        <v>627</v>
-      </c>
-      <c r="W6" t="s">
-        <v>628</v>
-      </c>
-      <c r="X6" t="s">
-        <v>627</v>
-      </c>
       <c r="Y6" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="Z6" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="AA6" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AE6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AH6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AI6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AM6" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
@@ -5326,7 +5299,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -5433,7 +5406,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5697,115 +5670,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G6" t="s">
+        <v>609</v>
+      </c>
+      <c r="H6" t="s">
+        <v>610</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>622</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="N6" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="O6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="P6" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="Q6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="U6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="V6" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="W6" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="X6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AA6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AH6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AI6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -5814,10 +5787,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -5919,10 +5892,10 @@
         <v>373</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -6005,7 +5978,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6159,7 +6132,7 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>372</v>
@@ -6168,7 +6141,7 @@
         <v>376</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
@@ -6216,73 +6189,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="I6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="J6" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="L6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="M6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="P6" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="U6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="V6" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="W6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6291,19 +6264,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AA6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6351,7 +6324,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>380</v>
       </c>
@@ -6377,7 +6350,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6435,10 +6408,10 @@
         <v>472</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,13 +6431,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6473,16 +6446,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6490,13 +6463,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6505,16 +6478,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6540,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6584,7 +6557,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>410</v>
       </c>
@@ -6613,7 +6586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6686,31 +6659,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G6" t="s">
         <v>669</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>670</v>
       </c>
-      <c r="C6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" t="s">
-        <v>674</v>
-      </c>
-      <c r="G6" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" t="s">
-        <v>676</v>
-      </c>
       <c r="I6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sehsan/Devel/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52177C8-5714-6743-95B3-45E2E14DF66B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34640" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="20080" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="Library preparation protocol" sheetId="13" r:id="rId12"/>
     <sheet name="Sequencing protocol" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -791,24 +792,15 @@
     <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.TEXT (Required)</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_part.text</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY</t>
   </si>
   <si>
     <t>A term for a specific part of an organ from the ontology [UBERON](https://www.ebi.ac.uk/ols/ontologies/uberon).</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_part.ontology</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.ORGAN_PART.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_part.ontology_label</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.DISEASES.TEXT (Required)</t>
   </si>
   <si>
@@ -2226,12 +2218,21 @@
   </si>
   <si>
     <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_METHOD.TEXT (Required)</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.text</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.ontology</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.ontology_label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2615,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,7 +2656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2721,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G6" t="s">
         <v>575</v>
       </c>
-      <c r="B6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>576</v>
-      </c>
-      <c r="F6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G6" t="s">
-        <v>578</v>
-      </c>
-      <c r="H6" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +2775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,54 +2792,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2847,7 +2848,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2858,13 +2859,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2878,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G6" t="s">
+        <v>672</v>
+      </c>
+      <c r="H6" t="s">
+        <v>670</v>
+      </c>
+      <c r="I6" t="s">
         <v>671</v>
-      </c>
-      <c r="C6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" t="s">
-        <v>673</v>
-      </c>
-      <c r="I6" t="s">
-        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,63 +2972,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3036,16 +3037,16 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3056,13 +3057,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3074,51 +3075,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3139,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="J6" t="s">
         <v>677</v>
-      </c>
-      <c r="B6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="J6" t="s">
-        <v>680</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3181,10 +3182,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -3205,135 +3206,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3342,10 +3343,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3354,52 +3355,52 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3410,25 +3411,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3440,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3452,147 +3453,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3633,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F6" t="s">
+        <v>665</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B6" t="s">
+      <c r="L6" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="U6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="X6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AA6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="AD6" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="AF6" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3740,69 +3741,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3811,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3826,7 +3827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3837,13 +3838,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3855,10 +3856,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3872,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>555</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3934,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F6" t="s">
+        <v>665</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="J6" t="s">
         <v>701</v>
       </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="K6" t="s">
+        <v>590</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="J6" t="s">
-        <v>704</v>
-      </c>
-      <c r="K6" t="s">
-        <v>593</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4028,7 +4029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -4140,78 +4141,78 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D6" t="s">
         <v>584</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" t="s">
         <v>587</v>
       </c>
-      <c r="E6" t="s">
-        <v>588</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H6" t="s">
         <v>590</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>592</v>
       </c>
-      <c r="H6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I6" t="s">
-        <v>595</v>
-      </c>
       <c r="J6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" t="s">
         <v>583</v>
       </c>
-      <c r="C7" t="s">
-        <v>585</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>586</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" t="s">
         <v>589</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>591</v>
       </c>
-      <c r="G7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>593</v>
+      </c>
+      <c r="J7" t="s">
         <v>594</v>
-      </c>
-      <c r="I7" t="s">
-        <v>596</v>
-      </c>
-      <c r="J7" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4240,7 +4241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -4302,31 +4303,31 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4349,7 +4350,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4391,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -4587,7 +4588,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5039,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" t="s">
         <v>608</v>
       </c>
-      <c r="F6" t="s">
-        <v>611</v>
-      </c>
       <c r="G6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="P6" t="s">
         <v>614</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>614</v>
+      </c>
+      <c r="R6" t="s">
         <v>615</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="T6" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="Q6" t="s">
-        <v>617</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="U6" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="V6" t="s">
         <v>618</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="W6" t="s">
         <v>619</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="V6" t="s">
-        <v>621</v>
-      </c>
-      <c r="W6" t="s">
-        <v>622</v>
-      </c>
       <c r="X6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Y6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Z6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AA6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AE6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AH6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AI6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AM6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -5162,11 +5163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5239,67 +5240,67 @@
         <v>249</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="112" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>175</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>139</v>
@@ -5361,34 +5362,34 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>161</v>
@@ -5400,13 +5401,13 @@
         <v>139</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="64" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5468,34 +5469,34 @@
         <v>87</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>87</v>
@@ -5507,10 +5508,10 @@
         <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
@@ -5558,73 +5559,73 @@
         <v>248</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>250</v>
+        <v>726</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>253</v>
+        <v>727</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>255</v>
+        <v>728</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5670,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="G6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L6" t="s">
+        <v>630</v>
+      </c>
+      <c r="M6" t="s">
+        <v>631</v>
+      </c>
+      <c r="N6" t="s">
+        <v>630</v>
+      </c>
+      <c r="O6" t="s">
+        <v>706</v>
+      </c>
+      <c r="P6" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>706</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="U6" t="s">
+        <v>632</v>
+      </c>
+      <c r="V6" t="s">
         <v>633</v>
       </c>
-      <c r="M6" t="s">
+      <c r="W6" t="s">
         <v>634</v>
       </c>
-      <c r="N6" t="s">
-        <v>633</v>
-      </c>
-      <c r="O6" t="s">
-        <v>709</v>
-      </c>
-      <c r="P6" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>709</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>635</v>
-      </c>
-      <c r="V6" t="s">
-        <v>636</v>
-      </c>
-      <c r="W6" t="s">
-        <v>637</v>
-      </c>
-      <c r="X6" t="s">
-        <v>638</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AA6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AH6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AI6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -5838,64 +5839,64 @@
         <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="112" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -5921,10 +5922,10 @@
         <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>197</v>
@@ -5936,16 +5937,16 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>142</v>
@@ -5957,7 +5958,7 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>136</v>
@@ -5966,19 +5967,19 @@
         <v>139</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="Z2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6004,10 +6005,10 @@
         <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -6019,16 +6020,16 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>87</v>
@@ -6049,108 +6050,108 @@
         <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="Z3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6189,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="G6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I6" t="s">
+        <v>644</v>
+      </c>
+      <c r="J6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K6" t="s">
+        <v>646</v>
+      </c>
+      <c r="L6" t="s">
         <v>647</v>
       </c>
-      <c r="J6" t="s">
-        <v>648</v>
-      </c>
-      <c r="K6" t="s">
-        <v>649</v>
-      </c>
-      <c r="L6" t="s">
-        <v>650</v>
-      </c>
       <c r="M6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="P6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="U6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="V6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="W6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6264,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AA6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6300,118 +6301,118 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6431,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" t="s">
         <v>658</v>
-      </c>
-      <c r="D6" t="s">
-        <v>661</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6446,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6463,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6478,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6513,7 +6514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6530,54 +6531,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6586,7 +6587,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6597,13 +6598,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6617,31 +6618,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6659,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" t="s">
         <v>663</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>664</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>665</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>666</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>667</v>
       </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" t="s">
-        <v>669</v>
-      </c>
-      <c r="H6" t="s">
-        <v>670</v>
-      </c>
       <c r="I6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sehsan/Devel/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8229A-FB38-AC46-93B6-11FB5541D581}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34640" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="10900" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="Library preparation protocol" sheetId="13" r:id="rId12"/>
     <sheet name="Sequencing protocol" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1157,9 +1158,6 @@
     <t xml:space="preserve"> For example: 2217</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.plate_id</t>
-  </si>
-  <si>
     <t>WELL ID</t>
   </si>
   <si>
@@ -1169,9 +1167,6 @@
     <t xml:space="preserve"> For example: A1</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.well_id</t>
-  </si>
-  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
@@ -2226,12 +2221,18 @@
   </si>
   <si>
     <t>LIBRARY_PREPARATION_PROTOCOL.LIBRARY_CONSTRUCTION_METHOD.TEXT (Required)</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.well_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.plate_label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2615,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,7 +2656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2721,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" t="s">
         <v>575</v>
       </c>
-      <c r="B6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G6" t="s">
+        <v>576</v>
+      </c>
+      <c r="H6" t="s">
         <v>577</v>
-      </c>
-      <c r="D6" t="s">
-        <v>576</v>
-      </c>
-      <c r="F6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G6" t="s">
-        <v>578</v>
-      </c>
-      <c r="H6" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +2775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,54 +2792,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2847,7 +2848,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2858,13 +2859,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2878,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G6" t="s">
+        <v>673</v>
+      </c>
+      <c r="H6" t="s">
         <v>671</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>672</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" t="s">
-        <v>673</v>
-      </c>
-      <c r="I6" t="s">
-        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,63 +2972,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3036,16 +3037,16 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3056,13 +3057,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3074,51 +3075,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3139,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" t="s">
         <v>677</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J6" t="s">
         <v>678</v>
-      </c>
-      <c r="C6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="J6" t="s">
-        <v>680</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3181,10 +3182,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -3205,135 +3206,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3342,10 +3343,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3354,52 +3355,52 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3410,25 +3411,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3440,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3452,147 +3453,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3633,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B6" t="s">
         <v>684</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" t="s">
+        <v>666</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="U6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="X6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AA6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3740,69 +3741,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3811,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3826,7 +3827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3837,13 +3838,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3855,10 +3856,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3872,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3934,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="J6" t="s">
         <v>702</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" t="s">
+        <v>591</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="K6" t="s">
-        <v>593</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>706</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4028,7 +4029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -4140,78 +4141,78 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" t="s">
         <v>580</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>582</v>
       </c>
-      <c r="C6" t="s">
-        <v>584</v>
-      </c>
       <c r="D6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F6" t="s">
         <v>588</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>590</v>
       </c>
-      <c r="G6" t="s">
-        <v>592</v>
-      </c>
       <c r="H6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I6" t="s">
         <v>593</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>595</v>
-      </c>
-      <c r="J6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" t="s">
         <v>583</v>
       </c>
-      <c r="C7" t="s">
-        <v>585</v>
-      </c>
       <c r="D7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F7" t="s">
         <v>589</v>
       </c>
-      <c r="F7" t="s">
-        <v>591</v>
-      </c>
       <c r="G7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H7" t="s">
         <v>592</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>594</v>
       </c>
-      <c r="I7" t="s">
-        <v>596</v>
-      </c>
       <c r="J7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4240,7 +4241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -4302,31 +4303,31 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C6" t="s">
         <v>598</v>
-      </c>
-      <c r="B6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C6" t="s">
-        <v>600</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4349,7 +4350,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4391,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" t="s">
         <v>602</v>
-      </c>
-      <c r="B6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C6" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -4587,7 +4588,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5039,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" t="s">
         <v>605</v>
-      </c>
-      <c r="B6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C6" t="s">
-        <v>607</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G6" t="s">
+        <v>607</v>
+      </c>
+      <c r="H6" t="s">
         <v>608</v>
-      </c>
-      <c r="F6" t="s">
-        <v>611</v>
-      </c>
-      <c r="G6" t="s">
-        <v>609</v>
-      </c>
-      <c r="H6" t="s">
-        <v>610</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P6" t="s">
         <v>615</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>615</v>
+      </c>
+      <c r="R6" t="s">
         <v>616</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="S6" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="R6" t="s">
-        <v>618</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="V6" t="s">
         <v>619</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="W6" t="s">
         <v>620</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="X6" t="s">
         <v>619</v>
       </c>
-      <c r="V6" t="s">
-        <v>621</v>
-      </c>
-      <c r="W6" t="s">
-        <v>622</v>
-      </c>
-      <c r="X6" t="s">
-        <v>621</v>
-      </c>
       <c r="Y6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="Z6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AA6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE6" t="s">
         <v>623</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>625</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AH6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AI6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AL6" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="AM6" t="s">
         <v>628</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
@@ -5299,7 +5300,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5670,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G6" t="s">
+        <v>607</v>
+      </c>
+      <c r="H6" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G6" t="s">
-        <v>609</v>
-      </c>
-      <c r="H6" t="s">
-        <v>610</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L6" t="s">
+        <v>631</v>
+      </c>
+      <c r="M6" t="s">
+        <v>632</v>
+      </c>
+      <c r="N6" t="s">
+        <v>631</v>
+      </c>
+      <c r="O6" t="s">
+        <v>707</v>
+      </c>
+      <c r="P6" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>707</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="U6" t="s">
         <v>633</v>
       </c>
-      <c r="M6" t="s">
+      <c r="V6" t="s">
         <v>634</v>
       </c>
-      <c r="N6" t="s">
-        <v>633</v>
-      </c>
-      <c r="O6" t="s">
-        <v>709</v>
-      </c>
-      <c r="P6" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>709</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>635</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>636</v>
-      </c>
-      <c r="W6" t="s">
-        <v>637</v>
-      </c>
-      <c r="X6" t="s">
-        <v>638</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AA6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="AF6" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>625</v>
-      </c>
       <c r="AH6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AI6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -5787,11 +5788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5889,13 +5890,13 @@
         <v>369</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="112" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -5972,13 +5973,13 @@
         <v>370</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6055,10 +6056,10 @@
         <v>371</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -6132,25 +6133,25 @@
         <v>365</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>372</v>
+        <v>728</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>376</v>
+        <v>727</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6189,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>645</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G6" t="s">
+        <v>607</v>
+      </c>
+      <c r="H6" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="G6" t="s">
-        <v>609</v>
-      </c>
-      <c r="H6" t="s">
-        <v>610</v>
-      </c>
       <c r="I6" t="s">
+        <v>645</v>
+      </c>
+      <c r="J6" t="s">
+        <v>646</v>
+      </c>
+      <c r="K6" t="s">
         <v>647</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>648</v>
       </c>
-      <c r="K6" t="s">
-        <v>649</v>
-      </c>
-      <c r="L6" t="s">
-        <v>650</v>
-      </c>
       <c r="M6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="U6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="V6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="W6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6264,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AA6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6300,118 +6301,118 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>315</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6431,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B6" t="s">
         <v>656</v>
       </c>
-      <c r="B6" t="s">
-        <v>658</v>
-      </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6446,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6463,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="B7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6478,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6513,7 +6514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6530,54 +6531,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6586,7 +6587,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -6597,13 +6598,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6617,31 +6618,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6659,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" t="s">
         <v>663</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>664</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>665</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>666</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>667</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>668</v>
       </c>
-      <c r="G6" t="s">
-        <v>669</v>
-      </c>
-      <c r="H6" t="s">
-        <v>670</v>
-      </c>
       <c r="I6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52177C8-5714-6743-95B3-45E2E14DF66B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAF920-5168-934D-935E-7B2B5589C27C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20080" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7420" yWindow="1760" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1140,30 +1140,18 @@
     <t>Enter 1 for well-based assays. For example: 2100</t>
   </si>
   <si>
-    <t>WELL PLATE ID (Required)</t>
-  </si>
-  <si>
     <t>An ID for the plate that the well is located on.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: 2217</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.plate_id</t>
-  </si>
-  <si>
-    <t>WELL ID</t>
-  </si>
-  <si>
     <t>An ID or name for the well. Should be unique for the plate.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: A1</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.well_id</t>
-  </si>
-  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
@@ -2227,6 +2215,18 @@
   </si>
   <si>
     <t>specimen_from_organism.organ_parts.ontology_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.plate_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.well_label</t>
+  </si>
+  <si>
+    <t>PLATE LABEL (Required)</t>
+  </si>
+  <si>
+    <t>WELL LABEL</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" t="s">
         <v>572</v>
-      </c>
-      <c r="B6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D6" t="s">
-        <v>573</v>
-      </c>
-      <c r="F6" t="s">
-        <v>710</v>
-      </c>
-      <c r="G6" t="s">
-        <v>575</v>
-      </c>
-      <c r="H6" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -2792,54 +2792,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2859,13 +2859,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2879,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" t="s">
         <v>668</v>
       </c>
-      <c r="C6" t="s">
-        <v>669</v>
-      </c>
-      <c r="D6" t="s">
-        <v>663</v>
-      </c>
-      <c r="E6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G6" t="s">
-        <v>672</v>
-      </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -2972,63 +2972,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3037,13 +3037,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3057,14 +3057,14 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3075,51 +3075,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D6" t="s">
-        <v>663</v>
-      </c>
-      <c r="E6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="J6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3206,135 +3206,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="AD1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3343,10 +3343,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3355,49 +3355,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="AD2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3411,26 +3411,26 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3453,147 +3453,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="X3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="AD3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F6" t="s">
+        <v>661</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="C6" t="s">
-        <v>682</v>
-      </c>
-      <c r="D6" t="s">
-        <v>663</v>
-      </c>
-      <c r="E6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" t="s">
-        <v>665</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="U6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="X6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AA6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3741,69 +3741,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3812,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3838,14 +3838,14 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3856,10 +3856,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3873,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="L4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="J6" t="s">
         <v>697</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>586</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D6" t="s">
-        <v>663</v>
-      </c>
-      <c r="E6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="J6" t="s">
-        <v>701</v>
-      </c>
-      <c r="K6" t="s">
-        <v>590</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -4141,66 +4141,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" t="s">
         <v>577</v>
       </c>
-      <c r="B6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" t="s">
         <v>581</v>
       </c>
-      <c r="D6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>583</v>
+      </c>
+      <c r="G6" t="s">
         <v>585</v>
       </c>
-      <c r="F6" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6" t="s">
-        <v>589</v>
-      </c>
       <c r="H6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" t="s">
+        <v>588</v>
+      </c>
+      <c r="J6" t="s">
         <v>590</v>
-      </c>
-      <c r="I6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J6" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E7" t="s">
         <v>582</v>
       </c>
-      <c r="D7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E7" t="s">
-        <v>586</v>
-      </c>
       <c r="F7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I7" t="s">
         <v>589</v>
       </c>
-      <c r="H7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I7" t="s">
-        <v>593</v>
-      </c>
       <c r="J7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -4303,19 +4303,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4380,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -5040,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="P6" t="s">
         <v>610</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>610</v>
+      </c>
+      <c r="R6" t="s">
         <v>611</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="P6" t="s">
+      <c r="V6" t="s">
         <v>614</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
+        <v>615</v>
+      </c>
+      <c r="X6" t="s">
         <v>614</v>
       </c>
-      <c r="R6" t="s">
-        <v>615</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="V6" t="s">
-        <v>618</v>
-      </c>
-      <c r="W6" t="s">
-        <v>619</v>
-      </c>
-      <c r="X6" t="s">
-        <v>618</v>
-      </c>
       <c r="Y6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Z6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AA6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AE6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AH6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AI6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AM6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5166,7 +5166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
@@ -5559,13 +5559,13 @@
         <v>248</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>254</v>
@@ -5625,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H6" t="s">
+        <v>603</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="G6" t="s">
-        <v>606</v>
-      </c>
-      <c r="H6" t="s">
-        <v>607</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>612</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L6" t="s">
+        <v>626</v>
+      </c>
+      <c r="M6" t="s">
+        <v>627</v>
+      </c>
+      <c r="N6" t="s">
+        <v>626</v>
+      </c>
+      <c r="O6" t="s">
+        <v>702</v>
+      </c>
+      <c r="P6" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>702</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="U6" t="s">
+        <v>628</v>
+      </c>
+      <c r="V6" t="s">
+        <v>629</v>
+      </c>
+      <c r="W6" t="s">
         <v>630</v>
       </c>
-      <c r="M6" t="s">
+      <c r="X6" t="s">
         <v>631</v>
-      </c>
-      <c r="N6" t="s">
-        <v>630</v>
-      </c>
-      <c r="O6" t="s">
-        <v>706</v>
-      </c>
-      <c r="P6" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>706</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="U6" t="s">
-        <v>632</v>
-      </c>
-      <c r="V6" t="s">
-        <v>633</v>
-      </c>
-      <c r="W6" t="s">
-        <v>634</v>
-      </c>
-      <c r="X6" t="s">
-        <v>635</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AA6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AH6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AI6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -5791,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5887,13 +5887,13 @@
         <v>363</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>366</v>
+        <v>727</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>370</v>
+        <v>728</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5970,13 +5970,13 @@
         <v>364</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6053,13 +6053,13 @@
         <v>365</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -6133,25 +6133,25 @@
         <v>362</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>369</v>
+        <v>725</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>373</v>
+        <v>726</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6190,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="P6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="U6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="V6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="W6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AA6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6301,54 +6301,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6356,63 +6356,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>312</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6447,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6479,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6531,54 +6531,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6598,13 +6598,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6618,31 +6618,31 @@
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E6" t="s">
         <v>660</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>661</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>662</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>663</v>
       </c>
-      <c r="E6" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G6" t="s">
-        <v>666</v>
-      </c>
-      <c r="H6" t="s">
-        <v>667</v>
-      </c>
       <c r="I6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52177C8-5714-6743-95B3-45E2E14DF66B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16989376-F293-AF45-843D-4993CB3FEFC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20080" yWindow="460" windowWidth="31120" windowHeight="19180" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -849,9 +849,6 @@
     <t xml:space="preserve"> For example: my_gross_image_file.jpg</t>
   </si>
   <si>
-    <t>specimen_from_organism.state_of_specimen.gross_image</t>
-  </si>
-  <si>
     <t>ISCHEMIC TEMPERATURE</t>
   </si>
   <si>
@@ -897,9 +894,6 @@
     <t xml:space="preserve"> For example: my_microscopic_image_file.jpg</t>
   </si>
   <si>
-    <t>specimen_from_organism.state_of_specimen.microscopic_image</t>
-  </si>
-  <si>
     <t>POST-MORTEM INTERVAL</t>
   </si>
   <si>
@@ -1326,21 +1320,12 @@
     <t>The name of a process type being used.</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.text</t>
-  </si>
-  <si>
     <t>COLLECTION_PROTOCOL.COLLECTION_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.ontology</t>
-  </si>
-  <si>
     <t>COLLECTION_PROTOCOL.COLLECTION_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>collection_protocol.collection_method.ontology_label</t>
-  </si>
-  <si>
     <t>dissociation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1362,21 +1347,12 @@
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.TEXT (Required)</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.text</t>
-  </si>
-  <si>
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.ontology</t>
-  </si>
-  <si>
     <t>DISSOCIATION_PROTOCOL.DISSOCIATION_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>dissociation_protocol.dissociation_method.ontology_label</t>
-  </si>
-  <si>
     <t>enrichment_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -1743,21 +1719,12 @@
     <t>The name of a sequencing approach being used.</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.text</t>
-  </si>
-  <si>
     <t>SEQUENCING_PROTOCOL.SEQUENCING_APPROACH.ONTOLOGY</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.ontology</t>
-  </si>
-  <si>
     <t>SEQUENCING_PROTOCOL.SEQUENCING_APPROACH.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>sequencing_protocol.sequencing_approach.ontology_label</t>
-  </si>
-  <si>
     <t>SS2 1 Cell Integration Test</t>
   </si>
   <si>
@@ -2227,6 +2194,39 @@
   </si>
   <si>
     <t>specimen_from_organism.organ_parts.ontology_label</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.gross_images</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.state_of_specimen.microscopic_images</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.text</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>collection_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.text</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.text</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>sequencing_protocol.method.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F6" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G6" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="H6" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -2778,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2792,54 +2792,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2859,13 +2859,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2879,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>440</v>
+        <v>723</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>442</v>
+        <v>724</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>444</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G6" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="H6" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="I6" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -2972,63 +2972,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3037,13 +3037,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3057,13 +3057,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3075,51 +3075,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B6" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C6" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="J6" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3206,135 +3206,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="AD1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3343,10 +3343,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3355,49 +3355,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="AD2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3411,25 +3411,25 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -3441,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3453,147 +3453,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="X3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="AD3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="B6" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C6" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="U6" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="X6" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="AA6" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3741,69 +3741,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3812,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3838,13 +3838,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -3856,10 +3856,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3873,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>567</v>
+        <v>726</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>569</v>
+        <v>727</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>571</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C6" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="J6" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="K6" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -4141,66 +4141,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H6" t="s">
         <v>579</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" t="s">
         <v>581</v>
       </c>
-      <c r="D6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" t="s">
-        <v>585</v>
-      </c>
-      <c r="F6" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6" t="s">
-        <v>589</v>
-      </c>
-      <c r="H6" t="s">
-        <v>590</v>
-      </c>
-      <c r="I6" t="s">
-        <v>592</v>
-      </c>
       <c r="J6" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G7" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" t="s">
         <v>580</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I7" t="s">
         <v>582</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
         <v>583</v>
-      </c>
-      <c r="E7" t="s">
-        <v>586</v>
-      </c>
-      <c r="F7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I7" t="s">
-        <v>593</v>
-      </c>
-      <c r="J7" t="s">
-        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -4303,19 +4303,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4380,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C6" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5040,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F6" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="P6" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="Q6" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="R6" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="V6" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="W6" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="X6" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="Y6" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="Z6" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="AA6" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="AE6" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="AH6" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="AI6" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="AM6" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -5166,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q4"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5264,40 +5264,40 @@
         <v>266</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
@@ -5371,25 +5371,25 @@
         <v>267</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>161</v>
@@ -5401,10 +5401,10 @@
         <v>139</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
@@ -5478,25 +5478,25 @@
         <v>268</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>87</v>
@@ -5508,10 +5508,10 @@
         <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
@@ -5559,13 +5559,13 @@
         <v>248</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>254</v>
@@ -5583,49 +5583,49 @@
         <v>265</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>269</v>
+        <v>718</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>285</v>
+        <v>719</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AD4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="L6" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="M6" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="N6" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="O6" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="P6" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="Q6" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="U6" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="V6" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="W6" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="X6" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="AA6" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="AH6" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="AI6" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -5839,61 +5839,61 @@
         <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5922,10 +5922,10 @@
         <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>197</v>
@@ -5937,16 +5937,16 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>142</v>
@@ -5958,7 +5958,7 @@
         <v>139</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>136</v>
@@ -5967,16 +5967,16 @@
         <v>139</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6005,10 +6005,10 @@
         <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -6020,16 +6020,16 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>87</v>
@@ -6050,108 +6050,108 @@
         <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="U4" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="X4" s="3" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6190,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="I6" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="J6" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="K6" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="L6" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="M6" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="P6" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="U6" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="V6" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="W6" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="AA6" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -6301,54 +6301,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6356,63 +6356,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6447,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6479,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6517,8 +6517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6531,54 +6531,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6598,13 +6598,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6616,33 +6616,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>428</v>
+        <v>720</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>430</v>
+        <v>721</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>432</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C6" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="G6" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="H6" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="I6" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16989376-F293-AF45-843D-4993CB3FEFC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D163FD67-1EFF-F94E-B04D-95DBC85EA57F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1134,30 +1134,18 @@
     <t>Enter 1 for well-based assays. For example: 2100</t>
   </si>
   <si>
-    <t>WELL PLATE ID (Required)</t>
-  </si>
-  <si>
     <t>An ID for the plate that the well is located on.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: 2217</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.plate_id</t>
-  </si>
-  <si>
-    <t>WELL ID</t>
-  </si>
-  <si>
     <t>An ID or name for the well. Should be unique for the plate.</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: A1</t>
   </si>
   <si>
-    <t>cell_suspension.plate_based_sequencing.well_id</t>
-  </si>
-  <si>
     <t>Note on how good cell looks if imaged in well before sequencing.</t>
   </si>
   <si>
@@ -2227,6 +2215,18 @@
   </si>
   <si>
     <t>sequencing_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.plate_label</t>
+  </si>
+  <si>
+    <t>cell_suspension.plate_based_sequencing.well_label</t>
+  </si>
+  <si>
+    <t>PLATE LABEL (Required)</t>
+  </si>
+  <si>
+    <t>WELL LABEL</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H6" t="s">
         <v>561</v>
-      </c>
-      <c r="B6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F6" t="s">
-        <v>699</v>
-      </c>
-      <c r="G6" t="s">
-        <v>564</v>
-      </c>
-      <c r="H6" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -2792,54 +2792,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -2859,13 +2859,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -2879,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G6" t="s">
         <v>657</v>
       </c>
-      <c r="C6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G6" t="s">
-        <v>661</v>
-      </c>
       <c r="H6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2972,63 +2972,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3037,13 +3037,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3057,14 +3057,14 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3075,51 +3075,51 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="D6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="J6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3206,135 +3206,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="AD1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>136</v>
@@ -3343,10 +3343,10 @@
         <v>139</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>136</v>
@@ -3355,49 +3355,49 @@
         <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="X2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="AD2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3411,26 +3411,26 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>87</v>
@@ -3453,147 +3453,147 @@
         <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="X3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="AD3" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" t="s">
+        <v>650</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" t="s">
-        <v>654</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="U6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="X6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="AA6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -3723,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -3741,69 +3741,69 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -3812,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>136</v>
@@ -3838,14 +3838,14 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3856,10 +3856,10 @@
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>87</v>
@@ -3873,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="J6" t="s">
         <v>686</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>575</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="J6" t="s">
-        <v>690</v>
-      </c>
-      <c r="K6" t="s">
-        <v>579</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -4141,66 +4141,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" t="s">
         <v>566</v>
       </c>
-      <c r="B6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E6" t="s">
         <v>570</v>
       </c>
-      <c r="D6" t="s">
-        <v>573</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G6" t="s">
         <v>574</v>
       </c>
-      <c r="F6" t="s">
-        <v>576</v>
-      </c>
-      <c r="G6" t="s">
-        <v>578</v>
-      </c>
       <c r="H6" t="s">
+        <v>575</v>
+      </c>
+      <c r="I6" t="s">
+        <v>577</v>
+      </c>
+      <c r="J6" t="s">
         <v>579</v>
-      </c>
-      <c r="I6" t="s">
-        <v>581</v>
-      </c>
-      <c r="J6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" t="s">
         <v>567</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" t="s">
         <v>571</v>
       </c>
-      <c r="D7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" t="s">
-        <v>575</v>
-      </c>
       <c r="F7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H7" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" t="s">
         <v>578</v>
       </c>
-      <c r="H7" t="s">
-        <v>580</v>
-      </c>
-      <c r="I7" t="s">
-        <v>582</v>
-      </c>
       <c r="J7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4303,19 +4303,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4380,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5040,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="P6" t="s">
         <v>599</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>599</v>
+      </c>
+      <c r="R6" t="s">
         <v>600</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="P6" t="s">
+      <c r="V6" t="s">
         <v>603</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
+        <v>604</v>
+      </c>
+      <c r="X6" t="s">
         <v>603</v>
       </c>
-      <c r="R6" t="s">
-        <v>604</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="V6" t="s">
-        <v>607</v>
-      </c>
-      <c r="W6" t="s">
-        <v>608</v>
-      </c>
-      <c r="X6" t="s">
-        <v>607</v>
-      </c>
       <c r="Y6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="Z6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="AA6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AE6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AH6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AI6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AM6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5559,13 +5559,13 @@
         <v>248</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>254</v>
@@ -5583,7 +5583,7 @@
         <v>265</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>272</v>
@@ -5595,7 +5595,7 @@
         <v>280</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>287</v>
@@ -5625,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="G6" t="s">
-        <v>595</v>
-      </c>
-      <c r="H6" t="s">
-        <v>596</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L6" t="s">
+        <v>615</v>
+      </c>
+      <c r="M6" t="s">
+        <v>616</v>
+      </c>
+      <c r="N6" t="s">
+        <v>615</v>
+      </c>
+      <c r="O6" t="s">
+        <v>691</v>
+      </c>
+      <c r="P6" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>691</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="U6" t="s">
+        <v>617</v>
+      </c>
+      <c r="V6" t="s">
+        <v>618</v>
+      </c>
+      <c r="W6" t="s">
         <v>619</v>
       </c>
-      <c r="M6" t="s">
+      <c r="X6" t="s">
         <v>620</v>
-      </c>
-      <c r="N6" t="s">
-        <v>619</v>
-      </c>
-      <c r="O6" t="s">
-        <v>695</v>
-      </c>
-      <c r="P6" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>695</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="U6" t="s">
-        <v>621</v>
-      </c>
-      <c r="V6" t="s">
-        <v>622</v>
-      </c>
-      <c r="W6" t="s">
-        <v>623</v>
-      </c>
-      <c r="X6" t="s">
-        <v>624</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AA6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AH6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AI6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -5791,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5887,13 +5887,13 @@
         <v>361</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>364</v>
+        <v>727</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>368</v>
+        <v>728</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5970,13 +5970,13 @@
         <v>362</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6053,13 +6053,13 @@
         <v>363</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -6133,25 +6133,25 @@
         <v>360</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>367</v>
+        <v>725</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>371</v>
+        <v>726</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>228</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6190,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="P6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="U6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="V6" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="W6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AA6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -6301,54 +6301,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6356,63 +6356,63 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>310</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6447,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6479,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6531,54 +6531,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>136</v>
@@ -6598,13 +6598,13 @@
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>87</v>
@@ -6618,31 +6618,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" t="s">
         <v>649</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>650</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>651</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>652</v>
       </c>
-      <c r="E6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G6" t="s">
-        <v>655</v>
-      </c>
-      <c r="H6" t="s">
-        <v>656</v>
-      </c>
       <c r="I6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D163FD67-1EFF-F94E-B04D-95DBC85EA57F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999968C-4650-5E47-883A-660DAD1C0537}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="Publications" sheetId="3" r:id="rId3"/>
-    <sheet name="Funder" sheetId="4" r:id="rId4"/>
+    <sheet name="Project - Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Project - Publications" sheetId="3" r:id="rId3"/>
+    <sheet name="Project - Funders" sheetId="4" r:id="rId4"/>
     <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
     <sheet name="Specimen from organism" sheetId="6" r:id="rId6"/>
     <sheet name="Cell suspension" sheetId="7" r:id="rId7"/>
@@ -4215,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5791,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999968C-4650-5E47-883A-660DAD1C0537}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792D0456-5E40-2440-AC42-E384495BA2A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18540" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Project - Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Project - Contributors" sheetId="2" r:id="rId2"/>
     <sheet name="Project - Publications" sheetId="3" r:id="rId3"/>
     <sheet name="Project - Funders" sheetId="4" r:id="rId4"/>
     <sheet name="Donor organism" sheetId="5" r:id="rId5"/>
@@ -3986,7 +3986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -4215,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hewgreen/google_drive_EBI/hca_clones/metadata-schema/infrastructure_testing_files/current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792D0456-5E40-2440-AC42-E384495BA2A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E574E08-272B-DF44-AC57-80B9D068B4FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18540" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t xml:space="preserve"> For example: principal investigator; computational scientist</t>
   </si>
   <si>
-    <t>project.contributors.project_role</t>
-  </si>
-  <si>
     <t>ORCID ID</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t xml:space="preserve"> For example: Study of single cells in the human body</t>
   </si>
   <si>
-    <t>project.publications.publication_title</t>
-  </si>
-  <si>
     <t>PUBLICATION DOI</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t xml:space="preserve"> For example: </t>
   </si>
   <si>
-    <t>project.publications.publication_url</t>
-  </si>
-  <si>
     <t>GRANT TITLE</t>
   </si>
   <si>
@@ -2227,6 +2218,15 @@
   </si>
   <si>
     <t>WELL LABEL</t>
+  </si>
+  <si>
+    <t>project.publications.title</t>
+  </si>
+  <si>
+    <t>project.publications.url</t>
+  </si>
+  <si>
+    <t>project.contributors.project_role.text</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G6" t="s">
         <v>557</v>
       </c>
-      <c r="B6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>558</v>
-      </c>
-      <c r="F6" t="s">
-        <v>695</v>
-      </c>
-      <c r="G6" t="s">
-        <v>560</v>
-      </c>
-      <c r="H6" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -2792,118 +2792,118 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H6" t="s">
+        <v>652</v>
+      </c>
+      <c r="I6" t="s">
         <v>653</v>
-      </c>
-      <c r="C6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F6" t="s">
-        <v>650</v>
-      </c>
-      <c r="G6" t="s">
-        <v>657</v>
-      </c>
-      <c r="H6" t="s">
-        <v>655</v>
-      </c>
-      <c r="I6" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2972,154 +2972,154 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="J6" t="s">
         <v>659</v>
-      </c>
-      <c r="B6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C6" t="s">
-        <v>661</v>
-      </c>
-      <c r="D6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F6" t="s">
-        <v>650</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="J6" t="s">
-        <v>662</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3206,394 +3206,394 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" t="s">
+        <v>647</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B6" t="s">
+      <c r="L6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F6" t="s">
-        <v>650</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="U6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="X6" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AA6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AD6" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>680</v>
-      </c>
       <c r="AF6" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -3741,178 +3741,178 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>541</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>540</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J6" t="s">
         <v>683</v>
       </c>
-      <c r="D6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F6" t="s">
-        <v>650</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="K6" t="s">
+        <v>572</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="J6" t="s">
-        <v>686</v>
-      </c>
-      <c r="K6" t="s">
-        <v>575</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -3986,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4026,7 +4026,7 @@
         <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
         <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -4090,10 +4090,10 @@
         <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4119,10 +4119,10 @@
         <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>64</v>
+        <v>728</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4141,66 +4141,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" t="s">
         <v>566</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" t="s">
         <v>569</v>
       </c>
-      <c r="E6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" t="s">
         <v>572</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>574</v>
       </c>
-      <c r="H6" t="s">
-        <v>575</v>
-      </c>
-      <c r="I6" t="s">
-        <v>577</v>
-      </c>
       <c r="J6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" t="s">
         <v>565</v>
       </c>
-      <c r="C7" t="s">
-        <v>567</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>568</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" t="s">
         <v>571</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>573</v>
       </c>
-      <c r="G7" t="s">
-        <v>574</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>575</v>
+      </c>
+      <c r="J7" t="s">
         <v>576</v>
-      </c>
-      <c r="I7" t="s">
-        <v>578</v>
-      </c>
-      <c r="J7" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4216,7 +4216,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4226,70 +4226,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>726</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4303,19 +4303,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4341,46 +4341,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4456,538 +4456,538 @@
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="Y2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AR2" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="AA4" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AF4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="AH4" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AJ4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AK4" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="AL4" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" t="s">
         <v>590</v>
       </c>
-      <c r="F6" t="s">
-        <v>593</v>
-      </c>
       <c r="G6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P6" t="s">
         <v>596</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>596</v>
+      </c>
+      <c r="R6" t="s">
         <v>597</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="T6" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="Q6" t="s">
-        <v>599</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="U6" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="V6" t="s">
         <v>600</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="W6" t="s">
         <v>601</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="V6" t="s">
-        <v>603</v>
-      </c>
-      <c r="W6" t="s">
-        <v>604</v>
-      </c>
       <c r="X6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Z6" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AA6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AE6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AH6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AI6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AM6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -5195,437 +5195,437 @@
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="AC2" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AH2" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AA3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="AC3" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="AB4" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="G6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L6" t="s">
+        <v>612</v>
+      </c>
+      <c r="M6" t="s">
+        <v>613</v>
+      </c>
+      <c r="N6" t="s">
+        <v>612</v>
+      </c>
+      <c r="O6" t="s">
+        <v>688</v>
+      </c>
+      <c r="P6" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>688</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="U6" t="s">
+        <v>614</v>
+      </c>
+      <c r="V6" t="s">
         <v>615</v>
       </c>
-      <c r="M6" t="s">
+      <c r="W6" t="s">
         <v>616</v>
       </c>
-      <c r="N6" t="s">
-        <v>615</v>
-      </c>
-      <c r="O6" t="s">
-        <v>691</v>
-      </c>
-      <c r="P6" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>691</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>617</v>
-      </c>
-      <c r="V6" t="s">
-        <v>618</v>
-      </c>
-      <c r="W6" t="s">
-        <v>619</v>
-      </c>
-      <c r="X6" t="s">
-        <v>620</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AA6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AH6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AI6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5815,343 +5815,343 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="S2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6190,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="G6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I6" t="s">
+        <v>626</v>
+      </c>
+      <c r="J6" t="s">
+        <v>627</v>
+      </c>
+      <c r="K6" t="s">
+        <v>628</v>
+      </c>
+      <c r="L6" t="s">
         <v>629</v>
       </c>
-      <c r="J6" t="s">
-        <v>630</v>
-      </c>
-      <c r="K6" t="s">
-        <v>631</v>
-      </c>
-      <c r="L6" t="s">
-        <v>632</v>
-      </c>
       <c r="M6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="U6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="V6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="W6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AA6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6301,118 +6301,118 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" t="s">
         <v>640</v>
-      </c>
-      <c r="D6" t="s">
-        <v>643</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6447,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6479,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6531,118 +6531,118 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D6" t="s">
         <v>645</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>646</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>647</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>648</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>649</v>
       </c>
-      <c r="F6" t="s">
-        <v>650</v>
-      </c>
-      <c r="G6" t="s">
-        <v>651</v>
-      </c>
-      <c r="H6" t="s">
-        <v>652</v>
-      </c>
       <c r="I6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E574E08-272B-DF44-AC57-80B9D068B4FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85866530-3220-AB44-B61D-32315A49F23E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17400" yWindow="4660" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t xml:space="preserve"> For example: SAMN00000000</t>
   </si>
   <si>
-    <t>donor_organism.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
     <t>INSDC ID</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t xml:space="preserve"> For example: SRS0000000</t>
   </si>
   <si>
-    <t>donor_organism.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
     <t>BODY MASS INDEX</t>
   </si>
   <si>
@@ -735,12 +729,6 @@
     <t>specimen_from_organism.biomaterial_core.supplementary_files</t>
   </si>
   <si>
-    <t>specimen_from_organism.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>specimen_from_organism.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
     <t>SPECIMEN_FROM_ORGANISM.GENUS_SPECIES.TEXT (Required)</t>
   </si>
   <si>
@@ -981,12 +969,6 @@
     <t>cell_suspension.biomaterial_core.supplementary_files</t>
   </si>
   <si>
-    <t>cell_suspension.biomaterial_core.biosd_biomaterial</t>
-  </si>
-  <si>
-    <t>cell_suspension.biomaterial_core.insdc_biomaterial</t>
-  </si>
-  <si>
     <t>CELL MORPHOLOGY</t>
   </si>
   <si>
@@ -2227,6 +2209,24 @@
   </si>
   <si>
     <t>project.contributors.project_role.text</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>donor_organism.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.biosamples_accession</t>
+  </si>
+  <si>
+    <t>cell_suspension.biomaterial_core.insdc_sample_accession</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -2792,60 +2792,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -2859,13 +2859,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -2879,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G6" t="s">
+        <v>648</v>
+      </c>
+      <c r="H6" t="s">
         <v>646</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>647</v>
-      </c>
-      <c r="G6" t="s">
-        <v>654</v>
-      </c>
-      <c r="H6" t="s">
-        <v>652</v>
-      </c>
-      <c r="I6" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -2972,78 +2972,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3057,13 +3057,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -3075,51 +3075,51 @@
         <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D6" t="s">
-        <v>645</v>
-      </c>
-      <c r="E6" t="s">
-        <v>646</v>
-      </c>
-      <c r="F6" t="s">
-        <v>647</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>662</v>
-      </c>
       <c r="J6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3206,198 +3206,198 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3411,25 +3411,25 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>85</v>
@@ -3441,7 +3441,7 @@
         <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>85</v>
@@ -3453,147 +3453,147 @@
         <v>85</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="AE4" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>641</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B6" t="s">
+      <c r="P6" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="C6" t="s">
-        <v>664</v>
-      </c>
-      <c r="D6" t="s">
-        <v>645</v>
-      </c>
-      <c r="E6" t="s">
-        <v>646</v>
-      </c>
-      <c r="F6" t="s">
-        <v>647</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="U6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="X6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AA6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -3741,90 +3741,90 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3838,13 +3838,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -3856,10 +3856,10 @@
         <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>85</v>
@@ -3873,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" t="s">
         <v>639</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="J6" t="s">
+        <v>677</v>
+      </c>
+      <c r="K6" t="s">
+        <v>566</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D6" t="s">
-        <v>645</v>
-      </c>
-      <c r="E6" t="s">
-        <v>646</v>
-      </c>
-      <c r="F6" t="s">
-        <v>647</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="J6" t="s">
-        <v>683</v>
-      </c>
-      <c r="K6" t="s">
-        <v>572</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>685</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +3986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4119,7 +4119,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>67</v>
@@ -4141,66 +4141,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" t="s">
         <v>561</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>563</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H6" t="s">
         <v>566</v>
       </c>
-      <c r="E6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" t="s">
-        <v>571</v>
-      </c>
-      <c r="H6" t="s">
-        <v>572</v>
-      </c>
       <c r="I6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="J6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" t="s">
+        <v>559</v>
+      </c>
+      <c r="E7" t="s">
         <v>562</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>564</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>565</v>
       </c>
-      <c r="E7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I7" t="s">
+        <v>569</v>
+      </c>
+      <c r="J7" t="s">
         <v>570</v>
-      </c>
-      <c r="G7" t="s">
-        <v>571</v>
-      </c>
-      <c r="H7" t="s">
-        <v>573</v>
-      </c>
-      <c r="I7" t="s">
-        <v>575</v>
-      </c>
-      <c r="J7" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4280,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>78</v>
@@ -4289,7 +4289,7 @@
         <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4303,19 +4303,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4380,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -4410,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AA6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4477,115 +4477,115 @@
         <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="119" x14ac:dyDescent="0.2">
@@ -4611,115 +4611,115 @@
         <v>118</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="85" x14ac:dyDescent="0.2">
@@ -4745,10 +4745,10 @@
         <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>85</v>
@@ -4769,13 +4769,13 @@
         <v>85</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>85</v>
@@ -4805,7 +4805,7 @@
         <v>85</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>85</v>
@@ -4817,7 +4817,7 @@
         <v>85</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>85</v>
@@ -4829,7 +4829,7 @@
         <v>85</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>85</v>
@@ -4841,7 +4841,7 @@
         <v>85</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>85</v>
@@ -4853,7 +4853,7 @@
         <v>85</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -4876,118 +4876,118 @@
         <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>120</v>
+        <v>723</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>724</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="V4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="AB4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AI4" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="AJ4" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="AN4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AQ4" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="AR4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="P6" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>590</v>
+      </c>
+      <c r="R6" t="s">
         <v>591</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="V6" t="s">
         <v>594</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="W6" t="s">
         <v>595</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="X6" t="s">
         <v>594</v>
       </c>
-      <c r="P6" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>596</v>
-      </c>
-      <c r="R6" t="s">
-        <v>597</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="V6" t="s">
-        <v>600</v>
-      </c>
-      <c r="W6" t="s">
-        <v>601</v>
-      </c>
-      <c r="X6" t="s">
-        <v>600</v>
-      </c>
       <c r="Y6" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="Z6" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AA6" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AE6" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AH6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AI6" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AM6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5166,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5216,88 +5216,88 @@
         <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="136" x14ac:dyDescent="0.2">
@@ -5323,88 +5323,88 @@
         <v>118</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="AB2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="68" x14ac:dyDescent="0.2">
@@ -5430,7 +5430,7 @@
         <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>85</v>
@@ -5469,35 +5469,35 @@
         <v>85</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="AB3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="AE3" s="2" t="s">
         <v>85</v>
       </c>
@@ -5508,124 +5508,124 @@
         <v>85</v>
       </c>
       <c r="AH3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AA4" s="3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="AB4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>99</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5671,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="M6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="N6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="O6" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="P6" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q6" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="U6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="V6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="W6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="X6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AA6" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AH6" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AI6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5791,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5836,64 +5836,64 @@
         <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -5919,64 +5919,64 @@
         <v>118</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="68" x14ac:dyDescent="0.2">
@@ -6002,13 +6002,13 @@
         <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>85</v>
@@ -6020,16 +6020,16 @@
         <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>85</v>
@@ -6050,108 +6050,108 @@
         <v>85</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="U4" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6190,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G6" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="J6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="K6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="L6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="M6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="P6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="U6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="V6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="W6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AA6" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -6301,54 +6301,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6356,63 +6356,63 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6447,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6479,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6531,60 +6531,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -6598,13 +6598,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -6618,31 +6618,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D6" t="s">
+        <v>639</v>
+      </c>
+      <c r="E6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>641</v>
+      </c>
+      <c r="G6" t="s">
         <v>642</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>643</v>
       </c>
-      <c r="C6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D6" t="s">
-        <v>645</v>
-      </c>
-      <c r="E6" t="s">
-        <v>646</v>
-      </c>
-      <c r="F6" t="s">
-        <v>647</v>
-      </c>
-      <c r="G6" t="s">
-        <v>648</v>
-      </c>
-      <c r="H6" t="s">
-        <v>649</v>
-      </c>
       <c r="I6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85866530-3220-AB44-B61D-32315A49F23E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686EC737-B0D9-CC42-9CE0-9BECB92FE40D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="4660" windowWidth="28800" windowHeight="16580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17400" yWindow="4660" windowWidth="28800" windowHeight="16580" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1335,21 +1335,12 @@
     <t>ENRICHMENT_PROTOCOL.ENRICHMENT_METHOD.TEXT (Required)</t>
   </si>
   <si>
-    <t>enrichment_protocol.enrichment_method.text</t>
-  </si>
-  <si>
     <t>ENRICHMENT_PROTOCOL.ENRICHMENT_METHOD.ONTOLOGY</t>
   </si>
   <si>
-    <t>enrichment_protocol.enrichment_method.ontology</t>
-  </si>
-  <si>
     <t>ENRICHMENT_PROTOCOL.ENRICHMENT_METHOD.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>enrichment_protocol.enrichment_method.ontology_label</t>
-  </si>
-  <si>
     <t>MARKERS</t>
   </si>
   <si>
@@ -1371,9 +1362,6 @@
     <t xml:space="preserve"> For example: 70</t>
   </si>
   <si>
-    <t>enrichment_protocol.min_size_selected</t>
-  </si>
-  <si>
     <t>MAXIMUM SIZE SELECTED</t>
   </si>
   <si>
@@ -1383,9 +1371,6 @@
     <t xml:space="preserve"> For example: 90</t>
   </si>
   <si>
-    <t>enrichment_protocol.max_size_selected</t>
-  </si>
-  <si>
     <t>library_preparation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
@@ -2227,6 +2212,21 @@
   </si>
   <si>
     <t>cell_suspension.biomaterial_core.insdc_sample_accession</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.method.text</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.minimum_size</t>
+  </si>
+  <si>
+    <t>enrichment_protocol.maximum_size</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -2897,13 +2897,13 @@
         <v>420</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H6" t="s">
         <v>641</v>
       </c>
-      <c r="G6" t="s">
-        <v>648</v>
-      </c>
-      <c r="H6" t="s">
-        <v>646</v>
-      </c>
       <c r="I6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="G4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2993,19 +2993,19 @@
         <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -3037,13 +3037,13 @@
         <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3075,13 +3075,13 @@
         <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3104,22 +3104,22 @@
         <v>429</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>431</v>
+        <v>724</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>433</v>
+        <v>725</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>435</v>
+        <v>726</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>443</v>
+        <v>727</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>447</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C6" t="s">
-        <v>652</v>
-      </c>
-      <c r="D6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F6" t="s">
-        <v>641</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>656</v>
-      </c>
       <c r="J6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3224,82 +3224,82 @@
         <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3322,19 +3322,19 @@
         <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>131</v>
@@ -3343,10 +3343,10 @@
         <v>134</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>131</v>
@@ -3355,49 +3355,49 @@
         <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3420,16 +3420,16 @@
         <v>409</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>85</v>
@@ -3441,159 +3441,159 @@
         <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="S4" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="AE4" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,84 +3634,84 @@
     </row>
     <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B6" t="s">
+      <c r="O6" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F6" t="s">
-        <v>641</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="S6">
         <v>20014279</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="U6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="X6" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="Y6">
         <v>20014279</v>
       </c>
       <c r="Z6" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AA6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -3759,28 +3759,28 @@
         <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -3803,7 +3803,7 @@
         <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>131</v>
@@ -3812,13 +3812,13 @@
         <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>131</v>
@@ -3856,10 +3856,10 @@
         <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>85</v>
@@ -3873,46 +3873,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,46 +3935,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J6" t="s">
+        <v>672</v>
+      </c>
+      <c r="K6" t="s">
+        <v>561</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F6" t="s">
-        <v>641</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="J6" t="s">
-        <v>677</v>
-      </c>
-      <c r="K6" t="s">
-        <v>566</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>679</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4119,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>67</v>
@@ -4141,66 +4141,66 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" t="s">
         <v>555</v>
       </c>
-      <c r="C6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F6" t="s">
+        <v>558</v>
+      </c>
+      <c r="G6" t="s">
         <v>560</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>561</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>563</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>565</v>
-      </c>
-      <c r="H6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I6" t="s">
-        <v>568</v>
-      </c>
-      <c r="J6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" t="s">
-        <v>558</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F7" t="s">
         <v>559</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H7" t="s">
         <v>562</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>564</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>565</v>
-      </c>
-      <c r="H7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I7" t="s">
-        <v>569</v>
-      </c>
-      <c r="J7" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4280,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>78</v>
@@ -4289,7 +4289,7 @@
         <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4303,19 +4303,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D6">
         <v>27565351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4380,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,13 +4392,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -4876,10 +4876,10 @@
         <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>126</v>
@@ -5040,121 +5040,121 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F6" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I6">
         <v>36.4</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="P6" t="s">
         <v>585</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>585</v>
+      </c>
+      <c r="R6" t="s">
         <v>586</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="V6" t="s">
         <v>589</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="W6" t="s">
         <v>590</v>
       </c>
-      <c r="Q6" t="s">
-        <v>590</v>
-      </c>
-      <c r="R6" t="s">
-        <v>591</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="V6" t="s">
-        <v>594</v>
-      </c>
-      <c r="W6" t="s">
-        <v>595</v>
-      </c>
       <c r="X6" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="Y6" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="Z6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AA6" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AB6">
         <v>22</v>
       </c>
       <c r="AC6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AE6" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AF6">
         <v>160</v>
       </c>
       <c r="AG6" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AH6" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AI6" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AJ6">
         <v>127</v>
       </c>
       <c r="AK6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AM6" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5535,10 +5535,10 @@
         <v>228</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>230</v>
@@ -5559,13 +5559,13 @@
         <v>241</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>247</v>
@@ -5583,7 +5583,7 @@
         <v>258</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>265</v>
@@ -5595,7 +5595,7 @@
         <v>273</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>280</v>
@@ -5671,115 +5671,115 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H6" t="s">
+        <v>578</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="G6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>588</v>
-      </c>
       <c r="L6" t="s">
+        <v>601</v>
+      </c>
+      <c r="M6" t="s">
+        <v>602</v>
+      </c>
+      <c r="N6" t="s">
+        <v>601</v>
+      </c>
+      <c r="O6" t="s">
+        <v>677</v>
+      </c>
+      <c r="P6" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>677</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="U6" t="s">
+        <v>603</v>
+      </c>
+      <c r="V6" t="s">
+        <v>604</v>
+      </c>
+      <c r="W6" t="s">
+        <v>605</v>
+      </c>
+      <c r="X6" t="s">
         <v>606</v>
-      </c>
-      <c r="M6" t="s">
-        <v>607</v>
-      </c>
-      <c r="N6" t="s">
-        <v>606</v>
-      </c>
-      <c r="O6" t="s">
-        <v>682</v>
-      </c>
-      <c r="P6" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>682</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="U6" t="s">
-        <v>608</v>
-      </c>
-      <c r="V6" t="s">
-        <v>609</v>
-      </c>
-      <c r="W6" t="s">
-        <v>610</v>
-      </c>
-      <c r="X6" t="s">
-        <v>611</v>
       </c>
       <c r="Y6">
         <v>7200</v>
       </c>
       <c r="Z6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AA6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AB6">
         <v>2400</v>
       </c>
       <c r="AC6" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AD6">
         <v>5</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AH6" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AI6" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -5791,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -5887,13 +5887,13 @@
         <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="119" x14ac:dyDescent="0.2">
@@ -6082,10 +6082,10 @@
         <v>308</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>312</v>
@@ -6133,16 +6133,16 @@
         <v>351</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>223</v>
@@ -6190,73 +6190,73 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D6">
         <v>9606</v>
       </c>
       <c r="E6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H6" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I6" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="J6" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="K6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="L6" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="M6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="N6">
         <v>98.7</v>
       </c>
       <c r="O6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="P6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="U6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="V6" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="W6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -6265,19 +6265,19 @@
         <v>2217</v>
       </c>
       <c r="Z6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AA6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -6406,13 +6406,13 @@
         <v>303</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6432,13 +6432,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" t="s">
         <v>629</v>
-      </c>
-      <c r="B6" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" t="s">
-        <v>634</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6447,16 +6447,16 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6479,16 +6479,16 @@
         <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -6636,13 +6636,13 @@
         <v>410</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6660,31 +6660,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F6" t="s">
         <v>636</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>637</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>638</v>
       </c>
-      <c r="D6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F6" t="s">
-        <v>641</v>
-      </c>
-      <c r="G6" t="s">
-        <v>642</v>
-      </c>
-      <c r="H6" t="s">
-        <v>643</v>
-      </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
+++ b/infrastructure_testing_files/current/dcp_integration_test_metadata_1_SS2_bundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686EC737-B0D9-CC42-9CE0-9BECB92FE40D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB9315-5CEA-244D-9B3E-0A3CFF7F68EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="4660" windowWidth="28800" windowHeight="16580" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17400" yWindow="4660" windowWidth="28800" windowHeight="16580" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1083,21 +1083,12 @@
     <t>The name of a cell type supplied by a user.</t>
   </si>
   <si>
-    <t>cell_suspension.selected_cell_type.text</t>
-  </si>
-  <si>
     <t>CELL_SUSPENSION.SELECTED_CELL_TYPE.ONTOLOGY</t>
   </si>
   <si>
-    <t>cell_suspension.selected_cell_type.ontology</t>
-  </si>
-  <si>
     <t>CELL_SUSPENSION.SELECTED_CELL_TYPE.ONTOLOGY_LABEL</t>
   </si>
   <si>
-    <t>cell_suspension.selected_cell_type.ontology_label</t>
-  </si>
-  <si>
     <t>ESTIMATED CELL COUNT</t>
   </si>
   <si>
@@ -2227,6 +2218,15 @@
   </si>
   <si>
     <t>enrichment_protocol.maximum_size</t>
+  </si>
+  <si>
+    <t>cell_suspension.selected_cell_types.text</t>
+  </si>
+  <si>
+    <t>cell_suspension.selected_cell_types.ontology</t>
+  </si>
+  <si>
+    <t>cell_suspension.selected_cell_types.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -2722,16 +2722,16 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G6" t="s">
         <v>543</v>
       </c>
-      <c r="B6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C6" t="s">
-        <v>545</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>544</v>
-      </c>
-      <c r="F6" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" t="s">
-        <v>546</v>
-      </c>
-      <c r="H6" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -2792,54 +2792,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>131</v>
@@ -2859,13 +2859,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -2879,31 +2879,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,31 +2921,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G6" t="s">
+        <v>640</v>
+      </c>
+      <c r="H6" t="s">
+        <v>638</v>
+      </c>
+      <c r="I6" t="s">
         <v>639</v>
-      </c>
-      <c r="C6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D6" t="s">
-        <v>634</v>
-      </c>
-      <c r="E6" t="s">
-        <v>635</v>
-      </c>
-      <c r="F6" t="s">
-        <v>636</v>
-      </c>
-      <c r="G6" t="s">
-        <v>643</v>
-      </c>
-      <c r="H6" t="s">
-        <v>641</v>
-      </c>
-      <c r="I6" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L4" sqref="G4:L4"/>
     </sheetView>
   </sheetViews>
@@ -2972,63 +2972,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>131</v>
@@ -3037,13 +3037,13 @@
         <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -3057,13 +3057,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
@@ -3075,51 +3075,51 @@
         <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,34 +3140,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="J6" t="s">
         <v>645</v>
-      </c>
-      <c r="B6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" t="s">
-        <v>634</v>
-      </c>
-      <c r="E6" t="s">
-        <v>635</v>
-      </c>
-      <c r="F6" t="s">
-        <v>636</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="J6" t="s">
-        <v>648</v>
       </c>
       <c r="K6">
         <v>70</v>
@@ -3206,135 +3206,135 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>131</v>
@@ -3343,10 +3343,10 @@
         <v>134</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>131</v>
@@ -3355,49 +3355,49 @@
         <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="68" x14ac:dyDescent="0.2">
@@ -3411,25 +3411,25 @@
         <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>85</v>
@@ -3441,7 +3441,7 @@
         <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>85</v>
@@ -3453,147 +3453,147 @@
         <v>85</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
    